--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F084F7D9-6CA1-4839-A9D9-68BA48FA097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8F889-94FD-4E98-AC42-E43ACBE75A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24720" yWindow="75" windowWidth="26460" windowHeight="20880" activeTab="1" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="-25350" yWindow="660" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Price</t>
   </si>
@@ -175,12 +175,60 @@
   </si>
   <si>
     <t>Vyondys</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Elevidys</t>
+  </si>
+  <si>
+    <t>PMOs</t>
+  </si>
+  <si>
+    <t>Elevidys (delandistrogene moxeparvovec)</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>AAV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -310,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -329,7 +377,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -337,17 +384,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{392A8224-6741-4526-98A9-054D33B5CE27}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -363,16 +412,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21772</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -387,8 +436,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8278586" y="48986"/>
-          <a:ext cx="0" cy="5121728"/>
+          <a:off x="12534901" y="0"/>
+          <a:ext cx="0" cy="5611585"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -415,9 +464,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -455,7 +504,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -561,7 +610,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,7 +752,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -711,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A776BD77-B28E-481D-8F32-5A036EE3467C}">
-  <dimension ref="B2:M11"/>
+  <dimension ref="B2:M12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -724,180 +773,182 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="17"/>
+      <c r="D2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="10"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>87.782576000000006</v>
+        <v>95.366333999999995</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+      <c r="D4" s="18">
+        <v>45463</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="10"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>10446.126544000001</v>
+        <v>13160.554091999998</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="10"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>1038.624+1033.86</f>
-        <v>2072.4839999999999</v>
+        <f>383.622+1076.852</f>
+        <v>1460.4740000000002</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="10"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>1542.77</v>
+        <f>1134.81+91.505</f>
+        <v>1226.3150000000001</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>9916.4125440000007</v>
+        <v>12926.395091999999</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="2">
+        <v>5481.723</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="2">
+        <v>4403.634</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="9"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -907,28 +958,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="3" max="17" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -965,81 +1016,105 @@
       <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T2">
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2">
         <v>2010</v>
       </c>
-      <c r="U2">
-        <f>+T2+1</f>
+      <c r="Z2">
+        <f>+Y2+1</f>
         <v>2011</v>
       </c>
-      <c r="V2">
-        <f t="shared" ref="V2:AK2" si="0">+U2+1</f>
+      <c r="AA2">
+        <f t="shared" ref="AA2:AP2" si="0">+Z2+1</f>
         <v>2012</v>
       </c>
-      <c r="W2">
+      <c r="AB2">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="X2">
+      <c r="AC2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="Y2">
+      <c r="AD2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="Z2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="AA2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AE2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AF2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AI2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AJ2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="19" t="s">
-        <v>43</v>
+    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1047,20 +1122,42 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5">
-        <v>115.598</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5">
-        <v>122.262</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="R3" s="5">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="S3" s="5">
+        <v>133.93600000000001</v>
+      </c>
+      <c r="T3" s="5">
+        <v>121.721</v>
+      </c>
+      <c r="U3" s="5">
+        <f>+T3</f>
+        <v>121.721</v>
+      </c>
+      <c r="V3" s="5">
+        <f>+U3</f>
+        <v>121.721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -1068,20 +1165,44 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5">
-        <v>26.655000000000001</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5">
-        <v>54.893000000000001</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>45</v>
+      <c r="O4" s="5">
+        <v>231.495</v>
+      </c>
+      <c r="P4" s="5">
+        <v>238.988</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>309.322-Q3</f>
+        <v>240.22200000000001</v>
+      </c>
+      <c r="R4" s="5">
+        <f>+R8-R3</f>
+        <v>233.87100000000004</v>
+      </c>
+      <c r="S4" s="5">
+        <v>225.548</v>
+      </c>
+      <c r="T4" s="5">
+        <v>238.827</v>
+      </c>
+      <c r="U4" s="5">
+        <f>+T4</f>
+        <v>238.827</v>
+      </c>
+      <c r="V4" s="5">
+        <f>+U4</f>
+        <v>238.827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1090,19 +1211,22 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5">
-        <v>24.658000000000001</v>
+        <v>115.598</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5">
-        <v>30.619</v>
+        <v>122.262</v>
       </c>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1111,21 +1235,22 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5">
-        <f>+I5+I4+I3</f>
-        <v>166.911</v>
+        <v>26.655000000000001</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5">
-        <f>+M5+M4+M3</f>
-        <v>207.774</v>
+        <v>54.893000000000001</v>
       </c>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1134,42 +1259,76 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5">
-        <v>22.495000000000001</v>
+        <v>24.658000000000001</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5">
-        <v>22.495000000000001</v>
+        <v>30.619</v>
       </c>
       <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7">
-        <f>+I6+I7</f>
-        <v>189.40600000000001</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7">
-        <f>+M6+M7</f>
-        <v>230.26900000000001</v>
-      </c>
-      <c r="N8" s="7"/>
-    </row>
-    <row r="9" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <f>+I7+I6+I5</f>
+        <v>166.911</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
+        <f>+M7+M6+M5</f>
+        <v>207.774</v>
+      </c>
+      <c r="N8" s="2">
+        <v>235.93299999999999</v>
+      </c>
+      <c r="O8" s="2">
+        <v>231.495</v>
+      </c>
+      <c r="P8" s="2">
+        <f>SUM(P3:P4)</f>
+        <v>238.988</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>+Q4+Q3</f>
+        <v>309.322</v>
+      </c>
+      <c r="R8" s="2">
+        <v>365.07100000000003</v>
+      </c>
+      <c r="S8" s="2">
+        <v>359.48399999999998</v>
+      </c>
+      <c r="T8" s="2">
+        <f>SUM(T3:T4)</f>
+        <v>360.548</v>
+      </c>
+      <c r="U8" s="2">
+        <f>SUM(U3:U4)</f>
+        <v>360.548</v>
+      </c>
+      <c r="V8" s="2">
+        <f>SUM(V3:V4)</f>
+        <v>360.548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1178,42 +1337,105 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <v>23.443999999999999</v>
+        <v>22.495000000000001</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5">
-        <v>39.951999999999998</v>
-      </c>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
-        <f>+I8-I9</f>
-        <v>165.96200000000002</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
-        <f>+M8-M9</f>
-        <v>190.31700000000001</v>
-      </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>22.495000000000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>22.494</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22.004999999999999</v>
+      </c>
+      <c r="P9" s="2">
+        <v>22.25</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>22.495000000000001</v>
+      </c>
+      <c r="R9" s="2">
+        <v>31.71</v>
+      </c>
+      <c r="S9" s="2">
+        <v>53.98</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2.383</v>
+      </c>
+      <c r="U9" s="2">
+        <f>+T9</f>
+        <v>2.383</v>
+      </c>
+      <c r="V9" s="2">
+        <f>+U9</f>
+        <v>2.383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
+        <f>+I8+I9</f>
+        <v>189.40600000000001</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7">
+        <f>+M8+M9</f>
+        <v>230.26900000000001</v>
+      </c>
+      <c r="N10" s="6">
+        <f>+N8+N9</f>
+        <v>258.42700000000002</v>
+      </c>
+      <c r="O10" s="6">
+        <f>+O8+O9</f>
+        <v>253.5</v>
+      </c>
+      <c r="P10" s="6">
+        <f>+P8+P9</f>
+        <v>261.238</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>+Q8+Q9</f>
+        <v>331.81700000000001</v>
+      </c>
+      <c r="R10" s="6">
+        <f>+R8+R9</f>
+        <v>396.78100000000001</v>
+      </c>
+      <c r="S10" s="6">
+        <f>+S8+S9</f>
+        <v>413.464</v>
+      </c>
+      <c r="T10" s="6">
+        <f>+T8+T9</f>
+        <v>362.93099999999998</v>
+      </c>
+      <c r="U10" s="6">
+        <f>+U8+U9</f>
+        <v>362.93099999999998</v>
+      </c>
+      <c r="V10" s="6">
+        <f>+V8+V9</f>
+        <v>362.93099999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1222,19 +1444,39 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <v>139.11500000000001</v>
+        <v>23.443999999999999</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5">
-        <v>216.70699999999999</v>
-      </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39.951999999999998</v>
+      </c>
+      <c r="N11" s="2">
+        <v>30.798999999999999</v>
+      </c>
+      <c r="O11" s="2">
+        <v>35.017000000000003</v>
+      </c>
+      <c r="P11" s="2">
+        <v>34.124000000000002</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>37.026000000000003</v>
+      </c>
+      <c r="R11" s="2">
+        <v>44.176000000000002</v>
+      </c>
+      <c r="S11" s="2">
+        <v>50.558999999999997</v>
+      </c>
+      <c r="T11" s="2">
+        <v>44.545000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1243,19 +1485,48 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5">
-        <v>61.127000000000002</v>
+        <f>+I10-I11</f>
+        <v>165.96200000000002</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5">
-        <v>104.78700000000001</v>
-      </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+M10-M11</f>
+        <v>190.31700000000001</v>
+      </c>
+      <c r="N12" s="2">
+        <f>+N10-N11</f>
+        <v>227.62800000000001</v>
+      </c>
+      <c r="O12" s="2">
+        <f>+O10-O11</f>
+        <v>218.483</v>
+      </c>
+      <c r="P12" s="2">
+        <f>+P10-P11</f>
+        <v>227.114</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>+Q10-Q11</f>
+        <v>294.791</v>
+      </c>
+      <c r="R12" s="2">
+        <f>+R10-R11</f>
+        <v>352.60500000000002</v>
+      </c>
+      <c r="S12" s="2">
+        <f>+S10-S11</f>
+        <v>362.90499999999997</v>
+      </c>
+      <c r="T12" s="2">
+        <f>+T10-T11</f>
+        <v>318.38599999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1264,21 +1535,39 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5">
-        <f>+I11+I12</f>
-        <v>200.24200000000002</v>
+        <v>139.11500000000001</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5">
-        <f>+M11+M12</f>
-        <v>321.49400000000003</v>
-      </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>216.70699999999999</v>
+      </c>
+      <c r="N13" s="2">
+        <v>213.804</v>
+      </c>
+      <c r="O13" s="2">
+        <v>245.679</v>
+      </c>
+      <c r="P13" s="2">
+        <v>241.89</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>194.30099999999999</v>
+      </c>
+      <c r="R13" s="2">
+        <v>195.517</v>
+      </c>
+      <c r="S13" s="2">
+        <v>200.39599999999999</v>
+      </c>
+      <c r="T13" s="2">
+        <v>179.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1287,21 +1576,39 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
-        <f>+I10-I13</f>
-        <v>-34.28</v>
+        <v>61.127000000000002</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5">
-        <f>+M10-M13</f>
-        <v>-131.17700000000002</v>
-      </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>104.78700000000001</v>
+      </c>
+      <c r="N14" s="2">
+        <v>120.47799999999999</v>
+      </c>
+      <c r="O14" s="2">
+        <v>110.714</v>
+      </c>
+      <c r="P14" s="2">
+        <v>118.56399999999999</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>120.893</v>
+      </c>
+      <c r="R14" s="2">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="S14" s="2">
+        <v>127.003</v>
+      </c>
+      <c r="T14" s="2">
+        <v>138.79599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1310,19 +1617,48 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
-        <v>-20.649000000000001</v>
+        <f>+I13+I14</f>
+        <v>200.24200000000002</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5">
-        <v>-6.3220000000000001</v>
-      </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+M13+M14</f>
+        <v>321.49400000000003</v>
+      </c>
+      <c r="N15" s="2">
+        <f>+N13+N14</f>
+        <v>334.28199999999998</v>
+      </c>
+      <c r="O15" s="2">
+        <f>+O13+O14</f>
+        <v>356.39300000000003</v>
+      </c>
+      <c r="P15" s="2">
+        <f>+P13+P14</f>
+        <v>360.45399999999995</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" ref="Q15" si="1">+Q13+Q14</f>
+        <v>315.19399999999996</v>
+      </c>
+      <c r="R15" s="2">
+        <f>+R13+R14</f>
+        <v>327.21699999999998</v>
+      </c>
+      <c r="S15" s="2">
+        <f>+S13+S14</f>
+        <v>327.399</v>
+      </c>
+      <c r="T15" s="2">
+        <f>+T13+T14</f>
+        <v>318.48599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1331,21 +1667,48 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
-        <f>+I14+I15</f>
-        <v>-54.929000000000002</v>
+        <f>+I12-I15</f>
+        <v>-34.28</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5">
-        <f>+M14+M15</f>
-        <v>-137.49900000000002</v>
-      </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+M12-M15</f>
+        <v>-131.17700000000002</v>
+      </c>
+      <c r="N16" s="2">
+        <f>+N12-N15</f>
+        <v>-106.65399999999997</v>
+      </c>
+      <c r="O16" s="2">
+        <f>+O12-O15</f>
+        <v>-137.91000000000003</v>
+      </c>
+      <c r="P16" s="2">
+        <f>+P12-P15</f>
+        <v>-133.33999999999995</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" ref="Q16" si="2">+Q12-Q15</f>
+        <v>-20.402999999999963</v>
+      </c>
+      <c r="R16" s="2">
+        <f>+R12-R15</f>
+        <v>25.388000000000034</v>
+      </c>
+      <c r="S16" s="2">
+        <f>+S12-S15</f>
+        <v>35.505999999999972</v>
+      </c>
+      <c r="T16" s="2">
+        <f>+T12-T15</f>
+        <v>-0.10000000000002274</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1354,19 +1717,39 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5">
-        <v>0</v>
+        <v>-20.649000000000001</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-6.3220000000000001</v>
+      </c>
+      <c r="N17" s="2">
+        <v>5.5270000000000001</v>
+      </c>
+      <c r="O17" s="2">
+        <v>12.707000000000001</v>
+      </c>
+      <c r="P17" s="2">
+        <v>16.934000000000001</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>-12.332000000000001</v>
+      </c>
+      <c r="R17" s="2">
+        <v>15.746</v>
+      </c>
+      <c r="S17" s="2">
+        <v>6.5430000000000001</v>
+      </c>
+      <c r="T17" s="2">
+        <v>14.278</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1375,34 +1758,89 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5">
-        <f>+I16-I17</f>
+        <f>+I16+I17</f>
         <v>-54.929000000000002</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5">
-        <f>+M16-M17</f>
+        <f>+M16+M17</f>
         <v>-137.49900000000002</v>
       </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="2">
+        <f>+N16+N17</f>
+        <v>-101.12699999999997</v>
+      </c>
+      <c r="O18" s="2">
+        <f>+O16+O17</f>
+        <v>-125.20300000000003</v>
+      </c>
+      <c r="P18" s="2">
+        <f>+P16+P17</f>
+        <v>-116.40599999999995</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>+Q16+Q17</f>
+        <v>-32.734999999999964</v>
+      </c>
+      <c r="R18" s="2">
+        <f>+R16+R17</f>
+        <v>41.134000000000036</v>
+      </c>
+      <c r="S18" s="2">
+        <f>+S16+S17</f>
+        <v>42.048999999999971</v>
+      </c>
+      <c r="T18" s="2">
+        <f>+T16+T17</f>
+        <v>14.177999999999978</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="8">
-        <f>+I18/I20</f>
-        <v>-0.68764396594892341</v>
-      </c>
-      <c r="M19" s="8">
-        <f>+M18/M20</f>
-        <v>-1.5691217419089791</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>7.9379999999999997</v>
+      </c>
+      <c r="O19" s="2">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="P19" s="2">
+        <v>9.3550000000000004</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>7.7629999999999999</v>
+      </c>
+      <c r="R19" s="2">
+        <v>-5.2839999999999998</v>
+      </c>
+      <c r="S19" s="2">
+        <v>5.3289999999999997</v>
+      </c>
+      <c r="T19" s="2">
+        <v>7.117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1411,15 +1849,126 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5">
-        <v>79.88</v>
+        <f>+I18-I19</f>
+        <v>-54.929000000000002</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5">
+        <f>+M18-M19</f>
+        <v>-137.49900000000002</v>
+      </c>
+      <c r="N20" s="2">
+        <f>+N18-N19</f>
+        <v>-109.06499999999997</v>
+      </c>
+      <c r="O20" s="2">
+        <f>+O18-O19</f>
+        <v>-129.24800000000002</v>
+      </c>
+      <c r="P20" s="2">
+        <f>+P18-P19</f>
+        <v>-125.76099999999995</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>+Q18-Q19</f>
+        <v>-40.497999999999962</v>
+      </c>
+      <c r="R20" s="2">
+        <f>+R18-R19</f>
+        <v>46.418000000000035</v>
+      </c>
+      <c r="S20" s="2">
+        <f>+S18-S19</f>
+        <v>36.71999999999997</v>
+      </c>
+      <c r="T20" s="2">
+        <f>+T18-T19</f>
+        <v>7.0609999999999777</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="8">
+        <f>+I20/I22</f>
+        <v>-0.68764396594892341</v>
+      </c>
+      <c r="M21" s="8">
+        <f>+M20/M22</f>
+        <v>-1.5691217419089791</v>
+      </c>
+      <c r="N21" s="1">
+        <f>+N20/N22</f>
+        <v>-1.2416607846262435</v>
+      </c>
+      <c r="O21" s="1">
+        <f>+O20/O22</f>
+        <v>-1.4656294649944437</v>
+      </c>
+      <c r="P21" s="1">
+        <f>+P20/P22</f>
+        <v>-1.4171371263085535</v>
+      </c>
+      <c r="Q21" s="1">
+        <f>+Q20/Q22</f>
+        <v>-0.45560193049758646</v>
+      </c>
+      <c r="R21" s="1">
+        <f>+R20/R22</f>
+        <v>0.43958937060817888</v>
+      </c>
+      <c r="S21" s="1">
+        <f>+S20/S22</f>
+        <v>0.37048247472607271</v>
+      </c>
+      <c r="T21" s="1">
+        <f>+T20/T22</f>
+        <v>7.1219640119422029E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>79.88</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
         <v>87.628</v>
       </c>
-      <c r="N20" s="5"/>
+      <c r="N22" s="2">
+        <v>87.837999999999994</v>
+      </c>
+      <c r="O22" s="2">
+        <v>88.186000000000007</v>
+      </c>
+      <c r="P22" s="2">
+        <v>88.742999999999995</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>88.888999999999996</v>
+      </c>
+      <c r="R22" s="2">
+        <v>105.59399999999999</v>
+      </c>
+      <c r="S22" s="2">
+        <v>99.114000000000004</v>
+      </c>
+      <c r="T22" s="2">
+        <v>99.144000000000005</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8F889-94FD-4E98-AC42-E43ACBE75A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FEA409-ECAA-472D-884E-80B8BDF91232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25350" yWindow="660" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="-44655" yWindow="2265" windowWidth="21720" windowHeight="17280" activeTab="2" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Elevidys" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +37,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E6AB6E99-1C3B-4950-9986-65466B8F87A6}</author>
+  </authors>
+  <commentList>
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{E6AB6E99-1C3B-4950-9986-65466B8F87A6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    600 patients on therapy</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
   <si>
     <t>Price</t>
   </si>
@@ -223,13 +242,133 @@
   </si>
   <si>
     <t>AAV</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Mechanism</t>
+  </si>
+  <si>
+    <t>SRP-9005</t>
+  </si>
+  <si>
+    <t>delandistrogene moxeparvovec</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Elevidys, fka SRP-9001</t>
+  </si>
+  <si>
+    <t>AAVrh74 micro-dystrophin, MHCK7 promoter. 138kDa payload (427 kDa wildtype)</t>
+  </si>
+  <si>
+    <t>Phase II "EMBARK" (9001-103?)</t>
+  </si>
+  <si>
+    <t>Phase III "EMERGENE" (9001-301?)</t>
+  </si>
+  <si>
+    <t>n=124 (4-8yo, ambulatory)</t>
+  </si>
+  <si>
+    <t>Part 1 placebo controlled n=63 drug vs. n=61 placebo</t>
+  </si>
+  <si>
+    <t>$3.2m</t>
+  </si>
+  <si>
+    <t>PE: NSAA at week 52</t>
+  </si>
+  <si>
+    <t>2.57 points (95 percent CI: 1.80, 3.34) for the ELEVIDYS group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.92 points (95 percent CI: 1.14, 2.70) for the placebo group. </t>
+  </si>
+  <si>
+    <t>LSM change in the NSAA total score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">difference was 0.65 points (95 percent CI: -0.45, 1.74), (p=0.2441). </t>
+  </si>
+  <si>
+    <t>sBLA 125781 filed 12/21/22, approved 6/22/23</t>
+  </si>
+  <si>
+    <t>First BLA 125781 filed 9/28/22</t>
+  </si>
+  <si>
+    <t>ambulatory Duchenne Muscular Dystrophy</t>
+  </si>
+  <si>
+    <t>Used Process A product</t>
+  </si>
+  <si>
+    <t>Study 102</t>
+  </si>
+  <si>
+    <t>used Process B product</t>
+  </si>
+  <si>
+    <t>Study 101 open-label</t>
+  </si>
+  <si>
+    <t>Study 103 open-label</t>
+  </si>
+  <si>
+    <t>used Process A product</t>
+  </si>
+  <si>
+    <t>Part I RCT</t>
+  </si>
+  <si>
+    <t>Part II open-label</t>
+  </si>
+  <si>
+    <t>Week 12 muscle biopsy tissue samples</t>
+  </si>
+  <si>
+    <t>micro-dystrophin expression</t>
+  </si>
+  <si>
+    <t>western blot</t>
+  </si>
+  <si>
+    <t>IF staining assay (IF fiber intensity, %u-D+ fiber)</t>
+  </si>
+  <si>
+    <t>values were adjusted by muscle content</t>
+  </si>
+  <si>
+    <t>expressed as a % of control level</t>
+  </si>
+  <si>
+    <t>"High inter-subject variability was observed in expression"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -248,6 +387,20 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -358,7 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -388,6 +541,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -412,14 +567,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>59871</xdr:rowOff>
     </xdr:to>
@@ -436,8 +591,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12534901" y="0"/>
-          <a:ext cx="0" cy="5611585"/>
+          <a:off x="13732329" y="0"/>
+          <a:ext cx="0" cy="5938157"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -461,6 +616,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,18 +919,27 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="V3" dT="2025-03-21T16:35:25.37" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{E6AB6E99-1C3B-4950-9986-65466B8F87A6}">
+    <text>600 patients on therapy</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A776BD77-B28E-481D-8F32-5A036EE3467C}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
@@ -793,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -815,7 +985,7 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C4" t="s">
@@ -833,7 +1003,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>13160.554091999998</v>
+        <v>6961.7423819999995</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -888,7 +1058,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>12926.395091999999</v>
+        <v>6727.5833819999989</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -937,7 +1107,9 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -951,20 +1123,23 @@
       <c r="I12" s="13"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" location="Elevidys!A1" display="Elevidys (delandistrogene moxeparvovec)" xr:uid="{7EECD0E4-1EBC-4353-9DC8-28F1192EE3BD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
-  <dimension ref="A1:AP22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
+  <dimension ref="A1:AS22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -974,12 +1149,12 @@
     <col min="3" max="17" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1040,79 +1215,91 @@
       <c r="V2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Y2">
+      <c r="W2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB2">
         <v>2010</v>
       </c>
-      <c r="Z2">
-        <f>+Y2+1</f>
+      <c r="AC2">
+        <f>+AB2+1</f>
         <v>2011</v>
       </c>
-      <c r="AA2">
-        <f t="shared" ref="AA2:AP2" si="0">+Z2+1</f>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AS2" si="0">+AC2+1</f>
         <v>2012</v>
       </c>
-      <c r="AB2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AM2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AN2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AO2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AP2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
     </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
@@ -1147,15 +1334,29 @@
         <v>121.721</v>
       </c>
       <c r="U3" s="5">
-        <f>+T3</f>
-        <v>121.721</v>
+        <v>181</v>
       </c>
       <c r="V3" s="5">
-        <f>+U3</f>
-        <v>121.721</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>384.2</v>
+      </c>
+      <c r="W3" s="2">
+        <f>+V3+25</f>
+        <v>409.2</v>
+      </c>
+      <c r="X3" s="2">
+        <f>+W3+25</f>
+        <v>434.2</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>+X3+25</f>
+        <v>459.2</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>+Y3+25</f>
+        <v>484.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>57</v>
       </c>
@@ -1192,15 +1393,29 @@
         <v>238.827</v>
       </c>
       <c r="U4" s="5">
-        <f>+T4</f>
-        <v>238.827</v>
+        <v>248.8</v>
       </c>
       <c r="V4" s="5">
-        <f>+U4</f>
-        <v>238.827</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="W4" s="2">
+        <f>+V4+1</f>
+        <v>255</v>
+      </c>
+      <c r="X4" s="2">
+        <f>+W4+1</f>
+        <v>256</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>+X4+1</f>
+        <v>257</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>+Y4+1</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>43</v>
       </c>
@@ -1224,7 +1439,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1248,7 +1463,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
@@ -1272,7 +1487,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1319,14 +1534,30 @@
       </c>
       <c r="U8" s="2">
         <f>SUM(U3:U4)</f>
-        <v>360.548</v>
+        <v>429.8</v>
       </c>
       <c r="V8" s="2">
         <f>SUM(V3:V4)</f>
-        <v>360.548</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>638.20000000000005</v>
+      </c>
+      <c r="W8" s="2">
+        <f>+W4+W3</f>
+        <v>664.2</v>
+      </c>
+      <c r="X8" s="2">
+        <f>+X4+X3</f>
+        <v>690.2</v>
+      </c>
+      <c r="Y8" s="2">
+        <f>+Y4+Y3</f>
+        <v>716.2</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>+Z4+Z3</f>
+        <v>742.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1367,15 +1598,13 @@
         <v>2.383</v>
       </c>
       <c r="U9" s="2">
-        <f>+T9</f>
-        <v>2.383</v>
+        <v>37.401000000000003</v>
       </c>
       <c r="V9" s="2">
-        <f>+U9</f>
-        <v>2.383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20.254999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1393,47 +1622,63 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7">
-        <f>+M8+M9</f>
+        <f t="shared" ref="M10:Z10" si="1">+M8+M9</f>
         <v>230.26900000000001</v>
       </c>
       <c r="N10" s="6">
-        <f>+N8+N9</f>
+        <f t="shared" si="1"/>
         <v>258.42700000000002</v>
       </c>
       <c r="O10" s="6">
-        <f>+O8+O9</f>
+        <f t="shared" si="1"/>
         <v>253.5</v>
       </c>
       <c r="P10" s="6">
-        <f>+P8+P9</f>
+        <f t="shared" si="1"/>
         <v>261.238</v>
       </c>
       <c r="Q10" s="7">
-        <f>+Q8+Q9</f>
+        <f t="shared" si="1"/>
         <v>331.81700000000001</v>
       </c>
       <c r="R10" s="6">
-        <f>+R8+R9</f>
+        <f t="shared" si="1"/>
         <v>396.78100000000001</v>
       </c>
       <c r="S10" s="6">
-        <f>+S8+S9</f>
+        <f t="shared" si="1"/>
         <v>413.464</v>
       </c>
       <c r="T10" s="6">
-        <f>+T8+T9</f>
+        <f t="shared" si="1"/>
         <v>362.93099999999998</v>
       </c>
       <c r="U10" s="6">
-        <f>+U8+U9</f>
-        <v>362.93099999999998</v>
+        <f t="shared" si="1"/>
+        <v>467.20100000000002</v>
       </c>
       <c r="V10" s="6">
-        <f>+V8+V9</f>
-        <v>362.93099999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>658.45500000000004</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="1"/>
+        <v>664.2</v>
+      </c>
+      <c r="X10" s="6">
+        <f t="shared" si="1"/>
+        <v>690.2</v>
+      </c>
+      <c r="Y10" s="6">
+        <f t="shared" si="1"/>
+        <v>716.2</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" si="1"/>
+        <v>742.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
@@ -1473,8 +1718,14 @@
       <c r="T11" s="2">
         <v>44.545000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U11" s="2">
+        <v>91.691000000000003</v>
+      </c>
+      <c r="V11" s="2">
+        <v>132.304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1492,39 +1743,47 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5">
-        <f>+M10-M11</f>
+        <f t="shared" ref="M12:T12" si="2">+M10-M11</f>
         <v>190.31700000000001</v>
       </c>
       <c r="N12" s="2">
-        <f>+N10-N11</f>
+        <f t="shared" si="2"/>
         <v>227.62800000000001</v>
       </c>
       <c r="O12" s="2">
-        <f>+O10-O11</f>
+        <f t="shared" si="2"/>
         <v>218.483</v>
       </c>
       <c r="P12" s="2">
-        <f>+P10-P11</f>
+        <f t="shared" si="2"/>
         <v>227.114</v>
       </c>
       <c r="Q12" s="5">
-        <f>+Q10-Q11</f>
+        <f t="shared" si="2"/>
         <v>294.791</v>
       </c>
       <c r="R12" s="2">
-        <f>+R10-R11</f>
+        <f t="shared" si="2"/>
         <v>352.60500000000002</v>
       </c>
       <c r="S12" s="2">
-        <f>+S10-S11</f>
+        <f t="shared" si="2"/>
         <v>362.90499999999997</v>
       </c>
       <c r="T12" s="2">
-        <f>+T10-T11</f>
+        <f t="shared" si="2"/>
         <v>318.38599999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U12" s="2">
+        <f>+U10-U11</f>
+        <v>375.51</v>
+      </c>
+      <c r="V12" s="2">
+        <f>+V10-V11</f>
+        <v>526.15100000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1823,14 @@
       <c r="T13" s="2">
         <v>179.69</v>
       </c>
-    </row>
-    <row r="14" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U13" s="2">
+        <v>222.483</v>
+      </c>
+      <c r="V13" s="2">
+        <v>199.953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1605,8 +1870,14 @@
       <c r="T14" s="2">
         <v>138.79599999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U14" s="2">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="V14" s="2">
+        <v>163.87299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1640,7 +1911,7 @@
         <v>360.45399999999995</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ref="Q15" si="1">+Q13+Q14</f>
+        <f t="shared" ref="Q15" si="3">+Q13+Q14</f>
         <v>315.19399999999996</v>
       </c>
       <c r="R15" s="2">
@@ -1655,8 +1926,16 @@
         <f>+T13+T14</f>
         <v>318.48599999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U15" s="2">
+        <f t="shared" ref="U15" si="4">+U13+U14</f>
+        <v>351.28300000000002</v>
+      </c>
+      <c r="V15" s="2">
+        <f>+V14+V13</f>
+        <v>363.82600000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1690,7 +1969,7 @@
         <v>-133.33999999999995</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16" si="2">+Q12-Q15</f>
+        <f t="shared" ref="Q16" si="5">+Q12-Q15</f>
         <v>-20.402999999999963</v>
       </c>
       <c r="R16" s="2">
@@ -1705,8 +1984,16 @@
         <f>+T12-T15</f>
         <v>-0.10000000000002274</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U16" s="2">
+        <f t="shared" ref="U16" si="6">+U12-U15</f>
+        <v>24.226999999999975</v>
+      </c>
+      <c r="V16" s="2">
+        <f>+V12-V15</f>
+        <v>162.32500000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1746,8 +2033,14 @@
       <c r="T17" s="2">
         <v>14.278</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U17" s="2">
+        <v>11.81</v>
+      </c>
+      <c r="V17" s="2">
+        <v>10.061999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1765,39 +2058,47 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5">
-        <f>+M16+M17</f>
+        <f t="shared" ref="M18:U18" si="7">+M16+M17</f>
         <v>-137.49900000000002</v>
       </c>
       <c r="N18" s="2">
-        <f>+N16+N17</f>
+        <f t="shared" si="7"/>
         <v>-101.12699999999997</v>
       </c>
       <c r="O18" s="2">
-        <f>+O16+O17</f>
+        <f t="shared" si="7"/>
         <v>-125.20300000000003</v>
       </c>
       <c r="P18" s="2">
-        <f>+P16+P17</f>
+        <f t="shared" si="7"/>
         <v>-116.40599999999995</v>
       </c>
       <c r="Q18" s="2">
-        <f>+Q16+Q17</f>
+        <f t="shared" si="7"/>
         <v>-32.734999999999964</v>
       </c>
       <c r="R18" s="2">
-        <f>+R16+R17</f>
+        <f t="shared" si="7"/>
         <v>41.134000000000036</v>
       </c>
       <c r="S18" s="2">
-        <f>+S16+S17</f>
+        <f t="shared" si="7"/>
         <v>42.048999999999971</v>
       </c>
       <c r="T18" s="2">
-        <f>+T16+T17</f>
+        <f t="shared" si="7"/>
         <v>14.177999999999978</v>
       </c>
-    </row>
-    <row r="19" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U18" s="2">
+        <f t="shared" si="7"/>
+        <v>36.036999999999978</v>
+      </c>
+      <c r="V18" s="2">
+        <f>+V16+V17</f>
+        <v>172.38700000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1837,8 +2138,14 @@
       <c r="T19" s="2">
         <v>7.117</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U19" s="2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="V19" s="2">
+        <v>12.694000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1856,39 +2163,47 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5">
-        <f>+M18-M19</f>
+        <f t="shared" ref="M20:U20" si="8">+M18-M19</f>
         <v>-137.49900000000002</v>
       </c>
       <c r="N20" s="2">
-        <f>+N18-N19</f>
+        <f t="shared" si="8"/>
         <v>-109.06499999999997</v>
       </c>
       <c r="O20" s="2">
-        <f>+O18-O19</f>
+        <f t="shared" si="8"/>
         <v>-129.24800000000002</v>
       </c>
       <c r="P20" s="2">
-        <f>+P18-P19</f>
+        <f t="shared" si="8"/>
         <v>-125.76099999999995</v>
       </c>
       <c r="Q20" s="2">
-        <f>+Q18-Q19</f>
+        <f t="shared" si="8"/>
         <v>-40.497999999999962</v>
       </c>
       <c r="R20" s="2">
-        <f>+R18-R19</f>
+        <f t="shared" si="8"/>
         <v>46.418000000000035</v>
       </c>
       <c r="S20" s="2">
-        <f>+S18-S19</f>
+        <f t="shared" si="8"/>
         <v>36.71999999999997</v>
       </c>
       <c r="T20" s="2">
-        <f>+T18-T19</f>
+        <f t="shared" si="8"/>
         <v>7.0609999999999777</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="2">
+        <f t="shared" si="8"/>
+        <v>35.641999999999975</v>
+      </c>
+      <c r="V20" s="2">
+        <f>+V18-V19</f>
+        <v>159.69300000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1897,39 +2212,47 @@
         <v>-0.68764396594892341</v>
       </c>
       <c r="M21" s="8">
-        <f>+M20/M22</f>
+        <f t="shared" ref="M21:V21" si="9">+M20/M22</f>
         <v>-1.5691217419089791</v>
       </c>
       <c r="N21" s="1">
-        <f>+N20/N22</f>
+        <f t="shared" si="9"/>
         <v>-1.2416607846262435</v>
       </c>
       <c r="O21" s="1">
-        <f>+O20/O22</f>
+        <f t="shared" si="9"/>
         <v>-1.4656294649944437</v>
       </c>
       <c r="P21" s="1">
-        <f>+P20/P22</f>
+        <f t="shared" si="9"/>
         <v>-1.4171371263085535</v>
       </c>
       <c r="Q21" s="1">
-        <f>+Q20/Q22</f>
+        <f t="shared" si="9"/>
         <v>-0.45560193049758646</v>
       </c>
       <c r="R21" s="1">
-        <f>+R20/R22</f>
+        <f t="shared" si="9"/>
         <v>0.43958937060817888</v>
       </c>
       <c r="S21" s="1">
-        <f>+S20/S22</f>
+        <f t="shared" si="9"/>
         <v>0.37048247472607271</v>
       </c>
       <c r="T21" s="1">
-        <f>+T20/T22</f>
+        <f t="shared" si="9"/>
         <v>7.1219640119422029E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="U21" s="1">
+        <f t="shared" si="9"/>
+        <v>0.35483035998725687</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="9"/>
+        <v>1.4721776646938443</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
@@ -1969,6 +2292,12 @@
       <c r="T22" s="2">
         <v>99.144000000000005</v>
       </c>
+      <c r="U22" s="2">
+        <v>100.44799999999999</v>
+      </c>
+      <c r="V22" s="2">
+        <v>108.474</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1976,5 +2305,211 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31639E-CBDB-4748-8633-80F51352A0B3}">
+  <dimension ref="A1:E42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1C56457E-1F94-450D-8D8D-8A3035D380A7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FEA409-ECAA-472D-884E-80B8BDF91232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DD348-059B-466E-A8EA-DD9118B1F21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-44655" yWindow="2265" windowWidth="21720" windowHeight="17280" activeTab="2" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="25490" yWindow="760" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
     <author>tc={E6AB6E99-1C3B-4950-9986-65466B8F87A6}</author>
   </authors>
   <commentList>
-    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{E6AB6E99-1C3B-4950-9986-65466B8F87A6}">
+    <comment ref="V6" authorId="0" shapeId="0" xr:uid="{E6AB6E99-1C3B-4950-9986-65466B8F87A6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
   <si>
     <t>Price</t>
   </si>
@@ -322,24 +322,12 @@
     <t>Used Process A product</t>
   </si>
   <si>
-    <t>Study 102</t>
-  </si>
-  <si>
     <t>used Process B product</t>
   </si>
   <si>
-    <t>Study 101 open-label</t>
-  </si>
-  <si>
-    <t>Study 103 open-label</t>
-  </si>
-  <si>
     <t>used Process A product</t>
   </si>
   <si>
-    <t>Part I RCT</t>
-  </si>
-  <si>
     <t>Part II open-label</t>
   </si>
   <si>
@@ -362,13 +350,52 @@
   </si>
   <si>
     <t>"High inter-subject variability was observed in expression"</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>Net Adds</t>
+  </si>
+  <si>
+    <t>Study 103 "ENDEAVOR" open-label - NCT04626674</t>
+  </si>
+  <si>
+    <t>Study 102 - NCT03769116</t>
+  </si>
+  <si>
+    <t>Study 101 open-label - NCT03375164</t>
+  </si>
+  <si>
+    <t>PE: expression at week 12, change in NSAA at week 48</t>
+  </si>
+  <si>
+    <t>PE: expression at week 12</t>
+  </si>
+  <si>
+    <t>n=8 1.33E14</t>
+  </si>
+  <si>
+    <t>n=6 6.29E13</t>
+  </si>
+  <si>
+    <t>n=5 8.94E13</t>
+  </si>
+  <si>
+    <t>n=21 placebo</t>
+  </si>
+  <si>
+    <t>Part I RCT n=40</t>
+  </si>
+  <si>
+    <t>p=0.37</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -395,12 +422,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -511,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -543,6 +564,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -575,7 +598,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>59871</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -613,6 +636,281 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>26737</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>26737</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>26736</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB75E8EF-720E-99E7-2C35-560149EF1321}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25928053" y="50132"/>
+          <a:ext cx="0" cy="4725736"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>217757</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>320011</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D7F3FA-D966-9326-9903-3958C726353E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15336279" y="1159565"/>
+          <a:ext cx="7998341" cy="4323522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>306106</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>97491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>209856</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>134148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652DE5F6-BC6A-40A8-D3B1-ADCBE971FC47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23509753" y="1083609"/>
+          <a:ext cx="15831044" cy="12856186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184132</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>305012</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA84F7BC-AD7F-AA20-2F96-91983990429A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6799175" y="754960"/>
+          <a:ext cx="8624359" cy="4014523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>373130</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>309474</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>122067</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD10B2C-D18A-5C98-F7D2-2BCE738DAD1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6988173" y="4020663"/>
+          <a:ext cx="9047214" cy="6040534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164353</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>73981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152526</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>67141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D6D561-E529-7BD8-734F-3C7105A5C2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8053294" y="10921275"/>
+          <a:ext cx="11627350" cy="6731631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -921,7 +1219,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V3" dT="2025-03-21T16:35:25.37" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{E6AB6E99-1C3B-4950-9986-65466B8F87A6}">
+  <threadedComment ref="V6" dT="2025-03-21T16:35:25.37" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{E6AB6E99-1C3B-4950-9986-65466B8F87A6}">
     <text>600 patients on therapy</text>
   </threadedComment>
 </ThreadedComments>
@@ -931,14 +1229,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A776BD77-B28E-481D-8F32-5A036EE3467C}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1133,13 +1431,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
-  <dimension ref="A1:AS22"/>
+  <dimension ref="A1:BA25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AR8" sqref="AR8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1147,14 +1445,15 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="17" width="9.140625" style="3"/>
+    <col min="42" max="42" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1298,150 +1597,192 @@
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="AT2">
+        <f t="shared" ref="AT2" si="1">+AS2+1</f>
+        <v>2028</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" ref="AU2" si="2">+AT2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" ref="AV2" si="3">+AU2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" ref="AW2" si="4">+AV2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" ref="AX2" si="5">+AW2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AY2">
+        <f t="shared" ref="AY2" si="6">+AX2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" ref="AZ2" si="7">+AY2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" ref="BA2" si="8">+AZ2+1</f>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="5">
+        <f>+W6/3.2</f>
+        <v>127.87499999999999</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3:Z3" si="9">+X6/3.2</f>
+        <v>135.6875</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="9"/>
+        <v>143.5</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="9"/>
+        <v>151.3125</v>
+      </c>
+      <c r="AP3" s="2">
+        <f>+AP6/3.2</f>
+        <v>256.51781249999999</v>
+      </c>
+      <c r="AQ3" s="2">
+        <f>+AQ6/3.2</f>
+        <v>558.375</v>
+      </c>
+      <c r="AR3">
+        <v>800</v>
+      </c>
+      <c r="AS3">
+        <v>800</v>
+      </c>
+      <c r="AT3">
+        <v>800</v>
+      </c>
+      <c r="AU3">
+        <v>800</v>
+      </c>
+      <c r="AV3">
+        <v>800</v>
+      </c>
+      <c r="AW3">
+        <v>800</v>
+      </c>
+      <c r="AX3">
+        <v>800</v>
+      </c>
+      <c r="AY3">
+        <v>800</v>
+      </c>
+      <c r="AZ3">
+        <v>800</v>
+      </c>
+      <c r="BA3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3">
+        <v>600</v>
+      </c>
+      <c r="W4" s="2">
+        <f>+V4+W3</f>
+        <v>727.875</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" ref="X4:Z4" si="10">+W4+X3</f>
+        <v>863.5625</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="10"/>
+        <v>1007.0625</v>
+      </c>
+      <c r="Z4" s="2">
+        <f t="shared" si="10"/>
+        <v>1158.375</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>600</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f>+AP4+AQ3</f>
+        <v>1158.375</v>
+      </c>
+      <c r="AR4" s="2">
+        <f>+AQ4+AR3</f>
+        <v>1958.375</v>
+      </c>
+      <c r="AS4" s="2">
+        <f t="shared" ref="AS4:AX4" si="11">+AR4+AS3</f>
+        <v>2758.375</v>
+      </c>
+      <c r="AT4" s="2">
+        <f t="shared" si="11"/>
+        <v>3558.375</v>
+      </c>
+      <c r="AU4" s="2">
+        <f t="shared" si="11"/>
+        <v>4358.375</v>
+      </c>
+      <c r="AV4" s="2">
+        <f t="shared" si="11"/>
+        <v>5158.375</v>
+      </c>
+      <c r="AW4" s="2">
+        <f t="shared" si="11"/>
+        <v>5958.375</v>
+      </c>
+      <c r="AX4" s="21">
+        <f t="shared" si="11"/>
+        <v>6758.375</v>
+      </c>
+      <c r="AY4" s="21">
+        <f t="shared" ref="AY4" si="12">+AX4+AY3</f>
+        <v>7558.375</v>
+      </c>
+      <c r="AZ4" s="21">
+        <f t="shared" ref="AZ4" si="13">+AY4+AZ3</f>
+        <v>8358.375</v>
+      </c>
+      <c r="BA4" s="21">
+        <f t="shared" ref="BA4" si="14">+AZ4+BA3</f>
+        <v>9158.375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="R3" s="5">
-        <v>131.19999999999999</v>
-      </c>
-      <c r="S3" s="5">
-        <v>133.93600000000001</v>
-      </c>
-      <c r="T3" s="5">
-        <v>121.721</v>
-      </c>
-      <c r="U3" s="5">
-        <v>181</v>
-      </c>
-      <c r="V3" s="5">
-        <v>384.2</v>
-      </c>
-      <c r="W3" s="2">
-        <f>+V3+25</f>
-        <v>409.2</v>
-      </c>
-      <c r="X3" s="2">
-        <f>+W3+25</f>
-        <v>434.2</v>
-      </c>
-      <c r="Y3" s="2">
-        <f>+X3+25</f>
-        <v>459.2</v>
-      </c>
-      <c r="Z3" s="2">
-        <f>+Y3+25</f>
-        <v>484.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5">
-        <v>231.495</v>
-      </c>
-      <c r="P4" s="5">
-        <v>238.988</v>
-      </c>
-      <c r="Q4" s="5">
-        <f>309.322-Q3</f>
-        <v>240.22200000000001</v>
-      </c>
-      <c r="R4" s="5">
-        <f>+R8-R3</f>
-        <v>233.87100000000004</v>
-      </c>
-      <c r="S4" s="5">
-        <v>225.548</v>
-      </c>
-      <c r="T4" s="5">
-        <v>238.827</v>
-      </c>
-      <c r="U4" s="5">
-        <v>248.8</v>
-      </c>
-      <c r="V4" s="5">
-        <v>254</v>
-      </c>
-      <c r="W4" s="2">
-        <f>+V4+1</f>
-        <v>255</v>
-      </c>
-      <c r="X4" s="2">
-        <f>+W4+1</f>
-        <v>256</v>
-      </c>
-      <c r="Y4" s="2">
-        <f>+X4+1</f>
-        <v>257</v>
-      </c>
-      <c r="Z4" s="2">
-        <f>+Y4+1</f>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>115.598</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5">
-        <v>122.262</v>
-      </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1449,23 +1790,108 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>26.655000000000001</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <v>54.893000000000001</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="R6" s="5">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="S6" s="5">
+        <v>133.93600000000001</v>
+      </c>
+      <c r="T6" s="5">
+        <v>121.721</v>
+      </c>
+      <c r="U6" s="5">
+        <v>181</v>
+      </c>
+      <c r="V6" s="5">
+        <v>384.2</v>
+      </c>
+      <c r="W6" s="2">
+        <f>+V6+25</f>
+        <v>409.2</v>
+      </c>
+      <c r="X6" s="2">
+        <f>+W6+25</f>
+        <v>434.2</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>+X6+25</f>
+        <v>459.2</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>+Y6+25</f>
+        <v>484.2</v>
+      </c>
+      <c r="AO6" s="2">
+        <f>SUM(O6:R6)</f>
+        <v>200.29999999999998</v>
+      </c>
+      <c r="AP6" s="2">
+        <f>SUM(S6:V6)</f>
+        <v>820.85699999999997</v>
+      </c>
+      <c r="AQ6" s="2">
+        <f>SUM(W6:Z6)</f>
+        <v>1786.8</v>
+      </c>
+      <c r="AR6" s="2">
+        <f>+AR3*3.2</f>
+        <v>2560</v>
+      </c>
+      <c r="AS6" s="2">
+        <f t="shared" ref="AS6:AX6" si="15">+AS3*3.2</f>
+        <v>2560</v>
+      </c>
+      <c r="AT6" s="2">
+        <f t="shared" si="15"/>
+        <v>2560</v>
+      </c>
+      <c r="AU6" s="2">
+        <f t="shared" si="15"/>
+        <v>2560</v>
+      </c>
+      <c r="AV6" s="2">
+        <f t="shared" si="15"/>
+        <v>2560</v>
+      </c>
+      <c r="AW6" s="2">
+        <f t="shared" si="15"/>
+        <v>2560</v>
+      </c>
+      <c r="AX6" s="2">
+        <f t="shared" si="15"/>
+        <v>2560</v>
+      </c>
+      <c r="AY6" s="2">
+        <f t="shared" ref="AY6:BA6" si="16">+AY3*3.2</f>
+        <v>2560</v>
+      </c>
+      <c r="AZ6" s="2">
+        <f t="shared" si="16"/>
+        <v>2560</v>
+      </c>
+      <c r="BA6" s="2">
+        <f t="shared" si="16"/>
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1473,23 +1899,110 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5">
-        <v>24.658000000000001</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5">
-        <v>30.619</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>8</v>
+      <c r="O7" s="5">
+        <v>231.495</v>
+      </c>
+      <c r="P7" s="5">
+        <v>238.988</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>309.322-Q6</f>
+        <v>240.22200000000001</v>
+      </c>
+      <c r="R7" s="5">
+        <f>+R11-R6</f>
+        <v>233.87100000000004</v>
+      </c>
+      <c r="S7" s="5">
+        <v>225.548</v>
+      </c>
+      <c r="T7" s="5">
+        <v>238.827</v>
+      </c>
+      <c r="U7" s="5">
+        <v>248.8</v>
+      </c>
+      <c r="V7" s="5">
+        <v>254</v>
+      </c>
+      <c r="W7" s="2">
+        <f>+V7+1</f>
+        <v>255</v>
+      </c>
+      <c r="X7" s="2">
+        <f>+W7+1</f>
+        <v>256</v>
+      </c>
+      <c r="Y7" s="2">
+        <f>+X7+1</f>
+        <v>257</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>+Y7+1</f>
+        <v>258</v>
+      </c>
+      <c r="AO7" s="2">
+        <f t="shared" ref="AO7" si="17">SUM(O7:R7)</f>
+        <v>944.57600000000002</v>
+      </c>
+      <c r="AP7" s="2">
+        <f t="shared" ref="AP7" si="18">SUM(S7:V7)</f>
+        <v>967.17499999999995</v>
+      </c>
+      <c r="AQ7" s="2">
+        <f t="shared" ref="AQ7" si="19">SUM(W7:Z7)</f>
+        <v>1026</v>
+      </c>
+      <c r="AR7" s="2">
+        <f>+AQ7*0.9</f>
+        <v>923.4</v>
+      </c>
+      <c r="AS7" s="2">
+        <f t="shared" ref="AS7:BA7" si="20">+AR7*0.9</f>
+        <v>831.06</v>
+      </c>
+      <c r="AT7" s="2">
+        <f t="shared" si="20"/>
+        <v>747.95399999999995</v>
+      </c>
+      <c r="AU7" s="2">
+        <f t="shared" si="20"/>
+        <v>673.15859999999998</v>
+      </c>
+      <c r="AV7" s="2">
+        <f t="shared" si="20"/>
+        <v>605.84274000000005</v>
+      </c>
+      <c r="AW7" s="2">
+        <f t="shared" si="20"/>
+        <v>545.25846600000011</v>
+      </c>
+      <c r="AX7" s="2">
+        <f t="shared" si="20"/>
+        <v>490.73261940000009</v>
+      </c>
+      <c r="AY7" s="2">
+        <f t="shared" si="20"/>
+        <v>441.65935746000008</v>
+      </c>
+      <c r="AZ7" s="2">
+        <f t="shared" si="20"/>
+        <v>397.49342171400008</v>
+      </c>
+      <c r="BA7" s="2">
+        <f t="shared" si="20"/>
+        <v>357.7440795426001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1498,68 +2011,22 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
-        <f>+I7+I6+I5</f>
-        <v>166.911</v>
+        <v>115.598</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5">
-        <f>+M7+M6+M5</f>
-        <v>207.774</v>
-      </c>
-      <c r="N8" s="2">
-        <v>235.93299999999999</v>
-      </c>
-      <c r="O8" s="2">
-        <v>231.495</v>
-      </c>
-      <c r="P8" s="2">
-        <f>SUM(P3:P4)</f>
-        <v>238.988</v>
-      </c>
-      <c r="Q8" s="5">
-        <f>+Q4+Q3</f>
-        <v>309.322</v>
-      </c>
-      <c r="R8" s="2">
-        <v>365.07100000000003</v>
-      </c>
-      <c r="S8" s="2">
-        <v>359.48399999999998</v>
-      </c>
-      <c r="T8" s="2">
-        <f>SUM(T3:T4)</f>
-        <v>360.548</v>
-      </c>
-      <c r="U8" s="2">
-        <f>SUM(U3:U4)</f>
-        <v>429.8</v>
-      </c>
-      <c r="V8" s="2">
-        <f>SUM(V3:V4)</f>
-        <v>638.20000000000005</v>
-      </c>
-      <c r="W8" s="2">
-        <f>+W4+W3</f>
-        <v>664.2</v>
-      </c>
-      <c r="X8" s="2">
-        <f>+X4+X3</f>
-        <v>690.2</v>
-      </c>
-      <c r="Y8" s="2">
-        <f>+Y4+Y3</f>
-        <v>716.2</v>
-      </c>
-      <c r="Z8" s="2">
-        <f>+Z4+Z3</f>
-        <v>742.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>122.262</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1568,119 +2035,46 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5">
-        <v>22.495000000000001</v>
+        <v>26.655000000000001</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5">
-        <v>22.495000000000001</v>
-      </c>
-      <c r="N9" s="2">
-        <v>22.494</v>
-      </c>
-      <c r="O9" s="2">
-        <v>22.004999999999999</v>
-      </c>
-      <c r="P9" s="2">
-        <v>22.25</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>22.495000000000001</v>
-      </c>
-      <c r="R9" s="2">
-        <v>31.71</v>
-      </c>
-      <c r="S9" s="2">
-        <v>53.98</v>
-      </c>
-      <c r="T9" s="2">
-        <v>2.383</v>
-      </c>
-      <c r="U9" s="2">
-        <v>37.401000000000003</v>
-      </c>
-      <c r="V9" s="2">
-        <v>20.254999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7">
-        <f>+I8+I9</f>
-        <v>189.40600000000001</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7">
-        <f t="shared" ref="M10:Z10" si="1">+M8+M9</f>
-        <v>230.26900000000001</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" si="1"/>
-        <v>258.42700000000002</v>
-      </c>
-      <c r="O10" s="6">
-        <f t="shared" si="1"/>
-        <v>253.5</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="1"/>
-        <v>261.238</v>
-      </c>
-      <c r="Q10" s="7">
-        <f t="shared" si="1"/>
-        <v>331.81700000000001</v>
-      </c>
-      <c r="R10" s="6">
-        <f t="shared" si="1"/>
-        <v>396.78100000000001</v>
-      </c>
-      <c r="S10" s="6">
-        <f t="shared" si="1"/>
-        <v>413.464</v>
-      </c>
-      <c r="T10" s="6">
-        <f t="shared" si="1"/>
-        <v>362.93099999999998</v>
-      </c>
-      <c r="U10" s="6">
-        <f t="shared" si="1"/>
-        <v>467.20100000000002</v>
-      </c>
-      <c r="V10" s="6">
-        <f t="shared" si="1"/>
-        <v>658.45500000000004</v>
-      </c>
-      <c r="W10" s="6">
-        <f t="shared" si="1"/>
-        <v>664.2</v>
-      </c>
-      <c r="X10" s="6">
-        <f t="shared" si="1"/>
-        <v>690.2</v>
-      </c>
-      <c r="Y10" s="6">
-        <f t="shared" si="1"/>
-        <v>716.2</v>
-      </c>
-      <c r="Z10" s="6">
-        <f t="shared" si="1"/>
-        <v>742.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54.893000000000001</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <v>24.658000000000001</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
+        <v>30.619</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1689,45 +2083,120 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <v>23.443999999999999</v>
+        <f>+I10+I9+I8</f>
+        <v>166.911</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5">
-        <v>39.951999999999998</v>
+        <f>+M10+M9+M8</f>
+        <v>207.774</v>
       </c>
       <c r="N11" s="2">
-        <v>30.798999999999999</v>
+        <v>235.93299999999999</v>
       </c>
       <c r="O11" s="2">
-        <v>35.017000000000003</v>
+        <v>231.495</v>
       </c>
       <c r="P11" s="2">
-        <v>34.124000000000002</v>
+        <f>SUM(P6:P7)</f>
+        <v>238.988</v>
       </c>
       <c r="Q11" s="5">
-        <v>37.026000000000003</v>
+        <f>+Q7+Q6</f>
+        <v>309.322</v>
       </c>
       <c r="R11" s="2">
-        <v>44.176000000000002</v>
+        <v>365.07100000000003</v>
       </c>
       <c r="S11" s="2">
-        <v>50.558999999999997</v>
+        <v>359.48399999999998</v>
       </c>
       <c r="T11" s="2">
-        <v>44.545000000000002</v>
+        <f>SUM(T6:T7)</f>
+        <v>360.548</v>
       </c>
       <c r="U11" s="2">
-        <v>91.691000000000003</v>
+        <f>SUM(U6:U7)</f>
+        <v>429.8</v>
       </c>
       <c r="V11" s="2">
-        <v>132.304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>SUM(V6:V7)</f>
+        <v>638.20000000000005</v>
+      </c>
+      <c r="W11" s="2">
+        <f>+W7+W6</f>
+        <v>664.2</v>
+      </c>
+      <c r="X11" s="2">
+        <f>+X7+X6</f>
+        <v>690.2</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>+Y7+Y6</f>
+        <v>716.2</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>+Z7+Z6</f>
+        <v>742.2</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" ref="AO11:AQ11" si="21">+AO7+AO6</f>
+        <v>1144.876</v>
+      </c>
+      <c r="AP11" s="2">
+        <f t="shared" si="21"/>
+        <v>1788.0319999999999</v>
+      </c>
+      <c r="AQ11" s="2">
+        <f>+AQ7+AQ6</f>
+        <v>2812.8</v>
+      </c>
+      <c r="AR11" s="2">
+        <f t="shared" ref="AR11:BA11" si="22">+AR7+AR6</f>
+        <v>3483.4</v>
+      </c>
+      <c r="AS11" s="2">
+        <f t="shared" si="22"/>
+        <v>3391.06</v>
+      </c>
+      <c r="AT11" s="2">
+        <f t="shared" si="22"/>
+        <v>3307.9539999999997</v>
+      </c>
+      <c r="AU11" s="2">
+        <f t="shared" si="22"/>
+        <v>3233.1585999999998</v>
+      </c>
+      <c r="AV11" s="2">
+        <f t="shared" si="22"/>
+        <v>3165.84274</v>
+      </c>
+      <c r="AW11" s="2">
+        <f t="shared" si="22"/>
+        <v>3105.2584660000002</v>
+      </c>
+      <c r="AX11" s="2">
+        <f t="shared" si="22"/>
+        <v>3050.7326194000002</v>
+      </c>
+      <c r="AY11" s="2">
+        <f t="shared" si="22"/>
+        <v>3001.6593574600001</v>
+      </c>
+      <c r="AZ11" s="2">
+        <f t="shared" si="22"/>
+        <v>2957.4934217139999</v>
+      </c>
+      <c r="BA11" s="2">
+        <f t="shared" si="22"/>
+        <v>2917.7440795426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1736,103 +2205,171 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5">
-        <f>+I10-I11</f>
-        <v>165.96200000000002</v>
+        <v>22.495000000000001</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5">
-        <f t="shared" ref="M12:T12" si="2">+M10-M11</f>
-        <v>190.31700000000001</v>
+        <v>22.495000000000001</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="2"/>
-        <v>227.62800000000001</v>
+        <v>22.494</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="2"/>
-        <v>218.483</v>
+        <v>22.004999999999999</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="2"/>
-        <v>227.114</v>
+        <v>22.25</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="2"/>
-        <v>294.791</v>
+        <v>22.495000000000001</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="2"/>
-        <v>352.60500000000002</v>
+        <v>31.71</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="2"/>
-        <v>362.90499999999997</v>
+        <v>53.98</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="2"/>
-        <v>318.38599999999997</v>
+        <v>2.383</v>
       </c>
       <c r="U12" s="2">
-        <f>+U10-U11</f>
-        <v>375.51</v>
+        <v>37.401000000000003</v>
       </c>
       <c r="V12" s="2">
-        <f>+V10-V11</f>
-        <v>526.15100000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5">
-        <v>139.11500000000001</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5">
-        <v>216.70699999999999</v>
-      </c>
-      <c r="N13" s="2">
-        <v>213.804</v>
-      </c>
-      <c r="O13" s="2">
-        <v>245.679</v>
-      </c>
-      <c r="P13" s="2">
-        <v>241.89</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>194.30099999999999</v>
-      </c>
-      <c r="R13" s="2">
-        <v>195.517</v>
-      </c>
-      <c r="S13" s="2">
-        <v>200.39599999999999</v>
-      </c>
-      <c r="T13" s="2">
-        <v>179.69</v>
-      </c>
-      <c r="U13" s="2">
-        <v>222.483</v>
-      </c>
-      <c r="V13" s="2">
-        <v>199.953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20.254999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <f>+I11+I12</f>
+        <v>189.40600000000001</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
+        <f t="shared" ref="M13:Z13" si="23">+M11+M12</f>
+        <v>230.26900000000001</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="23"/>
+        <v>258.42700000000002</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="23"/>
+        <v>253.5</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="23"/>
+        <v>261.238</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="23"/>
+        <v>331.81700000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="23"/>
+        <v>396.78100000000001</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="23"/>
+        <v>413.464</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="23"/>
+        <v>362.93099999999998</v>
+      </c>
+      <c r="U13" s="6">
+        <f t="shared" si="23"/>
+        <v>467.20100000000002</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="23"/>
+        <v>658.45500000000004</v>
+      </c>
+      <c r="W13" s="6">
+        <f t="shared" si="23"/>
+        <v>664.2</v>
+      </c>
+      <c r="X13" s="6">
+        <f t="shared" si="23"/>
+        <v>690.2</v>
+      </c>
+      <c r="Y13" s="6">
+        <f t="shared" si="23"/>
+        <v>716.2</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" si="23"/>
+        <v>742.2</v>
+      </c>
+      <c r="AO13" s="6">
+        <f t="shared" ref="AO13:AQ13" si="24">+AO11+AO12</f>
+        <v>1144.876</v>
+      </c>
+      <c r="AP13" s="6">
+        <f t="shared" si="24"/>
+        <v>1788.0319999999999</v>
+      </c>
+      <c r="AQ13" s="6">
+        <f t="shared" si="24"/>
+        <v>2812.8</v>
+      </c>
+      <c r="AR13" s="6">
+        <f t="shared" ref="AR13:BA13" si="25">+AR11+AR12</f>
+        <v>3483.4</v>
+      </c>
+      <c r="AS13" s="6">
+        <f t="shared" si="25"/>
+        <v>3391.06</v>
+      </c>
+      <c r="AT13" s="6">
+        <f t="shared" si="25"/>
+        <v>3307.9539999999997</v>
+      </c>
+      <c r="AU13" s="6">
+        <f t="shared" si="25"/>
+        <v>3233.1585999999998</v>
+      </c>
+      <c r="AV13" s="6">
+        <f t="shared" si="25"/>
+        <v>3165.84274</v>
+      </c>
+      <c r="AW13" s="6">
+        <f t="shared" si="25"/>
+        <v>3105.2584660000002</v>
+      </c>
+      <c r="AX13" s="6">
+        <f t="shared" si="25"/>
+        <v>3050.7326194000002</v>
+      </c>
+      <c r="AY13" s="6">
+        <f t="shared" si="25"/>
+        <v>3001.6593574600001</v>
+      </c>
+      <c r="AZ13" s="6">
+        <f t="shared" si="25"/>
+        <v>2957.4934217139999</v>
+      </c>
+      <c r="BA13" s="6">
+        <f t="shared" si="25"/>
+        <v>2917.7440795426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1841,45 +2378,45 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5">
-        <v>61.127000000000002</v>
+        <v>23.443999999999999</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5">
-        <v>104.78700000000001</v>
+        <v>39.951999999999998</v>
       </c>
       <c r="N14" s="2">
-        <v>120.47799999999999</v>
+        <v>30.798999999999999</v>
       </c>
       <c r="O14" s="2">
-        <v>110.714</v>
+        <v>35.017000000000003</v>
       </c>
       <c r="P14" s="2">
-        <v>118.56399999999999</v>
+        <v>34.124000000000002</v>
       </c>
       <c r="Q14" s="5">
-        <v>120.893</v>
+        <v>37.026000000000003</v>
       </c>
       <c r="R14" s="2">
-        <v>131.69999999999999</v>
+        <v>44.176000000000002</v>
       </c>
       <c r="S14" s="2">
-        <v>127.003</v>
+        <v>50.558999999999997</v>
       </c>
       <c r="T14" s="2">
-        <v>138.79599999999999</v>
+        <v>44.545000000000002</v>
       </c>
       <c r="U14" s="2">
-        <v>128.80000000000001</v>
+        <v>91.691000000000003</v>
       </c>
       <c r="V14" s="2">
-        <v>163.87299999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>132.304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1888,56 +2425,56 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5">
-        <f>+I13+I14</f>
-        <v>200.24200000000002</v>
+        <f>+I13-I14</f>
+        <v>165.96200000000002</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5">
-        <f>+M13+M14</f>
-        <v>321.49400000000003</v>
+        <f t="shared" ref="M15:T15" si="26">+M13-M14</f>
+        <v>190.31700000000001</v>
       </c>
       <c r="N15" s="2">
-        <f>+N13+N14</f>
-        <v>334.28199999999998</v>
+        <f t="shared" si="26"/>
+        <v>227.62800000000001</v>
       </c>
       <c r="O15" s="2">
-        <f>+O13+O14</f>
-        <v>356.39300000000003</v>
+        <f t="shared" si="26"/>
+        <v>218.483</v>
       </c>
       <c r="P15" s="2">
-        <f>+P13+P14</f>
-        <v>360.45399999999995</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" ref="Q15" si="3">+Q13+Q14</f>
-        <v>315.19399999999996</v>
+        <f t="shared" si="26"/>
+        <v>227.114</v>
+      </c>
+      <c r="Q15" s="5">
+        <f t="shared" si="26"/>
+        <v>294.791</v>
       </c>
       <c r="R15" s="2">
-        <f>+R13+R14</f>
-        <v>327.21699999999998</v>
+        <f t="shared" si="26"/>
+        <v>352.60500000000002</v>
       </c>
       <c r="S15" s="2">
-        <f>+S13+S14</f>
-        <v>327.399</v>
+        <f t="shared" si="26"/>
+        <v>362.90499999999997</v>
       </c>
       <c r="T15" s="2">
-        <f>+T13+T14</f>
-        <v>318.48599999999999</v>
+        <f t="shared" si="26"/>
+        <v>318.38599999999997</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" ref="U15" si="4">+U13+U14</f>
-        <v>351.28300000000002</v>
+        <f>+U13-U14</f>
+        <v>375.51</v>
       </c>
       <c r="V15" s="2">
-        <f>+V14+V13</f>
-        <v>363.82600000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+V13-V14</f>
+        <v>526.15100000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1946,56 +2483,45 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
-        <f>+I12-I15</f>
-        <v>-34.28</v>
+        <v>139.11500000000001</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5">
-        <f>+M12-M15</f>
-        <v>-131.17700000000002</v>
+        <v>216.70699999999999</v>
       </c>
       <c r="N16" s="2">
-        <f>+N12-N15</f>
-        <v>-106.65399999999997</v>
+        <v>213.804</v>
       </c>
       <c r="O16" s="2">
-        <f>+O12-O15</f>
-        <v>-137.91000000000003</v>
+        <v>245.679</v>
       </c>
       <c r="P16" s="2">
-        <f>+P12-P15</f>
-        <v>-133.33999999999995</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" ref="Q16" si="5">+Q12-Q15</f>
-        <v>-20.402999999999963</v>
+        <v>241.89</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>194.30099999999999</v>
       </c>
       <c r="R16" s="2">
-        <f>+R12-R15</f>
-        <v>25.388000000000034</v>
+        <v>195.517</v>
       </c>
       <c r="S16" s="2">
-        <f>+S12-S15</f>
-        <v>35.505999999999972</v>
+        <v>200.39599999999999</v>
       </c>
       <c r="T16" s="2">
-        <f>+T12-T15</f>
-        <v>-0.10000000000002274</v>
+        <v>179.69</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" ref="U16" si="6">+U12-U15</f>
-        <v>24.226999999999975</v>
+        <v>222.483</v>
       </c>
       <c r="V16" s="2">
-        <f>+V12-V15</f>
-        <v>162.32500000000005</v>
+        <v>199.953</v>
       </c>
     </row>
     <row r="17" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2004,45 +2530,45 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5">
-        <v>-20.649000000000001</v>
+        <v>61.127000000000002</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5">
-        <v>-6.3220000000000001</v>
+        <v>104.78700000000001</v>
       </c>
       <c r="N17" s="2">
-        <v>5.5270000000000001</v>
+        <v>120.47799999999999</v>
       </c>
       <c r="O17" s="2">
-        <v>12.707000000000001</v>
+        <v>110.714</v>
       </c>
       <c r="P17" s="2">
-        <v>16.934000000000001</v>
+        <v>118.56399999999999</v>
       </c>
       <c r="Q17" s="5">
-        <v>-12.332000000000001</v>
+        <v>120.893</v>
       </c>
       <c r="R17" s="2">
-        <v>15.746</v>
+        <v>131.69999999999999</v>
       </c>
       <c r="S17" s="2">
-        <v>6.5430000000000001</v>
+        <v>127.003</v>
       </c>
       <c r="T17" s="2">
-        <v>14.278</v>
+        <v>138.79599999999999</v>
       </c>
       <c r="U17" s="2">
-        <v>11.81</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="V17" s="2">
-        <v>10.061999999999999</v>
+        <v>163.87299999999999</v>
       </c>
     </row>
     <row r="18" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2052,55 +2578,55 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5">
         <f>+I16+I17</f>
-        <v>-54.929000000000002</v>
+        <v>200.24200000000002</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5">
-        <f t="shared" ref="M18:U18" si="7">+M16+M17</f>
-        <v>-137.49900000000002</v>
+        <f>+M16+M17</f>
+        <v>321.49400000000003</v>
       </c>
       <c r="N18" s="2">
-        <f t="shared" si="7"/>
-        <v>-101.12699999999997</v>
+        <f>+N16+N17</f>
+        <v>334.28199999999998</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="7"/>
-        <v>-125.20300000000003</v>
+        <f>+O16+O17</f>
+        <v>356.39300000000003</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="7"/>
-        <v>-116.40599999999995</v>
+        <f>+P16+P17</f>
+        <v>360.45399999999995</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="7"/>
-        <v>-32.734999999999964</v>
+        <f t="shared" ref="Q18" si="27">+Q16+Q17</f>
+        <v>315.19399999999996</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="7"/>
-        <v>41.134000000000036</v>
+        <f>+R16+R17</f>
+        <v>327.21699999999998</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="7"/>
-        <v>42.048999999999971</v>
+        <f>+S16+S17</f>
+        <v>327.399</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="7"/>
-        <v>14.177999999999978</v>
+        <f>+T16+T17</f>
+        <v>318.48599999999999</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" si="7"/>
-        <v>36.036999999999978</v>
+        <f t="shared" ref="U18" si="28">+U16+U17</f>
+        <v>351.28300000000002</v>
       </c>
       <c r="V18" s="2">
-        <f>+V16+V17</f>
-        <v>172.38700000000006</v>
+        <f>+V17+V16</f>
+        <v>363.82600000000002</v>
       </c>
     </row>
     <row r="19" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2109,45 +2635,56 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5">
-        <v>0</v>
+        <f>+I15-I18</f>
+        <v>-34.28</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5">
-        <v>0</v>
+        <f>+M15-M18</f>
+        <v>-131.17700000000002</v>
       </c>
       <c r="N19" s="2">
-        <v>7.9379999999999997</v>
+        <f>+N15-N18</f>
+        <v>-106.65399999999997</v>
       </c>
       <c r="O19" s="2">
-        <v>4.0449999999999999</v>
+        <f>+O15-O18</f>
+        <v>-137.91000000000003</v>
       </c>
       <c r="P19" s="2">
-        <v>9.3550000000000004</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>7.7629999999999999</v>
+        <f>+P15-P18</f>
+        <v>-133.33999999999995</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" ref="Q19" si="29">+Q15-Q18</f>
+        <v>-20.402999999999963</v>
       </c>
       <c r="R19" s="2">
-        <v>-5.2839999999999998</v>
+        <f>+R15-R18</f>
+        <v>25.388000000000034</v>
       </c>
       <c r="S19" s="2">
-        <v>5.3289999999999997</v>
+        <f>+S15-S18</f>
+        <v>35.505999999999972</v>
       </c>
       <c r="T19" s="2">
-        <v>7.117</v>
+        <f>+T15-T18</f>
+        <v>-0.10000000000002274</v>
       </c>
       <c r="U19" s="2">
-        <v>0.39500000000000002</v>
+        <f t="shared" ref="U19" si="30">+U15-U18</f>
+        <v>24.226999999999975</v>
       </c>
       <c r="V19" s="2">
-        <v>12.694000000000001</v>
+        <f>+V15-V18</f>
+        <v>162.32500000000005</v>
       </c>
     </row>
     <row r="20" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2156,105 +2693,103 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5">
-        <f>+I18-I19</f>
-        <v>-54.929000000000002</v>
+        <v>-20.649000000000001</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5">
-        <f t="shared" ref="M20:U20" si="8">+M18-M19</f>
+        <v>-6.3220000000000001</v>
+      </c>
+      <c r="N20" s="2">
+        <v>5.5270000000000001</v>
+      </c>
+      <c r="O20" s="2">
+        <v>12.707000000000001</v>
+      </c>
+      <c r="P20" s="2">
+        <v>16.934000000000001</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>-12.332000000000001</v>
+      </c>
+      <c r="R20" s="2">
+        <v>15.746</v>
+      </c>
+      <c r="S20" s="2">
+        <v>6.5430000000000001</v>
+      </c>
+      <c r="T20" s="2">
+        <v>14.278</v>
+      </c>
+      <c r="U20" s="2">
+        <v>11.81</v>
+      </c>
+      <c r="V20" s="2">
+        <v>10.061999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
+        <f>+I19+I20</f>
+        <v>-54.929000000000002</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5">
+        <f t="shared" ref="M21:U21" si="31">+M19+M20</f>
         <v>-137.49900000000002</v>
       </c>
-      <c r="N20" s="2">
-        <f t="shared" si="8"/>
-        <v>-109.06499999999997</v>
-      </c>
-      <c r="O20" s="2">
-        <f t="shared" si="8"/>
-        <v>-129.24800000000002</v>
-      </c>
-      <c r="P20" s="2">
-        <f t="shared" si="8"/>
-        <v>-125.76099999999995</v>
-      </c>
-      <c r="Q20" s="2">
-        <f t="shared" si="8"/>
-        <v>-40.497999999999962</v>
-      </c>
-      <c r="R20" s="2">
-        <f t="shared" si="8"/>
-        <v>46.418000000000035</v>
-      </c>
-      <c r="S20" s="2">
-        <f t="shared" si="8"/>
-        <v>36.71999999999997</v>
-      </c>
-      <c r="T20" s="2">
-        <f t="shared" si="8"/>
-        <v>7.0609999999999777</v>
-      </c>
-      <c r="U20" s="2">
-        <f t="shared" si="8"/>
-        <v>35.641999999999975</v>
-      </c>
-      <c r="V20" s="2">
-        <f>+V18-V19</f>
-        <v>159.69300000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I21" s="8">
-        <f>+I20/I22</f>
-        <v>-0.68764396594892341</v>
-      </c>
-      <c r="M21" s="8">
-        <f t="shared" ref="M21:V21" si="9">+M20/M22</f>
-        <v>-1.5691217419089791</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.2416607846262435</v>
-      </c>
-      <c r="O21" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.4656294649944437</v>
-      </c>
-      <c r="P21" s="1">
-        <f t="shared" si="9"/>
-        <v>-1.4171371263085535</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="9"/>
-        <v>-0.45560193049758646</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="9"/>
-        <v>0.43958937060817888</v>
-      </c>
-      <c r="S21" s="1">
-        <f t="shared" si="9"/>
-        <v>0.37048247472607271</v>
-      </c>
-      <c r="T21" s="1">
-        <f t="shared" si="9"/>
-        <v>7.1219640119422029E-2</v>
-      </c>
-      <c r="U21" s="1">
-        <f t="shared" si="9"/>
-        <v>0.35483035998725687</v>
-      </c>
-      <c r="V21" s="1">
-        <f t="shared" si="9"/>
-        <v>1.4721776646938443</v>
+      <c r="N21" s="2">
+        <f t="shared" si="31"/>
+        <v>-101.12699999999997</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="31"/>
+        <v>-125.20300000000003</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="31"/>
+        <v>-116.40599999999995</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" si="31"/>
+        <v>-32.734999999999964</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" si="31"/>
+        <v>41.134000000000036</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="31"/>
+        <v>42.048999999999971</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="31"/>
+        <v>14.177999999999978</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="31"/>
+        <v>36.036999999999978</v>
+      </c>
+      <c r="V21" s="2">
+        <f>+V19+V20</f>
+        <v>172.38700000000006</v>
       </c>
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2263,39 +2798,193 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5">
-        <v>79.88</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>7.9379999999999997</v>
+      </c>
+      <c r="O22" s="2">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="P22" s="2">
+        <v>9.3550000000000004</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>7.7629999999999999</v>
+      </c>
+      <c r="R22" s="2">
+        <v>-5.2839999999999998</v>
+      </c>
+      <c r="S22" s="2">
+        <v>5.3289999999999997</v>
+      </c>
+      <c r="T22" s="2">
+        <v>7.117</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="V22" s="2">
+        <v>12.694000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <f>+I21-I22</f>
+        <v>-54.929000000000002</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5">
+        <f t="shared" ref="M23:U23" si="32">+M21-M22</f>
+        <v>-137.49900000000002</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="32"/>
+        <v>-109.06499999999997</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="32"/>
+        <v>-129.24800000000002</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" si="32"/>
+        <v>-125.76099999999995</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" si="32"/>
+        <v>-40.497999999999962</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" si="32"/>
+        <v>46.418000000000035</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="32"/>
+        <v>36.71999999999997</v>
+      </c>
+      <c r="T23" s="2">
+        <f t="shared" si="32"/>
+        <v>7.0609999999999777</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="32"/>
+        <v>35.641999999999975</v>
+      </c>
+      <c r="V23" s="2">
+        <f>+V21-V22</f>
+        <v>159.69300000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="8">
+        <f>+I23/I25</f>
+        <v>-0.68764396594892341</v>
+      </c>
+      <c r="M24" s="8">
+        <f t="shared" ref="M24:V24" si="33">+M23/M25</f>
+        <v>-1.5691217419089791</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.2416607846262435</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.4656294649944437</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="33"/>
+        <v>-1.4171371263085535</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="33"/>
+        <v>-0.45560193049758646</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="33"/>
+        <v>0.43958937060817888</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="33"/>
+        <v>0.37048247472607271</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="33"/>
+        <v>7.1219640119422029E-2</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="33"/>
+        <v>0.35483035998725687</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="33"/>
+        <v>1.4721776646938443</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <v>79.88</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5">
         <v>87.628</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N25" s="2">
         <v>87.837999999999994</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O25" s="2">
         <v>88.186000000000007</v>
       </c>
-      <c r="P22" s="2">
+      <c r="P25" s="2">
         <v>88.742999999999995</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q25" s="5">
         <v>88.888999999999996</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R25" s="2">
         <v>105.59399999999999</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S25" s="2">
         <v>99.114000000000004</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T25" s="2">
         <v>99.144000000000005</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U25" s="2">
         <v>100.44799999999999</v>
       </c>
-      <c r="V22" s="2">
+      <c r="V25" s="2">
         <v>108.474</v>
       </c>
     </row>
@@ -2311,10 +3000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31639E-CBDB-4748-8633-80F51352A0B3}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2393,7 +3082,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="19" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,106 +3092,144 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="19" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="22"/>
+      <c r="D19" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C35" s="19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2511,5 +3238,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{1C56457E-1F94-450D-8D8D-8A3035D380A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562DD348-059B-466E-A8EA-DD9118B1F21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC5AEFA-C4C3-4E5E-9647-D0C53A8A1298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="760" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="-24795" yWindow="4245" windowWidth="21825" windowHeight="14220" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,12 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={E6AB6E99-1C3B-4950-9986-65466B8F87A6}</author>
+    <author>tc={6230A4A9-C9AF-4BE7-99BF-B573BD017A22}</author>
+    <author>tc={CBA3C9AE-8CDE-4C14-99CA-A98DB0CE1BE6}</author>
+    <author>tc={5AFD68C2-EA74-46FE-BF40-AB537FB76AE8}</author>
+    <author>tc={7C3EC1BA-FB3C-4FE0-8E5F-1192557AF098}</author>
+    <author>tc={79BDC40B-94ED-4D00-94B2-1CB4305DAAA9}</author>
+    <author>tc={4BF41E21-6626-4EBB-BC28-DD3A3AEE92C2}</author>
   </authors>
   <commentList>
     <comment ref="V6" authorId="0" shapeId="0" xr:uid="{E6AB6E99-1C3B-4950-9986-65466B8F87A6}">
@@ -49,6 +55,55 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     600 patients on therapy</t>
+      </text>
+    </comment>
+    <comment ref="W13" authorId="1" shapeId="0" xr:uid="{6230A4A9-C9AF-4BE7-99BF-B573BD017A22}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/6/25 consensus 687m </t>
+      </text>
+    </comment>
+    <comment ref="X13" authorId="2" shapeId="0" xr:uid="{CBA3C9AE-8CDE-4C14-99CA-A98DB0CE1BE6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/6/25 consensus 741m</t>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="3" shapeId="0" xr:uid="{5AFD68C2-EA74-46FE-BF40-AB537FB76AE8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/6/25 consensus 788m</t>
+      </text>
+    </comment>
+    <comment ref="Z13" authorId="4" shapeId="0" xr:uid="{7C3EC1BA-FB3C-4FE0-8E5F-1192557AF098}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/6/25 consensus 828m</t>
+      </text>
+    </comment>
+    <comment ref="AQ13" authorId="5" shapeId="0" xr:uid="{79BDC40B-94ED-4D00-94B2-1CB4305DAAA9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424 product guidance: 2.9-3.1B
+Consensus 3.0B</t>
+      </text>
+    </comment>
+    <comment ref="AR13" authorId="6" shapeId="0" xr:uid="{4BF41E21-6626-4EBB-BC28-DD3A3AEE92C2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5/6/25 consensus 3.76B</t>
       </text>
     </comment>
   </commentList>
@@ -564,8 +619,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1222,6 +1277,25 @@
   <threadedComment ref="V6" dT="2025-03-21T16:35:25.37" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{E6AB6E99-1C3B-4950-9986-65466B8F87A6}">
     <text>600 patients on therapy</text>
   </threadedComment>
+  <threadedComment ref="W13" dT="2025-05-06T15:45:31.88" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{6230A4A9-C9AF-4BE7-99BF-B573BD017A22}">
+    <text xml:space="preserve">5/6/25 consensus 687m </text>
+  </threadedComment>
+  <threadedComment ref="X13" dT="2025-05-06T15:45:40.54" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{CBA3C9AE-8CDE-4C14-99CA-A98DB0CE1BE6}">
+    <text>5/6/25 consensus 741m</text>
+  </threadedComment>
+  <threadedComment ref="Y13" dT="2025-05-06T15:45:47.37" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{5AFD68C2-EA74-46FE-BF40-AB537FB76AE8}">
+    <text>5/6/25 consensus 788m</text>
+  </threadedComment>
+  <threadedComment ref="Z13" dT="2025-05-06T15:45:57.63" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{7C3EC1BA-FB3C-4FE0-8E5F-1192557AF098}">
+    <text>5/6/25 consensus 828m</text>
+  </threadedComment>
+  <threadedComment ref="AQ13" dT="2025-05-06T15:53:17.18" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{79BDC40B-94ED-4D00-94B2-1CB4305DAAA9}">
+    <text>Q424 product guidance: 2.9-3.1B
+Consensus 3.0B</text>
+  </threadedComment>
+  <threadedComment ref="AR13" dT="2025-05-06T15:46:11.33" personId="{0ED4F94C-7603-49B0-A19F-451A0F5F06CB}" id="{4BF41E21-6626-4EBB-BC28-DD3A3AEE92C2}">
+    <text>5/6/25 consensus 3.76B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1229,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A776BD77-B28E-481D-8F32-5A036EE3467C}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1261,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>73</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.2">
@@ -1276,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>95.366333999999995</v>
+        <v>98.277032000000005</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -1301,7 +1375,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>6961.7423819999995</v>
+        <v>3734.5272160000004</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1316,11 +1390,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>383.622+1076.852</f>
-        <v>1460.4740000000002</v>
+        <v>647</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -1335,11 +1408,10 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>1134.81+91.505</f>
-        <v>1226.3150000000001</v>
+        <v>1138.289</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -1356,7 +1428,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>6727.5833819999989</v>
+        <v>4225.8162160000002</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1431,13 +1503,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA27"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR8" sqref="AR8"/>
+      <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1641,19 +1713,19 @@
       <c r="V3" s="3"/>
       <c r="W3" s="5">
         <f>+W6/3.2</f>
-        <v>127.87499999999999</v>
+        <v>117.1875</v>
       </c>
       <c r="X3" s="5">
         <f t="shared" ref="X3:Z3" si="9">+X6/3.2</f>
-        <v>135.6875</v>
+        <v>93.75</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="9"/>
-        <v>143.5</v>
+        <v>101.5625</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="9"/>
-        <v>151.3125</v>
+        <v>109.375</v>
       </c>
       <c r="AP3" s="2">
         <f>+AP6/3.2</f>
@@ -1661,7 +1733,7 @@
       </c>
       <c r="AQ3" s="2">
         <f>+AQ6/3.2</f>
-        <v>558.375</v>
+        <v>421.875</v>
       </c>
       <c r="AR3">
         <v>800</v>
@@ -1707,66 +1779,66 @@
       </c>
       <c r="W4" s="2">
         <f>+V4+W3</f>
-        <v>727.875</v>
+        <v>717.1875</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" ref="X4:Z4" si="10">+W4+X3</f>
-        <v>863.5625</v>
+        <v>810.9375</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="10"/>
-        <v>1007.0625</v>
+        <v>912.5</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="10"/>
-        <v>1158.375</v>
+        <v>1021.875</v>
       </c>
       <c r="AP4" s="2">
         <v>600</v>
       </c>
       <c r="AQ4" s="2">
         <f>+AP4+AQ3</f>
-        <v>1158.375</v>
+        <v>1021.875</v>
       </c>
       <c r="AR4" s="2">
         <f>+AQ4+AR3</f>
-        <v>1958.375</v>
+        <v>1821.875</v>
       </c>
       <c r="AS4" s="2">
         <f t="shared" ref="AS4:AX4" si="11">+AR4+AS3</f>
-        <v>2758.375</v>
+        <v>2621.875</v>
       </c>
       <c r="AT4" s="2">
         <f t="shared" si="11"/>
-        <v>3558.375</v>
+        <v>3421.875</v>
       </c>
       <c r="AU4" s="2">
         <f t="shared" si="11"/>
-        <v>4358.375</v>
+        <v>4221.875</v>
       </c>
       <c r="AV4" s="2">
         <f t="shared" si="11"/>
-        <v>5158.375</v>
+        <v>5021.875</v>
       </c>
       <c r="AW4" s="2">
         <f t="shared" si="11"/>
-        <v>5958.375</v>
-      </c>
-      <c r="AX4" s="21">
+        <v>5821.875</v>
+      </c>
+      <c r="AX4" s="2">
         <f t="shared" si="11"/>
-        <v>6758.375</v>
-      </c>
-      <c r="AY4" s="21">
+        <v>6621.875</v>
+      </c>
+      <c r="AY4" s="2">
         <f t="shared" ref="AY4" si="12">+AX4+AY3</f>
-        <v>7558.375</v>
-      </c>
-      <c r="AZ4" s="21">
+        <v>7421.875</v>
+      </c>
+      <c r="AZ4" s="2">
         <f t="shared" ref="AZ4" si="13">+AY4+AZ3</f>
-        <v>8358.375</v>
-      </c>
-      <c r="BA4" s="21">
+        <v>8221.875</v>
+      </c>
+      <c r="BA4" s="2">
         <f t="shared" ref="BA4" si="14">+AZ4+BA3</f>
-        <v>9158.375</v>
+        <v>9021.875</v>
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
@@ -1821,20 +1893,19 @@
         <v>384.2</v>
       </c>
       <c r="W6" s="2">
-        <f>+V6+25</f>
-        <v>409.2</v>
+        <v>375</v>
       </c>
       <c r="X6" s="2">
-        <f>+W6+25</f>
-        <v>434.2</v>
+        <f>+W6*0.8</f>
+        <v>300</v>
       </c>
       <c r="Y6" s="2">
         <f>+X6+25</f>
-        <v>459.2</v>
+        <v>325</v>
       </c>
       <c r="Z6" s="2">
         <f>+Y6+25</f>
-        <v>484.2</v>
+        <v>350</v>
       </c>
       <c r="AO6" s="2">
         <f>SUM(O6:R6)</f>
@@ -1846,7 +1917,7 @@
       </c>
       <c r="AQ6" s="2">
         <f>SUM(W6:Z6)</f>
-        <v>1786.8</v>
+        <v>1350</v>
       </c>
       <c r="AR6" s="2">
         <f>+AR3*3.2</f>
@@ -1932,20 +2003,19 @@
         <v>254</v>
       </c>
       <c r="W7" s="2">
-        <f>+V7+1</f>
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="X7" s="2">
-        <f>+W7+1</f>
-        <v>256</v>
+        <f>+T7</f>
+        <v>238.827</v>
       </c>
       <c r="Y7" s="2">
-        <f>+X7+1</f>
-        <v>257</v>
+        <f>+U7</f>
+        <v>248.8</v>
       </c>
       <c r="Z7" s="2">
-        <f>+Y7+1</f>
-        <v>258</v>
+        <f>+V7</f>
+        <v>254</v>
       </c>
       <c r="AO7" s="2">
         <f t="shared" ref="AO7" si="17">SUM(O7:R7)</f>
@@ -1957,47 +2027,47 @@
       </c>
       <c r="AQ7" s="2">
         <f t="shared" ref="AQ7" si="19">SUM(W7:Z7)</f>
-        <v>1026</v>
+        <v>978.62699999999995</v>
       </c>
       <c r="AR7" s="2">
         <f>+AQ7*0.9</f>
-        <v>923.4</v>
+        <v>880.76429999999993</v>
       </c>
       <c r="AS7" s="2">
         <f t="shared" ref="AS7:BA7" si="20">+AR7*0.9</f>
-        <v>831.06</v>
+        <v>792.68786999999998</v>
       </c>
       <c r="AT7" s="2">
         <f t="shared" si="20"/>
-        <v>747.95399999999995</v>
+        <v>713.419083</v>
       </c>
       <c r="AU7" s="2">
         <f t="shared" si="20"/>
-        <v>673.15859999999998</v>
+        <v>642.0771747</v>
       </c>
       <c r="AV7" s="2">
         <f t="shared" si="20"/>
-        <v>605.84274000000005</v>
+        <v>577.86945722999997</v>
       </c>
       <c r="AW7" s="2">
         <f t="shared" si="20"/>
-        <v>545.25846600000011</v>
+        <v>520.08251150699994</v>
       </c>
       <c r="AX7" s="2">
         <f t="shared" si="20"/>
-        <v>490.73261940000009</v>
+        <v>468.07426035629993</v>
       </c>
       <c r="AY7" s="2">
         <f t="shared" si="20"/>
-        <v>441.65935746000008</v>
+        <v>421.26683432066994</v>
       </c>
       <c r="AZ7" s="2">
         <f t="shared" si="20"/>
-        <v>397.49342171400008</v>
+        <v>379.14015088860293</v>
       </c>
       <c r="BA7" s="2">
         <f t="shared" si="20"/>
-        <v>357.7440795426001</v>
+        <v>341.22613579974262</v>
       </c>
     </row>
     <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2127,22 +2197,22 @@
       </c>
       <c r="W11" s="2">
         <f>+W7+W6</f>
-        <v>664.2</v>
+        <v>612</v>
       </c>
       <c r="X11" s="2">
         <f>+X7+X6</f>
-        <v>690.2</v>
+        <v>538.827</v>
       </c>
       <c r="Y11" s="2">
         <f>+Y7+Y6</f>
-        <v>716.2</v>
+        <v>573.79999999999995</v>
       </c>
       <c r="Z11" s="2">
         <f>+Z7+Z6</f>
-        <v>742.2</v>
+        <v>604</v>
       </c>
       <c r="AO11" s="2">
-        <f t="shared" ref="AO11:AQ11" si="21">+AO7+AO6</f>
+        <f t="shared" ref="AO11:AP11" si="21">+AO7+AO6</f>
         <v>1144.876</v>
       </c>
       <c r="AP11" s="2">
@@ -2151,47 +2221,47 @@
       </c>
       <c r="AQ11" s="2">
         <f>+AQ7+AQ6</f>
-        <v>2812.8</v>
+        <v>2328.627</v>
       </c>
       <c r="AR11" s="2">
         <f t="shared" ref="AR11:BA11" si="22">+AR7+AR6</f>
-        <v>3483.4</v>
+        <v>3440.7642999999998</v>
       </c>
       <c r="AS11" s="2">
         <f t="shared" si="22"/>
-        <v>3391.06</v>
+        <v>3352.6878699999997</v>
       </c>
       <c r="AT11" s="2">
         <f t="shared" si="22"/>
-        <v>3307.9539999999997</v>
+        <v>3273.4190829999998</v>
       </c>
       <c r="AU11" s="2">
         <f t="shared" si="22"/>
-        <v>3233.1585999999998</v>
+        <v>3202.0771746999999</v>
       </c>
       <c r="AV11" s="2">
         <f t="shared" si="22"/>
-        <v>3165.84274</v>
+        <v>3137.8694572300001</v>
       </c>
       <c r="AW11" s="2">
         <f t="shared" si="22"/>
-        <v>3105.2584660000002</v>
+        <v>3080.0825115070002</v>
       </c>
       <c r="AX11" s="2">
         <f t="shared" si="22"/>
-        <v>3050.7326194000002</v>
+        <v>3028.0742603562999</v>
       </c>
       <c r="AY11" s="2">
         <f t="shared" si="22"/>
-        <v>3001.6593574600001</v>
+        <v>2981.2668343206701</v>
       </c>
       <c r="AZ11" s="2">
         <f t="shared" si="22"/>
-        <v>2957.4934217139999</v>
+        <v>2939.1401508886029</v>
       </c>
       <c r="BA11" s="2">
         <f t="shared" si="22"/>
-        <v>2917.7440795426</v>
+        <v>2901.2261357997427</v>
       </c>
     </row>
     <row r="12" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2299,20 +2369,19 @@
         <v>658.45500000000004</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" si="23"/>
-        <v>664.2</v>
+        <v>711</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" si="23"/>
-        <v>690.2</v>
+        <v>538.827</v>
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="23"/>
-        <v>716.2</v>
+        <v>573.79999999999995</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="23"/>
-        <v>742.2</v>
+        <v>604</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" ref="AO13:AQ13" si="24">+AO11+AO12</f>
@@ -2324,47 +2393,47 @@
       </c>
       <c r="AQ13" s="6">
         <f t="shared" si="24"/>
-        <v>2812.8</v>
+        <v>2328.627</v>
       </c>
       <c r="AR13" s="6">
         <f t="shared" ref="AR13:BA13" si="25">+AR11+AR12</f>
-        <v>3483.4</v>
+        <v>3440.7642999999998</v>
       </c>
       <c r="AS13" s="6">
         <f t="shared" si="25"/>
-        <v>3391.06</v>
+        <v>3352.6878699999997</v>
       </c>
       <c r="AT13" s="6">
         <f t="shared" si="25"/>
-        <v>3307.9539999999997</v>
+        <v>3273.4190829999998</v>
       </c>
       <c r="AU13" s="6">
         <f t="shared" si="25"/>
-        <v>3233.1585999999998</v>
+        <v>3202.0771746999999</v>
       </c>
       <c r="AV13" s="6">
         <f t="shared" si="25"/>
-        <v>3165.84274</v>
+        <v>3137.8694572300001</v>
       </c>
       <c r="AW13" s="6">
         <f t="shared" si="25"/>
-        <v>3105.2584660000002</v>
+        <v>3080.0825115070002</v>
       </c>
       <c r="AX13" s="6">
         <f t="shared" si="25"/>
-        <v>3050.7326194000002</v>
+        <v>3028.0742603562999</v>
       </c>
       <c r="AY13" s="6">
         <f t="shared" si="25"/>
-        <v>3001.6593574600001</v>
+        <v>2981.2668343206701</v>
       </c>
       <c r="AZ13" s="6">
         <f t="shared" si="25"/>
-        <v>2957.4934217139999</v>
+        <v>2939.1401508886029</v>
       </c>
       <c r="BA13" s="6">
         <f t="shared" si="25"/>
-        <v>2917.7440795426</v>
+        <v>2901.2261357997427</v>
       </c>
     </row>
     <row r="14" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2412,6 +2481,14 @@
       </c>
       <c r="V14" s="2">
         <v>132.304</v>
+      </c>
+      <c r="AO14" s="2">
+        <f t="shared" ref="AO14:AO17" si="26">SUM(O14:R14)</f>
+        <v>150.34300000000002</v>
+      </c>
+      <c r="AP14" s="2">
+        <f t="shared" ref="AP14:AP17" si="27">SUM(S14:V14)</f>
+        <v>319.09900000000005</v>
       </c>
     </row>
     <row r="15" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2432,35 +2509,35 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5">
-        <f t="shared" ref="M15:T15" si="26">+M13-M14</f>
+        <f t="shared" ref="M15:T15" si="28">+M13-M14</f>
         <v>190.31700000000001</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>227.62800000000001</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>218.483</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>227.114</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>294.791</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>352.60500000000002</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>362.90499999999997</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>318.38599999999997</v>
       </c>
       <c r="U15" s="2">
@@ -2470,6 +2547,14 @@
       <c r="V15" s="2">
         <f>+V13-V14</f>
         <v>526.15100000000007</v>
+      </c>
+      <c r="AO15" s="2">
+        <f>+AO13-AO14</f>
+        <v>994.5329999999999</v>
+      </c>
+      <c r="AP15" s="2">
+        <f>+AP13-AP14</f>
+        <v>1468.933</v>
       </c>
     </row>
     <row r="16" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2518,8 +2603,16 @@
       <c r="V16" s="2">
         <v>199.953</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO16" s="2">
+        <f t="shared" si="26"/>
+        <v>877.38699999999994</v>
+      </c>
+      <c r="AP16" s="2">
+        <f t="shared" si="27"/>
+        <v>802.52199999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2565,8 +2658,16 @@
       <c r="V17" s="2">
         <v>163.87299999999999</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO17" s="2">
+        <f t="shared" si="26"/>
+        <v>481.87099999999998</v>
+      </c>
+      <c r="AP17" s="2">
+        <f t="shared" si="27"/>
+        <v>558.47199999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2600,7 +2701,7 @@
         <v>360.45399999999995</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18" si="27">+Q16+Q17</f>
+        <f t="shared" ref="Q18" si="29">+Q16+Q17</f>
         <v>315.19399999999996</v>
       </c>
       <c r="R18" s="2">
@@ -2616,15 +2717,23 @@
         <v>318.48599999999999</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" ref="U18" si="28">+U16+U17</f>
+        <f t="shared" ref="U18" si="30">+U16+U17</f>
         <v>351.28300000000002</v>
       </c>
       <c r="V18" s="2">
         <f>+V17+V16</f>
         <v>363.82600000000002</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO18" s="2">
+        <f>+AO16+AO17</f>
+        <v>1359.2579999999998</v>
+      </c>
+      <c r="AP18" s="2">
+        <f>+AP16+AP17</f>
+        <v>1360.9939999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2658,7 +2767,7 @@
         <v>-133.33999999999995</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="29">+Q15-Q18</f>
+        <f t="shared" ref="Q19" si="31">+Q15-Q18</f>
         <v>-20.402999999999963</v>
       </c>
       <c r="R19" s="2">
@@ -2674,15 +2783,23 @@
         <v>-0.10000000000002274</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19" si="30">+U15-U18</f>
+        <f t="shared" ref="U19" si="32">+U15-U18</f>
         <v>24.226999999999975</v>
       </c>
       <c r="V19" s="2">
         <f>+V15-V18</f>
         <v>162.32500000000005</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO19" s="2">
+        <f>+AO15-AO18</f>
+        <v>-364.72499999999991</v>
+      </c>
+      <c r="AP19" s="2">
+        <f>+AP15-AP18</f>
+        <v>107.93900000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -2728,8 +2845,16 @@
       <c r="V20" s="2">
         <v>10.061999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO20" s="2">
+        <f t="shared" ref="AO20" si="33">SUM(O20:R20)</f>
+        <v>33.055</v>
+      </c>
+      <c r="AP20" s="2">
+        <f t="shared" ref="AP20" si="34">SUM(S20:V20)</f>
+        <v>42.692999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -2747,47 +2872,55 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5">
-        <f t="shared" ref="M21:U21" si="31">+M19+M20</f>
+        <f t="shared" ref="M21:U21" si="35">+M19+M20</f>
         <v>-137.49900000000002</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-101.12699999999997</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-125.20300000000003</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-116.40599999999995</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>-32.734999999999964</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>41.134000000000036</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>42.048999999999971</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>14.177999999999978</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>36.036999999999978</v>
       </c>
       <c r="V21" s="2">
         <f>+V19+V20</f>
         <v>172.38700000000006</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO21" s="2">
+        <f>+AO19+AO20</f>
+        <v>-331.6699999999999</v>
+      </c>
+      <c r="AP21" s="2">
+        <f>+AP19+AP20</f>
+        <v>150.63200000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -2833,8 +2966,16 @@
       <c r="V22" s="2">
         <v>12.694000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO22" s="2">
+        <f t="shared" ref="AO22" si="36">SUM(O22:R22)</f>
+        <v>15.879000000000001</v>
+      </c>
+      <c r="AP22" s="2">
+        <f t="shared" ref="AP22" si="37">SUM(S22:V22)</f>
+        <v>25.535</v>
+      </c>
+    </row>
+    <row r="23" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -2852,47 +2993,55 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5">
-        <f t="shared" ref="M23:U23" si="32">+M21-M22</f>
+        <f t="shared" ref="M23:U23" si="38">+M21-M22</f>
         <v>-137.49900000000002</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-109.06499999999997</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-129.24800000000002</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-125.76099999999995</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>-40.497999999999962</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>46.418000000000035</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>36.71999999999997</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>7.0609999999999777</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>35.641999999999975</v>
       </c>
       <c r="V23" s="2">
         <f>+V21-V22</f>
         <v>159.69300000000007</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AO23" s="2">
+        <f>+AO21-AO22</f>
+        <v>-347.54899999999992</v>
+      </c>
+      <c r="AP23" s="2">
+        <f>+AP21-AP22</f>
+        <v>125.09700000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -2901,47 +3050,47 @@
         <v>-0.68764396594892341</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" ref="M24:V24" si="33">+M23/M25</f>
+        <f t="shared" ref="M24:V24" si="39">+M23/M25</f>
         <v>-1.5691217419089791</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-1.2416607846262435</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-1.4656294649944437</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-1.4171371263085535</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>-0.45560193049758646</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.43958937060817888</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.37048247472607271</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>7.1219640119422029E-2</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>0.35483035998725687</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>1.4721776646938443</v>
       </c>
     </row>
-    <row r="25" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
@@ -2986,6 +3135,24 @@
       </c>
       <c r="V25" s="2">
         <v>108.474</v>
+      </c>
+      <c r="AO25" s="2">
+        <f>R25</f>
+        <v>105.59399999999999</v>
+      </c>
+      <c r="AP25" s="2">
+        <f>+V25</f>
+        <v>108.474</v>
+      </c>
+    </row>
+    <row r="27" spans="2:43" x14ac:dyDescent="0.2">
+      <c r="AP27" s="22">
+        <f>+AP13/AO13-1</f>
+        <v>0.56176913482333446</v>
+      </c>
+      <c r="AQ27" s="22">
+        <f>+AQ13/AP13-1</f>
+        <v>0.30234078584723312</v>
       </c>
     </row>
   </sheetData>
@@ -3002,9 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31639E-CBDB-4748-8633-80F51352A0B3}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3101,14 +3266,14 @@
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="22"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21" t="s">
         <v>105</v>
       </c>
       <c r="G18" t="s">
@@ -3116,20 +3281,20 @@
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="22"/>
-      <c r="D19" s="22" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="21" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="21" t="s">
         <v>108</v>
       </c>
     </row>

--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC5AEFA-C4C3-4E5E-9647-D0C53A8A1298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77A926B-0A20-4B68-8817-538A5BA503ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24795" yWindow="4245" windowWidth="21825" windowHeight="14220" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="45820" yWindow="5140" windowWidth="22680" windowHeight="14550" activeTab="1" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1303,18 +1303,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A776BD77-B28E-481D-8F32-5A036EE3467C}">
   <dimension ref="B2:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.54296875" customWidth="1"/>
+    <col min="2" max="2" width="37.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>58</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>3734.5272160000004</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -1431,7 +1431,7 @@
         <v>4225.8162160000002</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>37</v>
       </c>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>38</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
@@ -1476,13 +1476,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>69</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -1505,27 +1505,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
   <dimension ref="A1:BA27"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ6" sqref="AQ6"/>
+      <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="9.140625" style="3"/>
-    <col min="42" max="42" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="9.1796875" style="3"/>
+    <col min="42" max="42" width="9.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>99</v>
       </c>
@@ -1721,11 +1721,11 @@
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="9"/>
-        <v>101.5625</v>
+        <v>31.25</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="9"/>
-        <v>109.375</v>
+        <v>39.0625</v>
       </c>
       <c r="AP3" s="2">
         <f>+AP6/3.2</f>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="AQ3" s="2">
         <f>+AQ6/3.2</f>
-        <v>421.875</v>
+        <v>281.25</v>
       </c>
       <c r="AR3">
         <v>800</v>
@@ -1766,7 +1766,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>98</v>
       </c>
@@ -1787,61 +1787,61 @@
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="10"/>
-        <v>912.5</v>
+        <v>842.1875</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="10"/>
-        <v>1021.875</v>
+        <v>881.25</v>
       </c>
       <c r="AP4" s="2">
         <v>600</v>
       </c>
       <c r="AQ4" s="2">
         <f>+AP4+AQ3</f>
-        <v>1021.875</v>
+        <v>881.25</v>
       </c>
       <c r="AR4" s="2">
         <f>+AQ4+AR3</f>
-        <v>1821.875</v>
+        <v>1681.25</v>
       </c>
       <c r="AS4" s="2">
         <f t="shared" ref="AS4:AX4" si="11">+AR4+AS3</f>
-        <v>2621.875</v>
+        <v>2481.25</v>
       </c>
       <c r="AT4" s="2">
         <f t="shared" si="11"/>
-        <v>3421.875</v>
+        <v>3281.25</v>
       </c>
       <c r="AU4" s="2">
         <f t="shared" si="11"/>
-        <v>4221.875</v>
+        <v>4081.25</v>
       </c>
       <c r="AV4" s="2">
         <f t="shared" si="11"/>
-        <v>5021.875</v>
+        <v>4881.25</v>
       </c>
       <c r="AW4" s="2">
         <f t="shared" si="11"/>
-        <v>5821.875</v>
+        <v>5681.25</v>
       </c>
       <c r="AX4" s="2">
         <f t="shared" si="11"/>
-        <v>6621.875</v>
+        <v>6481.25</v>
       </c>
       <c r="AY4" s="2">
         <f t="shared" ref="AY4" si="12">+AX4+AY3</f>
-        <v>7421.875</v>
+        <v>7281.25</v>
       </c>
       <c r="AZ4" s="2">
         <f t="shared" ref="AZ4" si="13">+AY4+AZ3</f>
-        <v>8221.875</v>
+        <v>8081.25</v>
       </c>
       <c r="BA4" s="2">
         <f t="shared" ref="BA4" si="14">+AZ4+BA3</f>
-        <v>9021.875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+        <v>8881.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1852,7 +1852,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>56</v>
       </c>
@@ -1900,12 +1900,10 @@
         <v>300</v>
       </c>
       <c r="Y6" s="2">
-        <f>+X6+25</f>
-        <v>325</v>
+        <v>100</v>
       </c>
       <c r="Z6" s="2">
-        <f>+Y6+25</f>
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="AO6" s="2">
         <f>SUM(O6:R6)</f>
@@ -1917,7 +1915,7 @@
       </c>
       <c r="AQ6" s="2">
         <f>SUM(W6:Z6)</f>
-        <v>1350</v>
+        <v>900</v>
       </c>
       <c r="AR6" s="2">
         <f>+AR3*3.2</f>
@@ -1960,7 +1958,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="7" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
@@ -2070,7 +2068,7 @@
         <v>341.22613579974262</v>
       </c>
     </row>
-    <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>43</v>
       </c>
@@ -2094,7 +2092,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
@@ -2118,7 +2116,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
@@ -2142,7 +2140,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2205,11 +2203,11 @@
       </c>
       <c r="Y11" s="2">
         <f>+Y7+Y6</f>
-        <v>573.79999999999995</v>
+        <v>348.8</v>
       </c>
       <c r="Z11" s="2">
         <f>+Z7+Z6</f>
-        <v>604</v>
+        <v>379</v>
       </c>
       <c r="AO11" s="2">
         <f t="shared" ref="AO11:AP11" si="21">+AO7+AO6</f>
@@ -2221,7 +2219,7 @@
       </c>
       <c r="AQ11" s="2">
         <f>+AQ7+AQ6</f>
-        <v>2328.627</v>
+        <v>1878.627</v>
       </c>
       <c r="AR11" s="2">
         <f t="shared" ref="AR11:BA11" si="22">+AR7+AR6</f>
@@ -2264,7 +2262,7 @@
         <v>2901.2261357997427</v>
       </c>
     </row>
-    <row r="12" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2311,7 +2309,7 @@
         <v>20.254999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
@@ -2377,11 +2375,11 @@
       </c>
       <c r="Y13" s="6">
         <f t="shared" si="23"/>
-        <v>573.79999999999995</v>
+        <v>348.8</v>
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="23"/>
-        <v>604</v>
+        <v>379</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" ref="AO13:AQ13" si="24">+AO11+AO12</f>
@@ -2393,7 +2391,7 @@
       </c>
       <c r="AQ13" s="6">
         <f t="shared" si="24"/>
-        <v>2328.627</v>
+        <v>1878.627</v>
       </c>
       <c r="AR13" s="6">
         <f t="shared" ref="AR13:BA13" si="25">+AR11+AR12</f>
@@ -2436,7 +2434,7 @@
         <v>2901.2261357997427</v>
       </c>
     </row>
-    <row r="14" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -2491,7 +2489,7 @@
         <v>319.09900000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -2557,7 +2555,7 @@
         <v>1468.933</v>
       </c>
     </row>
-    <row r="16" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -2612,7 +2610,7 @@
         <v>802.52199999999993</v>
       </c>
     </row>
-    <row r="17" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -2667,7 +2665,7 @@
         <v>558.47199999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2733,7 +2731,7 @@
         <v>1360.9939999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>107.93900000000008</v>
       </c>
     </row>
-    <row r="20" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -2854,7 +2852,7 @@
         <v>42.692999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -2920,7 +2918,7 @@
         <v>150.63200000000006</v>
       </c>
     </row>
-    <row r="22" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -2975,7 +2973,7 @@
         <v>25.535</v>
       </c>
     </row>
-    <row r="23" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -3041,7 +3039,7 @@
         <v>125.09700000000007</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3090,7 +3088,7 @@
         <v>1.4721776646938443</v>
       </c>
     </row>
-    <row r="25" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
@@ -3145,14 +3143,14 @@
         <v>108.474</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP27" s="22">
         <f>+AP13/AO13-1</f>
         <v>0.56176913482333446</v>
       </c>
       <c r="AQ27" s="22">
         <f>+AQ13/AP13-1</f>
-        <v>0.30234078584723312</v>
+        <v>5.0667437719235542E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3171,18 +3169,18 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -3190,7 +3188,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -3198,7 +3196,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>40</v>
       </c>
@@ -3206,7 +3204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>68</v>
       </c>
@@ -3214,7 +3212,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>71</v>
       </c>
@@ -3222,12 +3220,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -3235,43 +3233,43 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C17" s="21" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="21"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
         <v>105</v>
@@ -3280,120 +3278,120 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>83</v>
       </c>

--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77A926B-0A20-4B68-8817-538A5BA503ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405C862-E602-4A0D-BA24-CE57E866810C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45820" yWindow="5140" windowWidth="22680" windowHeight="14550" activeTab="1" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="50230" yWindow="2280" windowWidth="22940" windowHeight="15380" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Elevidys" sheetId="3" r:id="rId3"/>
+    <sheet name="SRP-9005" sheetId="4" r:id="rId4"/>
+    <sheet name="SRP-9004" sheetId="5" r:id="rId5"/>
+    <sheet name="SRP-9003" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="159">
   <si>
     <t>Price</t>
   </si>
@@ -227,9 +230,6 @@
     <t>SRP-5051</t>
   </si>
   <si>
-    <t>SRP-9001</t>
-  </si>
-  <si>
     <t>SRP-9003</t>
   </si>
   <si>
@@ -239,9 +239,6 @@
     <t>DMD</t>
   </si>
   <si>
-    <t>LGMD</t>
-  </si>
-  <si>
     <t>Exondys</t>
   </si>
   <si>
@@ -444,6 +441,156 @@
   </si>
   <si>
     <t>p=0.37</t>
+  </si>
+  <si>
+    <t>SRP-9003 (bidridistrogene xeboparvovec)</t>
+  </si>
+  <si>
+    <t>SRP-9004 (patidistrogene bexoparvovec)</t>
+  </si>
+  <si>
+    <t>LGMD2D/R3</t>
+  </si>
+  <si>
+    <t>alpha-sarcoglycan</t>
+  </si>
+  <si>
+    <t>LGMD2E/R4</t>
+  </si>
+  <si>
+    <t>beta-sarcoglycan</t>
+  </si>
+  <si>
+    <t>SRP-6004</t>
+  </si>
+  <si>
+    <t>LGMD2B/R2</t>
+  </si>
+  <si>
+    <t>dysferlin</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>SRP-1001</t>
+  </si>
+  <si>
+    <t>FSHD1</t>
+  </si>
+  <si>
+    <t>DUX4</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>ARWR</t>
+  </si>
+  <si>
+    <t>SRP-1003</t>
+  </si>
+  <si>
+    <t>DM1</t>
+  </si>
+  <si>
+    <t>Myotonic Dystrophy</t>
+  </si>
+  <si>
+    <t>SRP-1004</t>
+  </si>
+  <si>
+    <t>SCA2</t>
+  </si>
+  <si>
+    <t>ATXN2</t>
+  </si>
+  <si>
+    <t>SRP-1002</t>
+  </si>
+  <si>
+    <t>IPF</t>
+  </si>
+  <si>
+    <t>MMP7</t>
+  </si>
+  <si>
+    <t>Roche</t>
+  </si>
+  <si>
+    <t>LGMD2C/R5</t>
+  </si>
+  <si>
+    <t>gamma-sarcoglycan</t>
+  </si>
+  <si>
+    <t>Limb Girdle Muscular Dystrophy 2C/R5 (gamma-sarcoglycan)</t>
+  </si>
+  <si>
+    <t>Phase I "COMPASS, SRP-9005-01"</t>
+  </si>
+  <si>
+    <t>SRP-9004</t>
+  </si>
+  <si>
+    <t>LGMD 2D/R3 (alpha-sarcoglynopathy)</t>
+  </si>
+  <si>
+    <t>Phase I "DISCOVERY, 102"</t>
+  </si>
+  <si>
+    <t>LGMD 2E/R4</t>
+  </si>
+  <si>
+    <t>bidridistrogene xeboparvovec</t>
+  </si>
+  <si>
+    <t>Phase III "EMERGENE"</t>
+  </si>
+  <si>
+    <t>biomarker expression of beta-sarcoglycan protein</t>
+  </si>
+  <si>
+    <t>1.85x10E13, 7.41x10E13 doses</t>
+  </si>
+  <si>
+    <t>Immunoblot %</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Baseline mean</t>
+  </si>
+  <si>
+    <t>Baseline median</t>
+  </si>
+  <si>
+    <t>Day 60 Mean</t>
+  </si>
+  <si>
+    <t>Day 60 Median</t>
+  </si>
+  <si>
+    <t>Year 2 Mean</t>
+  </si>
+  <si>
+    <t>Year 2 Median</t>
+  </si>
+  <si>
+    <t>% fibers</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>7.41 dose</t>
+  </si>
+  <si>
+    <t>1.85 dose</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
 </sst>
 </file>
@@ -480,12 +627,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -587,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -621,6 +774,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1301,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A776BD77-B28E-481D-8F32-5A036EE3467C}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1319,15 +1473,17 @@
         <v>33</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="16"/>
@@ -1335,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -1343,7 +1499,7 @@
         <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="10"/>
       <c r="K3" t="s">
@@ -1353,21 +1509,24 @@
         <v>98.277032000000005</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="18">
         <v>45463</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>133</v>
       </c>
       <c r="I4" s="10"/>
       <c r="K4" t="s">
@@ -1375,7 +1534,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>3734.5272160000004</v>
+        <v>1965.5406400000002</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -1383,7 +1542,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="10"/>
       <c r="K5" t="s">
@@ -1393,7 +1552,7 @@
         <v>647</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1401,7 +1560,7 @@
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I6" s="10"/>
       <c r="K6" t="s">
@@ -1411,13 +1570,15 @@
         <v>1138.289</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
@@ -1428,7 +1589,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>4225.8162160000002</v>
+        <v>2456.8296399999999</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
@@ -1436,61 +1597,167 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
+      <c r="B9" s="9"/>
       <c r="I9" s="10"/>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2">
         <v>5481.723</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>39</v>
+      <c r="B10" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>113</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
       </c>
       <c r="I10" s="10"/>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L10" s="2">
         <v>4403.634</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>69</v>
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
       </c>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13"/>
+      <c r="B12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1505,11 +1772,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
   <dimension ref="A1:BA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO6" sqref="AO6"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1563,40 +1830,40 @@
         <v>21</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="W2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="AB2">
         <v>2010</v>
@@ -1704,7 +1971,7 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -1768,7 +2035,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -1854,7 +2121,7 @@
     </row>
     <row r="6" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1960,7 +2227,7 @@
     </row>
     <row r="7" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -2070,7 +2337,7 @@
     </row>
     <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2094,7 +2361,7 @@
     </row>
     <row r="9" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -2118,7 +2385,7 @@
     </row>
     <row r="10" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -3167,7 +3434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31639E-CBDB-4748-8633-80F51352A0B3}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3185,44 +3452,44 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,170 +3497,170 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C17" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" s="21"/>
     </row>
     <row r="18" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="21"/>
       <c r="D18" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="21"/>
       <c r="D19" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C20" s="21"/>
       <c r="D20" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="3:5" ht="13" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3403,4 +3670,416 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92A9355-A4E8-4692-9F08-C551F5D7422B}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435E264D-F588-4609-B3DE-9BB79C9FF3F0}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A60B4CF3-D6CD-41A7-976E-1FBB60B0AB66}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3278EA-7047-443C-B9A7-C709D7933817}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F11" s="22">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="F12" s="22">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.51</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.54</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="22">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="F16" s="22">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="22">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="E18" s="22">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="F18" s="22">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="22">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.621</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="22">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0.748</v>
+      </c>
+      <c r="F21" s="22">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0.435</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="22">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0.435</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1:A1048576" location="Main!A1" display="Main" xr:uid="{66362D9A-DD44-4F57-9878-9BFF27D12937}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F405C862-E602-4A0D-BA24-CE57E866810C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B566B8D8-051D-485C-801C-F8B3F10D1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50230" yWindow="2280" windowWidth="22940" windowHeight="15380" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="49510" yWindow="3010" windowWidth="19740" windowHeight="13920" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="250">
   <si>
     <t>Price</t>
   </si>
@@ -332,12 +332,6 @@
     <t>AAVrh74 micro-dystrophin, MHCK7 promoter. 138kDa payload (427 kDa wildtype)</t>
   </si>
   <si>
-    <t>Phase II "EMBARK" (9001-103?)</t>
-  </si>
-  <si>
-    <t>Phase III "EMERGENE" (9001-301?)</t>
-  </si>
-  <si>
     <t>n=124 (4-8yo, ambulatory)</t>
   </si>
   <si>
@@ -371,12 +365,6 @@
     <t>ambulatory Duchenne Muscular Dystrophy</t>
   </si>
   <si>
-    <t>Used Process A product</t>
-  </si>
-  <si>
-    <t>used Process B product</t>
-  </si>
-  <si>
     <t>used Process A product</t>
   </si>
   <si>
@@ -410,15 +398,6 @@
     <t>Net Adds</t>
   </si>
   <si>
-    <t>Study 103 "ENDEAVOR" open-label - NCT04626674</t>
-  </si>
-  <si>
-    <t>Study 102 - NCT03769116</t>
-  </si>
-  <si>
-    <t>Study 101 open-label - NCT03375164</t>
-  </si>
-  <si>
     <t>PE: expression at week 12, change in NSAA at week 48</t>
   </si>
   <si>
@@ -452,36 +431,21 @@
     <t>LGMD2D/R3</t>
   </si>
   <si>
-    <t>alpha-sarcoglycan</t>
-  </si>
-  <si>
     <t>LGMD2E/R4</t>
   </si>
   <si>
-    <t>beta-sarcoglycan</t>
-  </si>
-  <si>
     <t>SRP-6004</t>
   </si>
   <si>
     <t>LGMD2B/R2</t>
   </si>
   <si>
-    <t>dysferlin</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
     <t>SRP-1001</t>
   </si>
   <si>
-    <t>FSHD1</t>
-  </si>
-  <si>
-    <t>DUX4</t>
-  </si>
-  <si>
     <t>Economics</t>
   </si>
   <si>
@@ -491,21 +455,9 @@
     <t>SRP-1003</t>
   </si>
   <si>
-    <t>DM1</t>
-  </si>
-  <si>
-    <t>Myotonic Dystrophy</t>
-  </si>
-  <si>
     <t>SRP-1004</t>
   </si>
   <si>
-    <t>SCA2</t>
-  </si>
-  <si>
-    <t>ATXN2</t>
-  </si>
-  <si>
     <t>SRP-1002</t>
   </si>
   <si>
@@ -521,33 +473,21 @@
     <t>LGMD2C/R5</t>
   </si>
   <si>
-    <t>gamma-sarcoglycan</t>
-  </si>
-  <si>
     <t>Limb Girdle Muscular Dystrophy 2C/R5 (gamma-sarcoglycan)</t>
   </si>
   <si>
-    <t>Phase I "COMPASS, SRP-9005-01"</t>
-  </si>
-  <si>
     <t>SRP-9004</t>
   </si>
   <si>
     <t>LGMD 2D/R3 (alpha-sarcoglynopathy)</t>
   </si>
   <si>
-    <t>Phase I "DISCOVERY, 102"</t>
-  </si>
-  <si>
     <t>LGMD 2E/R4</t>
   </si>
   <si>
     <t>bidridistrogene xeboparvovec</t>
   </si>
   <si>
-    <t>Phase III "EMERGENE"</t>
-  </si>
-  <si>
     <t>biomarker expression of beta-sarcoglycan protein</t>
   </si>
   <si>
@@ -591,6 +531,339 @@
   </si>
   <si>
     <t>III</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Non-Current Inventory</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Accrued Expenses</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>CoCo</t>
+  </si>
+  <si>
+    <t>ONCL</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>CSO: Louise Rodino-Klapac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  93.87% mean expression of normal by western</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  79.9% dystrophin positive fibers by IF</t>
+  </si>
+  <si>
+    <t>Cohort 6 n=6 12-week biopsy data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  elevated liver enzymes n=2, resolved with steroids</t>
+  </si>
+  <si>
+    <t>Phase Ib "Study 103" "ENDEAVOR" open-label n=55 DMD - NCT04626674</t>
+  </si>
+  <si>
+    <t>7 cohorts, used Process B product</t>
+  </si>
+  <si>
+    <t>Cohort 4 n=7 3 year old patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  99.64% mean protein levels by Western</t>
+  </si>
+  <si>
+    <t>Japan approval 5/13/25</t>
+  </si>
+  <si>
+    <t>SRP-9010</t>
+  </si>
+  <si>
+    <t>Preclinical</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>SRP-6006</t>
+  </si>
+  <si>
+    <t>LGMD2A/R1</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Comparisons</t>
+  </si>
+  <si>
+    <t>Vyjuvek, Zevaskyn, Zolgensma, Roctavian, Luxturna, Hemgenix, Upstaza</t>
+  </si>
+  <si>
+    <t>10 approved therapies by 2030</t>
+  </si>
+  <si>
+    <t>Revenue of $30B</t>
+  </si>
+  <si>
+    <t>Operating Income of $16B</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>&gt;600 patients dosed 1/2025, 100 non-ambulatory (JPM)</t>
+  </si>
+  <si>
+    <t>Used Process A product - ages 4-7</t>
+  </si>
+  <si>
+    <t>Study 101 open-label n=4 DMD - NCT03375164</t>
+  </si>
+  <si>
+    <t>Study 102 n=41 ambulatory DMD 4-7yo RCT - NCT03769116</t>
+  </si>
+  <si>
+    <t>Phase II "EMBARK" n=126 ambulatory RCT ages 4-7yo (9001-103?)</t>
+  </si>
+  <si>
+    <t>Phase III "ENVISION" "9001-303" n=148 amb/non-amb</t>
+  </si>
+  <si>
+    <t>ENVOL n=21 under 4yo</t>
+  </si>
+  <si>
+    <t>Phase I 9001-104 n=6 with imlifidase for rAAVrh74 antibodies</t>
+  </si>
+  <si>
+    <t>Phase I 9001-105 n=16 with plasmapheresis for rAAVrh74 antibodies</t>
+  </si>
+  <si>
+    <t>Phase IV "EXPEDITION" LTFU</t>
+  </si>
+  <si>
+    <t>Phase III "ENDURE" real world study?</t>
+  </si>
+  <si>
+    <t>$500m peak sales royalty for ex-US - 1/2025</t>
+  </si>
+  <si>
+    <t>antibody-positive treatments increase opportunity</t>
+  </si>
+  <si>
+    <t>COGS can move to 10% (90% GM)</t>
+  </si>
+  <si>
+    <t>redosing opportunity</t>
+  </si>
+  <si>
+    <t>AAVrh74  beta-sarcoglycan MHCK7</t>
+  </si>
+  <si>
+    <t>AAVrh74 alpha-sarcoglycan tMCK</t>
+  </si>
+  <si>
+    <t>AAVrh74 gamma-sarcoglycan MHCK7</t>
+  </si>
+  <si>
+    <t>AAVrh74 dual vector dysferlin MHCK7</t>
+  </si>
+  <si>
+    <t>rh74Myo dual vector dysferlin MHCK7</t>
+  </si>
+  <si>
+    <t>AAVrh74 CAPN3 tMCK</t>
+  </si>
+  <si>
+    <t>three sarcoglycanopathies are 25% of Elevidys together</t>
+  </si>
+  <si>
+    <t>Phase III (9001-301?) - THIS IS ENVISION!?!?</t>
+  </si>
+  <si>
+    <t>1H25 biomarker data</t>
+  </si>
+  <si>
+    <t>Phase III "EMERGENE" n=17 LGMD2E/R4, single-arm open-label</t>
+  </si>
+  <si>
+    <t>ages 4+</t>
+  </si>
+  <si>
+    <t>Phase I "DISCOVERY, 102" n=? LGMD 2D/R3, open-label single-arm</t>
+  </si>
+  <si>
+    <t>Q125 starting enrollment</t>
+  </si>
+  <si>
+    <t>Phase I "COMPASS, SRP-9005-01" LGMD2C/R5</t>
+  </si>
+  <si>
+    <t>FSHD1 (13,000 US patients)</t>
+  </si>
+  <si>
+    <t>DUX4 avb6</t>
+  </si>
+  <si>
+    <t>DM1 avb6</t>
+  </si>
+  <si>
+    <t>I/II</t>
+  </si>
+  <si>
+    <t>Myotonic Dystrophy (30,000 US patients)</t>
+  </si>
+  <si>
+    <t>SCA2 (2,000 patients)</t>
+  </si>
+  <si>
+    <t>ATXN2 avb6</t>
+  </si>
+  <si>
+    <t>2-year topline data vs. EC</t>
+  </si>
+  <si>
+    <t>3-year pooled functional analysis vs. EC</t>
+  </si>
+  <si>
+    <t>enrollment complete?</t>
+  </si>
+  <si>
+    <t>IND 1H25</t>
+  </si>
+  <si>
+    <t>I/II - 2H25 results</t>
+  </si>
+  <si>
+    <t>HTT</t>
+  </si>
+  <si>
+    <t>IND 2H25</t>
+  </si>
+  <si>
+    <t>ARO-HTT</t>
+  </si>
+  <si>
+    <t>Huntington's</t>
+  </si>
+  <si>
+    <t>VOYAGENE</t>
+  </si>
+  <si>
+    <t>BLA 2H25 - now at risk?</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Strategic Investments</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Accretion</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Strategic Investment</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Intangible Purchase</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>ESOP</t>
+  </si>
+  <si>
+    <t>Revolver</t>
+  </si>
+  <si>
+    <t>ATXN1</t>
+  </si>
+  <si>
+    <t>ATXN3</t>
+  </si>
+  <si>
+    <t>Ataxia</t>
+  </si>
+  <si>
+    <t>ARO-ATXN1</t>
+  </si>
+  <si>
+    <t>ARO-ATXN3</t>
   </si>
 </sst>
 </file>
@@ -641,7 +914,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -735,12 +1008,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -774,7 +1078,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -799,16 +1118,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>3628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>59871</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>34193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -823,8 +1142,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13732329" y="0"/>
-          <a:ext cx="0" cy="5938157"/>
+          <a:off x="14937851" y="3628"/>
+          <a:ext cx="0" cy="12930834"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -857,8 +1176,8 @@
     <xdr:to>
       <xdr:col>42</xdr:col>
       <xdr:colOff>26737</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>26736</xdr:rowOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>122115</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -873,8 +1192,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25928053" y="50132"/>
-          <a:ext cx="0" cy="4725736"/>
+          <a:off x="26559968" y="50132"/>
+          <a:ext cx="0" cy="10070791"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -906,14 +1225,14 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>217757</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>320011</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -957,7 +1276,7 @@
       <xdr:col>64</xdr:col>
       <xdr:colOff>209856</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>134148</xdr:rowOff>
+      <xdr:rowOff>101018</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1001,7 +1320,7 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>305012</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>131222</xdr:rowOff>
+      <xdr:rowOff>147787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1038,13 +1357,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>373130</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>45011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>309474</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>122067</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1082,14 +1401,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>164353</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>73981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>152526</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>67141</xdr:rowOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>45054</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1455,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A776BD77-B28E-481D-8F32-5A036EE3467C}">
-  <dimension ref="B2:M20"/>
+  <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1482,7 +1801,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -1491,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -1506,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>98.277032000000005</v>
+        <v>97</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -1526,7 +1845,7 @@
         <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="I4" s="10"/>
       <c r="K4" t="s">
@@ -1534,7 +1853,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>1965.5406400000002</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -1549,10 +1868,10 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>647</v>
+        <v>786</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -1567,17 +1886,17 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>1138.289</v>
+        <v>1138</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
-        <v>118</v>
+      <c r="D7" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -1589,179 +1908,323 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>2456.8296399999999</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
       <c r="I9" s="10"/>
       <c r="K9" t="s">
         <v>45</v>
       </c>
       <c r="L9" s="2">
-        <v>5481.723</v>
+        <v>5801.1610000000001</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" t="s">
-        <v>114</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="10"/>
       <c r="K10" t="s">
         <v>46</v>
       </c>
       <c r="L10" s="2">
-        <v>4403.634</v>
+        <v>4658.482</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" t="s">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" t="s">
-        <v>123</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="10"/>
+      <c r="K13" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" t="s">
-        <v>123</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" t="s">
-        <v>123</v>
-      </c>
+      <c r="B16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="F17" t="s">
-        <v>123</v>
-      </c>
+      <c r="B17" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="F18" t="s">
-        <v>123</v>
-      </c>
+      <c r="B18" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="F19" t="s">
-        <v>123</v>
-      </c>
+      <c r="B19" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="13"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" location="Elevidys!A1" display="Elevidys (delandistrogene moxeparvovec)" xr:uid="{7EECD0E4-1EBC-4353-9DC8-28F1192EE3BD}"/>
+    <hyperlink ref="B10" location="'SRP-9003'!A1" display="SRP-9003 (bidridistrogene xeboparvovec)" xr:uid="{FEA4D2FC-F3B3-41CF-B4D4-2E94AF745420}"/>
+    <hyperlink ref="B9" location="'SRP-9004'!A1" display="SRP-9004 (patidistrogene bexoparvovec)" xr:uid="{04DB3923-E2F7-48C1-9948-3426B5ACE7B0}"/>
+    <hyperlink ref="B16" location="'SRP-9005'!A1" display="SRP-9005" xr:uid="{9B407272-A571-4527-BDCC-1D5CF387657F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1770,13 +2233,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
-  <dimension ref="A1:BA27"/>
+  <dimension ref="A1:BA73"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1971,7 +2434,7 @@
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -2035,7 +2498,7 @@
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -2282,6 +2745,34 @@
         <f>+V7</f>
         <v>254</v>
       </c>
+      <c r="AH7" s="2">
+        <f>+AH13</f>
+        <v>5.4</v>
+      </c>
+      <c r="AI7" s="2">
+        <f>+AI13</f>
+        <v>155</v>
+      </c>
+      <c r="AJ7" s="2">
+        <f>+AJ13</f>
+        <v>301</v>
+      </c>
+      <c r="AK7" s="2">
+        <f>+AK13</f>
+        <v>381</v>
+      </c>
+      <c r="AL7" s="2">
+        <f>+AL13</f>
+        <v>456</v>
+      </c>
+      <c r="AM7" s="2">
+        <f>+AM13</f>
+        <v>612</v>
+      </c>
+      <c r="AN7" s="2">
+        <f>+AN13</f>
+        <v>844</v>
+      </c>
       <c r="AO7" s="2">
         <f t="shared" ref="AO7" si="17">SUM(O7:R7)</f>
         <v>944.57600000000002</v>
@@ -2575,6 +3066,9 @@
       <c r="V12" s="2">
         <v>20.254999999999999</v>
       </c>
+      <c r="W12" s="2">
+        <v>133.333</v>
+      </c>
     </row>
     <row r="13" spans="1:53" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
@@ -2634,7 +3128,8 @@
         <v>658.45500000000004</v>
       </c>
       <c r="W13" s="6">
-        <v>711</v>
+        <f>+W11+W12</f>
+        <v>745.33299999999997</v>
       </c>
       <c r="X13" s="6">
         <f t="shared" si="23"/>
@@ -2647,6 +3142,27 @@
       <c r="Z13" s="6">
         <f t="shared" si="23"/>
         <v>379</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>155</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>301</v>
+      </c>
+      <c r="AK13" s="6">
+        <v>381</v>
+      </c>
+      <c r="AL13" s="6">
+        <v>456</v>
+      </c>
+      <c r="AM13" s="6">
+        <v>612</v>
+      </c>
+      <c r="AN13" s="6">
+        <v>844</v>
       </c>
       <c r="AO13" s="6">
         <f t="shared" ref="AO13:AQ13" si="24">+AO11+AO12</f>
@@ -2746,6 +3262,21 @@
       </c>
       <c r="V14" s="2">
         <v>132.304</v>
+      </c>
+      <c r="W14" s="2">
+        <v>137.56399999999999</v>
+      </c>
+      <c r="X14" s="2">
+        <f>+X13*0.18</f>
+        <v>96.988860000000003</v>
+      </c>
+      <c r="Y14" s="2">
+        <f>+Y13*0.18</f>
+        <v>62.783999999999999</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>+Z13*0.18</f>
+        <v>68.22</v>
       </c>
       <c r="AO14" s="2">
         <f t="shared" ref="AO14:AO17" si="26">SUM(O14:R14)</f>
@@ -2813,6 +3344,22 @@
         <f>+V13-V14</f>
         <v>526.15100000000007</v>
       </c>
+      <c r="W15" s="2">
+        <f>+W13-W14</f>
+        <v>607.76900000000001</v>
+      </c>
+      <c r="X15" s="2">
+        <f>+X13-X14</f>
+        <v>441.83814000000001</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>+Y13-Y14</f>
+        <v>286.01600000000002</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>+Z13-Z14</f>
+        <v>310.77999999999997</v>
+      </c>
       <c r="AO15" s="2">
         <f>+AO13-AO14</f>
         <v>994.5329999999999</v>
@@ -2857,7 +3404,7 @@
         <v>195.517</v>
       </c>
       <c r="S16" s="2">
-        <v>200.39599999999999</v>
+        <v>178.077</v>
       </c>
       <c r="T16" s="2">
         <v>179.69</v>
@@ -2867,6 +3414,10 @@
       </c>
       <c r="V16" s="2">
         <v>199.953</v>
+      </c>
+      <c r="W16" s="2">
+        <f>749.154-500</f>
+        <v>249.154</v>
       </c>
       <c r="AO16" s="2">
         <f t="shared" si="26"/>
@@ -2874,7 +3425,7 @@
       </c>
       <c r="AP16" s="2">
         <f t="shared" si="27"/>
-        <v>802.52199999999993</v>
+        <v>780.20299999999997</v>
       </c>
     </row>
     <row r="17" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2922,6 +3473,9 @@
       </c>
       <c r="V17" s="2">
         <v>163.87299999999999</v>
+      </c>
+      <c r="W17" s="2">
+        <v>133.62899999999999</v>
       </c>
       <c r="AO17" s="2">
         <f t="shared" si="26"/>
@@ -2975,7 +3529,7 @@
       </c>
       <c r="S18" s="2">
         <f>+S16+S17</f>
-        <v>327.399</v>
+        <v>305.08</v>
       </c>
       <c r="T18" s="2">
         <f>+T16+T17</f>
@@ -2989,13 +3543,29 @@
         <f>+V17+V16</f>
         <v>363.82600000000002</v>
       </c>
+      <c r="W18" s="2">
+        <f>+W17+W16</f>
+        <v>382.78300000000002</v>
+      </c>
+      <c r="X18" s="2">
+        <f>+X17+X16</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>+Y17+Y16</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <f>+Z17+Z16</f>
+        <v>0</v>
+      </c>
       <c r="AO18" s="2">
         <f>+AO16+AO17</f>
         <v>1359.2579999999998</v>
       </c>
       <c r="AP18" s="2">
         <f>+AP16+AP17</f>
-        <v>1360.9939999999999</v>
+        <v>1338.675</v>
       </c>
     </row>
     <row r="19" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3041,7 +3611,7 @@
       </c>
       <c r="S19" s="2">
         <f>+S15-S18</f>
-        <v>35.505999999999972</v>
+        <v>57.824999999999989</v>
       </c>
       <c r="T19" s="2">
         <f>+T15-T18</f>
@@ -3055,13 +3625,29 @@
         <f>+V15-V18</f>
         <v>162.32500000000005</v>
       </c>
+      <c r="W19" s="2">
+        <f>+W15-W18</f>
+        <v>224.98599999999999</v>
+      </c>
+      <c r="X19" s="2">
+        <f>+X15-X18</f>
+        <v>441.83814000000001</v>
+      </c>
+      <c r="Y19" s="2">
+        <f>+Y15-Y18</f>
+        <v>286.01600000000002</v>
+      </c>
+      <c r="Z19" s="2">
+        <f>+Z15-Z18</f>
+        <v>310.77999999999997</v>
+      </c>
       <c r="AO19" s="2">
         <f>+AO15-AO18</f>
         <v>-364.72499999999991</v>
       </c>
       <c r="AP19" s="2">
         <f>+AP15-AP18</f>
-        <v>107.93900000000008</v>
+        <v>130.25800000000004</v>
       </c>
     </row>
     <row r="20" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3109,6 +3695,9 @@
       </c>
       <c r="V20" s="2">
         <v>10.061999999999999</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
       </c>
       <c r="AO20" s="2">
         <f t="shared" ref="AO20" si="33">SUM(O20:R20)</f>
@@ -3162,7 +3751,7 @@
       </c>
       <c r="S21" s="2">
         <f t="shared" si="35"/>
-        <v>42.048999999999971</v>
+        <v>64.367999999999995</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" si="35"/>
@@ -3176,13 +3765,29 @@
         <f>+V19+V20</f>
         <v>172.38700000000006</v>
       </c>
+      <c r="W21" s="2">
+        <f>+W19+W20</f>
+        <v>224.98599999999999</v>
+      </c>
+      <c r="X21" s="2">
+        <f>+X19+X20</f>
+        <v>441.83814000000001</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>+Y19+Y20</f>
+        <v>286.01600000000002</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>+Z19+Z20</f>
+        <v>310.77999999999997</v>
+      </c>
       <c r="AO21" s="2">
         <f>+AO19+AO20</f>
         <v>-331.6699999999999</v>
       </c>
       <c r="AP21" s="2">
         <f>+AP19+AP20</f>
-        <v>150.63200000000006</v>
+        <v>172.95100000000002</v>
       </c>
     </row>
     <row r="22" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3230,6 +3835,18 @@
       </c>
       <c r="V22" s="2">
         <v>12.694000000000001</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
       </c>
       <c r="AO22" s="2">
         <f t="shared" ref="AO22" si="36">SUM(O22:R22)</f>
@@ -3283,7 +3900,7 @@
       </c>
       <c r="S23" s="2">
         <f t="shared" si="38"/>
-        <v>36.71999999999997</v>
+        <v>59.038999999999994</v>
       </c>
       <c r="T23" s="2">
         <f t="shared" si="38"/>
@@ -3297,13 +3914,29 @@
         <f>+V21-V22</f>
         <v>159.69300000000007</v>
       </c>
+      <c r="W23" s="2">
+        <f>+W21-W22</f>
+        <v>224.98599999999999</v>
+      </c>
+      <c r="X23" s="2">
+        <f>+X21-X22</f>
+        <v>441.83814000000001</v>
+      </c>
+      <c r="Y23" s="2">
+        <f>+Y21-Y22</f>
+        <v>286.01600000000002</v>
+      </c>
+      <c r="Z23" s="2">
+        <f>+Z21-Z22</f>
+        <v>310.77999999999997</v>
+      </c>
       <c r="AO23" s="2">
         <f>+AO21-AO22</f>
         <v>-347.54899999999992</v>
       </c>
       <c r="AP23" s="2">
         <f>+AP21-AP22</f>
-        <v>125.09700000000007</v>
+        <v>147.41600000000003</v>
       </c>
     </row>
     <row r="24" spans="2:43" x14ac:dyDescent="0.25">
@@ -3315,7 +3948,7 @@
         <v>-0.68764396594892341</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" ref="M24:V24" si="39">+M23/M25</f>
+        <f t="shared" ref="M24:Z24" si="39">+M23/M25</f>
         <v>-1.5691217419089791</v>
       </c>
       <c r="N24" s="1">
@@ -3340,7 +3973,7 @@
       </c>
       <c r="S24" s="1">
         <f t="shared" si="39"/>
-        <v>0.37048247472607271</v>
+        <v>0.59566761506951582</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="39"/>
@@ -3353,6 +3986,22 @@
       <c r="V24" s="1">
         <f t="shared" si="39"/>
         <v>1.4721776646938443</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="39"/>
+        <v>2.3108194161993385</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="39"/>
+        <v>4.5380963825722569</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="39"/>
+        <v>2.9376553480824144</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" si="39"/>
+        <v>3.1920050943900082</v>
       </c>
     </row>
     <row r="25" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3401,6 +4050,21 @@
       <c r="V25" s="2">
         <v>108.474</v>
       </c>
+      <c r="W25" s="2">
+        <v>97.361999999999995</v>
+      </c>
+      <c r="X25" s="2">
+        <f>+W25</f>
+        <v>97.361999999999995</v>
+      </c>
+      <c r="Y25" s="2">
+        <f>+X25</f>
+        <v>97.361999999999995</v>
+      </c>
+      <c r="Z25" s="2">
+        <f>+Y25</f>
+        <v>97.361999999999995</v>
+      </c>
       <c r="AO25" s="2">
         <f>R25</f>
         <v>105.59399999999999</v>
@@ -3411,13 +4075,529 @@
       </c>
     </row>
     <row r="27" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R27" s="22">
+        <f t="shared" ref="R27:W27" si="40">+R15/R13</f>
+        <v>0.88866402373097508</v>
+      </c>
+      <c r="S27" s="22">
+        <f t="shared" si="40"/>
+        <v>0.87771849544337588</v>
+      </c>
+      <c r="T27" s="22">
+        <f t="shared" si="40"/>
+        <v>0.87726317123640574</v>
+      </c>
+      <c r="U27" s="22">
+        <f t="shared" si="40"/>
+        <v>0.80374399883561887</v>
+      </c>
+      <c r="V27" s="22">
+        <f t="shared" si="40"/>
+        <v>0.79906903281165764</v>
+      </c>
+      <c r="W27" s="22">
+        <f>+W15/W13</f>
+        <v>0.81543283337783246</v>
+      </c>
+      <c r="X27" s="22">
+        <f>+X15/X13</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="Y27" s="22">
+        <f>+Y15/Y13</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="Z27" s="22">
+        <f>+Z15/Z13</f>
+        <v>0.82</v>
+      </c>
+      <c r="AO27" s="22">
+        <f t="shared" ref="AO27:AP27" si="41">+AO15/AO13</f>
+        <v>0.86868184851459884</v>
+      </c>
       <c r="AP27" s="22">
+        <f>+AP15/AP13</f>
+        <v>0.821536191746009</v>
+      </c>
+    </row>
+    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AP28" s="22">
         <f>+AP13/AO13-1</f>
         <v>0.56176913482333446</v>
       </c>
-      <c r="AQ27" s="22">
+      <c r="AQ28" s="22">
         <f>+AQ13/AP13-1</f>
         <v>5.0667437719235542E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="W30" s="2">
+        <f>+W31-W49</f>
+        <v>-352.03200000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W31" s="2">
+        <f>240.867+281.895+154.37+109.125</f>
+        <v>786.25699999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="W32" s="2">
+        <v>659.37099999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="W33" s="2">
+        <v>941.43200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="W34" s="2">
+        <v>203.49</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W35" s="2">
+        <v>105.47799999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W36" s="2">
+        <v>360.58699999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W37" s="2">
+        <v>147.06299999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="W38" s="2">
+        <v>181.15799999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="W39" s="2">
+        <v>80.551000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="W40" s="2">
+        <f>SUM(W31:W39)</f>
+        <v>3465.3870000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="W42" s="2">
+        <v>156.10499999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="W43" s="2">
+        <v>391.65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="W44" s="2">
+        <f>44.859+325</f>
+        <v>369.85899999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="W45" s="2">
+        <v>12.974</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="W46" s="2">
+        <v>205.46</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="W47" s="2">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="2">
+        <v>1138.289</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="W50" s="2">
+        <v>1142.723</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>148</v>
+      </c>
+      <c r="W51" s="2">
+        <f>SUM(W42:W50)</f>
+        <v>3465.3869999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>227</v>
+      </c>
+      <c r="W53" s="2">
+        <f>+W23</f>
+        <v>224.98599999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>228</v>
+      </c>
+      <c r="W54" s="2">
+        <v>-447.50799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>231</v>
+      </c>
+      <c r="W55" s="2">
+        <v>90.727999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>235</v>
+      </c>
+      <c r="W56" s="2">
+        <v>41.427999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>232</v>
+      </c>
+      <c r="W57" s="2">
+        <v>9.9779999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+      <c r="W58" s="2">
+        <v>3.9340000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>233</v>
+      </c>
+      <c r="W59" s="2">
+        <v>-1.9119999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="W60" s="2">
+        <v>1.6919999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="W61" s="2">
+        <f>-57.383+71.136-177.359-15.067-85.397-17.707</f>
+        <v>-281.77700000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>229</v>
+      </c>
+      <c r="W62" s="2">
+        <f>SUM(W54:W61)</f>
+        <v>-583.4369999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="W64" s="2">
+        <v>-43.651000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="W65" s="2">
+        <f>-44.658+40.758</f>
+        <v>-3.8999999999999986</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="W66" s="2">
+        <v>-2.238</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="W67" s="2">
+        <v>-241.38800000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="W68" s="2">
+        <f>SUM(W64:W67)</f>
+        <v>-291.17700000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="W70" s="2">
+        <v>15.680999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="W71" s="2">
+        <v>-3.21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="W72" s="2">
+        <f>W70+W71</f>
+        <v>12.471</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="W73" s="2">
+        <f>+W72+W68+W62</f>
+        <v>-862.14299999999992</v>
       </c>
     </row>
   </sheetData>
@@ -3432,9 +4612,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F31639E-CBDB-4748-8633-80F51352A0B3}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3468,7 +4650,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3484,183 +4666,302 @@
         <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C10" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C12" s="19" t="s">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C15" s="19" t="s">
-        <v>99</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>87</v>
+      <c r="B16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C17" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="21"/>
-    </row>
-    <row r="18" spans="3:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C19" s="21"/>
-      <c r="D19" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C20" s="21"/>
-      <c r="D20" s="21" t="s">
-        <v>105</v>
+      <c r="C17" s="19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="24" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C21" s="21"/>
-      <c r="D21" s="21" t="s">
-        <v>106</v>
+      <c r="C21" s="19" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C24" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C26" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C26" s="19" t="s">
+    <row r="28" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C29" s="21"/>
+      <c r="D29" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>89</v>
+    <row r="30" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C35" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="3:5" ht="13" x14ac:dyDescent="0.3">
-      <c r="C41" s="19" t="s">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="C60" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>81</v>
+    <row r="72" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C72" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C75" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C78" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+      <c r="C80" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C82" s="19" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C84" s="19" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3674,11 +4975,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92A9355-A4E8-4692-9F08-C551F5D7422B}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3687,7 +4986,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3709,7 +5008,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3719,21 +5018,27 @@
     </row>
     <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="19" t="s">
-        <v>137</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{143AB122-F26B-4524-90EE-60B00ABC4E36}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435E264D-F588-4609-B3DE-9BB79C9FF3F0}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3751,7 +5056,7 @@
         <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3764,7 +5069,7 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3774,7 +5079,12 @@
     </row>
     <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C6" s="19" t="s">
-        <v>140</v>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3787,9 +5097,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3278EA-7047-443C-B9A7-C709D7933817}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3816,7 +5126,7 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3824,256 +5134,282 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C6" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>145</v>
+    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C8" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="24" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="F11" s="22">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="F12" s="22">
-        <v>4.7E-2</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0.51</v>
-      </c>
-      <c r="F13" s="22">
-        <v>0.47399999999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.6</v>
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D14" s="22">
-        <v>0.34699999999999998</v>
+        <v>0</v>
       </c>
       <c r="E14" s="22">
-        <v>0.48899999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F14" s="22">
-        <v>0.47399999999999998</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D15" s="22">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="E15" s="22">
-        <v>0.46800000000000003</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F15" s="22">
-        <v>0.35099999999999998</v>
+        <v>4.7E-2</v>
       </c>
       <c r="G15" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D16" s="22">
-        <v>0.56200000000000006</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="E16" s="22">
-        <v>0.58599999999999997</v>
+        <v>0.51</v>
       </c>
       <c r="F16" s="22">
-        <v>0.45900000000000002</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="G16" s="1">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+        <v>131</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="F17" s="22">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D18" s="22">
-        <v>0.33100000000000002</v>
+        <v>0.54</v>
       </c>
       <c r="E18" s="22">
-        <v>5.8999999999999997E-2</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="F18" s="22">
-        <v>4.5999999999999999E-2</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D19" s="22">
-        <v>0.35</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="E19" s="22">
-        <v>0.05</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="F19" s="22">
-        <v>2.5000000000000001E-2</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="G19" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0.621</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0.72299999999999998</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.6</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D21" s="22">
-        <v>0.63100000000000001</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="E21" s="22">
-        <v>0.748</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="F21" s="22">
-        <v>0.67100000000000004</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="G21" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="D22" s="22">
-        <v>0.60299999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E22" s="22">
-        <v>0.63100000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F22" s="22">
-        <v>0.435</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D23" s="22">
+        <v>0.621</v>
+      </c>
+      <c r="E23" s="22">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="F23" s="22">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="22">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E24" s="22">
+        <v>0.748</v>
+      </c>
+      <c r="F24" s="22">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="22">
         <v>0.60299999999999998</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E25" s="22">
         <v>0.63100000000000001</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F25" s="22">
         <v>0.435</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G25" s="1">
         <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="22">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="E26" s="22">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="F26" s="22">
+        <v>0.435</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="C29" s="19" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/SRPT.xlsx
+++ b/SRPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B566B8D8-051D-485C-801C-F8B3F10D1381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7E285F-4075-4036-8170-88831E5CE49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49510" yWindow="3010" windowWidth="19740" windowHeight="13920" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
+    <workbookView xWindow="35310" yWindow="1860" windowWidth="21130" windowHeight="12930" xr2:uid="{79CAE26F-8736-4C5E-9FC6-A2D7A01B0567}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="252">
   <si>
     <t>Price</t>
   </si>
@@ -864,6 +864,12 @@
   </si>
   <si>
     <t>ARO-ATXN3</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Discount</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1079,7 +1085,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1089,11 +1094,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1777,17 +1780,17 @@
   <dimension ref="B2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" customWidth="1"/>
-    <col min="2" max="2" width="37.1796875" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
         <v>33</v>
       </c>
@@ -1810,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>34</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="20" t="s">
         <v>56</v>
       </c>
@@ -1853,10 +1856,10 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>35</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1892,10 +1895,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>108</v>
       </c>
       <c r="E7" s="15"/>
@@ -1908,39 +1911,36 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="27"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
       <c r="I9" s="10"/>
       <c r="K9" t="s">
         <v>45</v>
@@ -1952,22 +1952,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
       <c r="I10" s="10"/>
       <c r="K10" t="s">
         <v>46</v>
@@ -1979,222 +1976,196 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" t="s">
         <v>211</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
       <c r="I13" s="10"/>
       <c r="K13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" t="s">
         <v>214</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" t="s">
         <v>111</v>
       </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" t="s">
         <v>172</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" t="s">
         <v>200</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" t="s">
         <v>107</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" t="s">
         <v>199</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="E19" s="32" t="s">
+      <c r="E19" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" t="s">
         <v>111</v>
       </c>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" t="s">
         <v>245</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" t="s">
         <v>247</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
       <c r="I21" s="10"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -2204,17 +2175,17 @@
       <c r="H22" s="12"/>
       <c r="I22" s="13"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>178</v>
       </c>
@@ -2233,29 +2204,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CE2201-9B97-4447-A1A2-DF8707285205}">
-  <dimension ref="A1:BA73"/>
+  <dimension ref="A1:BD73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AT3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W73" sqref="W73"/>
+      <selection pane="bottomRight" activeCell="AY8" sqref="AY8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="9.1796875" style="3"/>
-    <col min="42" max="42" width="9.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="9.140625" style="3"/>
+    <col min="42" max="42" width="9.42578125" customWidth="1"/>
+    <col min="43" max="43" width="8.85546875" customWidth="1"/>
+    <col min="56" max="56" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
@@ -2432,7 +2405,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>93</v>
       </c>
@@ -2447,15 +2420,15 @@
       </c>
       <c r="X3" s="5">
         <f t="shared" ref="X3:Z3" si="9">+X6/3.2</f>
-        <v>93.75</v>
+        <v>85.9375</v>
       </c>
       <c r="Y3" s="5">
         <f t="shared" si="9"/>
-        <v>31.25</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="5">
         <f t="shared" si="9"/>
-        <v>39.0625</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="2">
         <f>+AP6/3.2</f>
@@ -2463,7 +2436,7 @@
       </c>
       <c r="AQ3" s="2">
         <f>+AQ6/3.2</f>
-        <v>281.25</v>
+        <v>203.125</v>
       </c>
       <c r="AR3">
         <v>800</v>
@@ -2496,7 +2469,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>92</v>
       </c>
@@ -2513,65 +2486,65 @@
       </c>
       <c r="X4" s="2">
         <f t="shared" ref="X4:Z4" si="10">+W4+X3</f>
-        <v>810.9375</v>
+        <v>803.125</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="10"/>
-        <v>842.1875</v>
+        <v>803.125</v>
       </c>
       <c r="Z4" s="2">
         <f t="shared" si="10"/>
-        <v>881.25</v>
+        <v>803.125</v>
       </c>
       <c r="AP4" s="2">
         <v>600</v>
       </c>
       <c r="AQ4" s="2">
         <f>+AP4+AQ3</f>
-        <v>881.25</v>
+        <v>803.125</v>
       </c>
       <c r="AR4" s="2">
         <f>+AQ4+AR3</f>
-        <v>1681.25</v>
+        <v>1603.125</v>
       </c>
       <c r="AS4" s="2">
         <f t="shared" ref="AS4:AX4" si="11">+AR4+AS3</f>
-        <v>2481.25</v>
+        <v>2403.125</v>
       </c>
       <c r="AT4" s="2">
         <f t="shared" si="11"/>
-        <v>3281.25</v>
+        <v>3203.125</v>
       </c>
       <c r="AU4" s="2">
         <f t="shared" si="11"/>
-        <v>4081.25</v>
+        <v>4003.125</v>
       </c>
       <c r="AV4" s="2">
         <f t="shared" si="11"/>
-        <v>4881.25</v>
+        <v>4803.125</v>
       </c>
       <c r="AW4" s="2">
         <f t="shared" si="11"/>
-        <v>5681.25</v>
+        <v>5603.125</v>
       </c>
       <c r="AX4" s="2">
         <f t="shared" si="11"/>
-        <v>6481.25</v>
+        <v>6403.125</v>
       </c>
       <c r="AY4" s="2">
         <f t="shared" ref="AY4" si="12">+AX4+AY3</f>
-        <v>7281.25</v>
+        <v>7203.125</v>
       </c>
       <c r="AZ4" s="2">
         <f t="shared" ref="AZ4" si="13">+AY4+AZ3</f>
-        <v>8081.25</v>
+        <v>8003.125</v>
       </c>
       <c r="BA4" s="2">
         <f t="shared" ref="BA4" si="14">+AZ4+BA3</f>
-        <v>8881.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+        <v>8803.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -2582,7 +2555,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
@@ -2626,14 +2599,13 @@
         <v>375</v>
       </c>
       <c r="X6" s="2">
-        <f>+W6*0.8</f>
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="Y6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="2">
         <f>SUM(O6:R6)</f>
@@ -2645,50 +2617,40 @@
       </c>
       <c r="AQ6" s="2">
         <f>SUM(W6:Z6)</f>
-        <v>900</v>
+        <v>650</v>
       </c>
       <c r="AR6" s="2">
-        <f>+AR3*3.2</f>
-        <v>2560</v>
+        <v>50</v>
       </c>
       <c r="AS6" s="2">
-        <f t="shared" ref="AS6:AX6" si="15">+AS3*3.2</f>
-        <v>2560</v>
+        <v>100</v>
       </c>
       <c r="AT6" s="2">
-        <f t="shared" si="15"/>
-        <v>2560</v>
+        <v>150</v>
       </c>
       <c r="AU6" s="2">
-        <f t="shared" si="15"/>
-        <v>2560</v>
+        <v>200</v>
       </c>
       <c r="AV6" s="2">
-        <f t="shared" si="15"/>
-        <v>2560</v>
+        <v>250</v>
       </c>
       <c r="AW6" s="2">
-        <f t="shared" si="15"/>
-        <v>2560</v>
+        <v>300</v>
       </c>
       <c r="AX6" s="2">
-        <f t="shared" si="15"/>
-        <v>2560</v>
+        <v>300</v>
       </c>
       <c r="AY6" s="2">
-        <f t="shared" ref="AY6:BA6" si="16">+AY3*3.2</f>
-        <v>2560</v>
+        <v>300</v>
       </c>
       <c r="AZ6" s="2">
-        <f t="shared" si="16"/>
-        <v>2560</v>
+        <v>300</v>
       </c>
       <c r="BA6" s="2">
-        <f t="shared" si="16"/>
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
@@ -2746,87 +2708,87 @@
         <v>254</v>
       </c>
       <c r="AH7" s="2">
-        <f>+AH13</f>
+        <f t="shared" ref="AH7:AN7" si="15">+AH13</f>
         <v>5.4</v>
       </c>
       <c r="AI7" s="2">
-        <f>+AI13</f>
+        <f t="shared" si="15"/>
         <v>155</v>
       </c>
       <c r="AJ7" s="2">
-        <f>+AJ13</f>
+        <f t="shared" si="15"/>
         <v>301</v>
       </c>
       <c r="AK7" s="2">
-        <f>+AK13</f>
+        <f t="shared" si="15"/>
         <v>381</v>
       </c>
       <c r="AL7" s="2">
-        <f>+AL13</f>
+        <f t="shared" si="15"/>
         <v>456</v>
       </c>
       <c r="AM7" s="2">
-        <f>+AM13</f>
+        <f t="shared" si="15"/>
         <v>612</v>
       </c>
       <c r="AN7" s="2">
-        <f>+AN13</f>
+        <f t="shared" si="15"/>
         <v>844</v>
       </c>
       <c r="AO7" s="2">
-        <f t="shared" ref="AO7" si="17">SUM(O7:R7)</f>
+        <f t="shared" ref="AO7" si="16">SUM(O7:R7)</f>
         <v>944.57600000000002</v>
       </c>
       <c r="AP7" s="2">
-        <f t="shared" ref="AP7" si="18">SUM(S7:V7)</f>
+        <f t="shared" ref="AP7" si="17">SUM(S7:V7)</f>
         <v>967.17499999999995</v>
       </c>
       <c r="AQ7" s="2">
-        <f t="shared" ref="AQ7" si="19">SUM(W7:Z7)</f>
+        <f t="shared" ref="AQ7" si="18">SUM(W7:Z7)</f>
         <v>978.62699999999995</v>
       </c>
       <c r="AR7" s="2">
-        <f>+AQ7*0.9</f>
-        <v>880.76429999999993</v>
+        <f>+AQ7*0.99</f>
+        <v>968.84072999999989</v>
       </c>
       <c r="AS7" s="2">
-        <f t="shared" ref="AS7:BA7" si="20">+AR7*0.9</f>
-        <v>792.68786999999998</v>
+        <f t="shared" ref="AS7:BA7" si="19">+AR7*0.99</f>
+        <v>959.1523226999999</v>
       </c>
       <c r="AT7" s="2">
-        <f t="shared" si="20"/>
-        <v>713.419083</v>
+        <f t="shared" si="19"/>
+        <v>949.56079947299986</v>
       </c>
       <c r="AU7" s="2">
-        <f t="shared" si="20"/>
-        <v>642.0771747</v>
+        <f t="shared" si="19"/>
+        <v>940.06519147826987</v>
       </c>
       <c r="AV7" s="2">
-        <f t="shared" si="20"/>
-        <v>577.86945722999997</v>
+        <f t="shared" si="19"/>
+        <v>930.66453956348721</v>
       </c>
       <c r="AW7" s="2">
-        <f t="shared" si="20"/>
-        <v>520.08251150699994</v>
+        <f t="shared" si="19"/>
+        <v>921.35789416785235</v>
       </c>
       <c r="AX7" s="2">
-        <f t="shared" si="20"/>
-        <v>468.07426035629993</v>
+        <f t="shared" si="19"/>
+        <v>912.14431522617383</v>
       </c>
       <c r="AY7" s="2">
-        <f t="shared" si="20"/>
-        <v>421.26683432066994</v>
+        <f t="shared" si="19"/>
+        <v>903.02287207391214</v>
       </c>
       <c r="AZ7" s="2">
-        <f t="shared" si="20"/>
-        <v>379.14015088860293</v>
+        <f t="shared" si="19"/>
+        <v>893.99264335317298</v>
       </c>
       <c r="BA7" s="2">
-        <f t="shared" si="20"/>
-        <v>341.22613579974262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>885.05271691964128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>41</v>
       </c>
@@ -2850,7 +2812,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
@@ -2874,7 +2836,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
@@ -2898,7 +2860,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -2957,70 +2919,70 @@
       </c>
       <c r="X11" s="2">
         <f>+X7+X6</f>
-        <v>538.827</v>
+        <v>513.827</v>
       </c>
       <c r="Y11" s="2">
         <f>+Y7+Y6</f>
-        <v>348.8</v>
+        <v>248.8</v>
       </c>
       <c r="Z11" s="2">
         <f>+Z7+Z6</f>
-        <v>379</v>
+        <v>254</v>
       </c>
       <c r="AO11" s="2">
-        <f t="shared" ref="AO11:AP11" si="21">+AO7+AO6</f>
+        <f t="shared" ref="AO11:AP11" si="20">+AO7+AO6</f>
         <v>1144.876</v>
       </c>
       <c r="AP11" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1788.0319999999999</v>
       </c>
       <c r="AQ11" s="2">
         <f>+AQ7+AQ6</f>
-        <v>1878.627</v>
+        <v>1628.627</v>
       </c>
       <c r="AR11" s="2">
-        <f t="shared" ref="AR11:BA11" si="22">+AR7+AR6</f>
-        <v>3440.7642999999998</v>
+        <f t="shared" ref="AR11:BA11" si="21">+AR7+AR6</f>
+        <v>1018.8407299999999</v>
       </c>
       <c r="AS11" s="2">
-        <f t="shared" si="22"/>
-        <v>3352.6878699999997</v>
+        <f t="shared" si="21"/>
+        <v>1059.1523226999998</v>
       </c>
       <c r="AT11" s="2">
-        <f t="shared" si="22"/>
-        <v>3273.4190829999998</v>
+        <f t="shared" si="21"/>
+        <v>1099.5607994729999</v>
       </c>
       <c r="AU11" s="2">
-        <f t="shared" si="22"/>
-        <v>3202.0771746999999</v>
+        <f t="shared" si="21"/>
+        <v>1140.0651914782698</v>
       </c>
       <c r="AV11" s="2">
-        <f t="shared" si="22"/>
-        <v>3137.8694572300001</v>
+        <f t="shared" si="21"/>
+        <v>1180.6645395634873</v>
       </c>
       <c r="AW11" s="2">
-        <f t="shared" si="22"/>
-        <v>3080.0825115070002</v>
+        <f t="shared" si="21"/>
+        <v>1221.3578941678525</v>
       </c>
       <c r="AX11" s="2">
-        <f t="shared" si="22"/>
-        <v>3028.0742603562999</v>
+        <f t="shared" si="21"/>
+        <v>1212.1443152261738</v>
       </c>
       <c r="AY11" s="2">
-        <f t="shared" si="22"/>
-        <v>2981.2668343206701</v>
+        <f t="shared" si="21"/>
+        <v>1203.0228720739121</v>
       </c>
       <c r="AZ11" s="2">
-        <f t="shared" si="22"/>
-        <v>2939.1401508886029</v>
+        <f t="shared" si="21"/>
+        <v>1193.992643353173</v>
       </c>
       <c r="BA11" s="2">
-        <f t="shared" si="22"/>
-        <v>2901.2261357997427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="21"/>
+        <v>1185.0527169196412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -3070,7 +3032,7 @@
         <v>133.333</v>
       </c>
     </row>
-    <row r="13" spans="1:53" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
@@ -3088,43 +3050,43 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7">
-        <f t="shared" ref="M13:Z13" si="23">+M11+M12</f>
+        <f t="shared" ref="M13:Z13" si="22">+M11+M12</f>
         <v>230.26900000000001</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>258.42700000000002</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>253.5</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>261.238</v>
       </c>
       <c r="Q13" s="7">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>331.81700000000001</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>396.78100000000001</v>
       </c>
       <c r="S13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>413.464</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>362.93099999999998</v>
       </c>
       <c r="U13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>467.20100000000002</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>658.45500000000004</v>
       </c>
       <c r="W13" s="6">
@@ -3132,16 +3094,16 @@
         <v>745.33299999999997</v>
       </c>
       <c r="X13" s="6">
-        <f t="shared" si="23"/>
-        <v>538.827</v>
+        <f t="shared" si="22"/>
+        <v>513.827</v>
       </c>
       <c r="Y13" s="6">
-        <f t="shared" si="23"/>
-        <v>348.8</v>
+        <f t="shared" si="22"/>
+        <v>248.8</v>
       </c>
       <c r="Z13" s="6">
-        <f t="shared" si="23"/>
-        <v>379</v>
+        <f t="shared" si="22"/>
+        <v>254</v>
       </c>
       <c r="AH13" s="6">
         <v>5.4</v>
@@ -3165,59 +3127,59 @@
         <v>844</v>
       </c>
       <c r="AO13" s="6">
-        <f t="shared" ref="AO13:AQ13" si="24">+AO11+AO12</f>
+        <f t="shared" ref="AO13:AQ13" si="23">+AO11+AO12</f>
         <v>1144.876</v>
       </c>
       <c r="AP13" s="6">
+        <f t="shared" si="23"/>
+        <v>1788.0319999999999</v>
+      </c>
+      <c r="AQ13" s="6">
+        <f t="shared" si="23"/>
+        <v>1628.627</v>
+      </c>
+      <c r="AR13" s="6">
+        <f t="shared" ref="AR13:BA13" si="24">+AR11+AR12</f>
+        <v>1018.8407299999999</v>
+      </c>
+      <c r="AS13" s="6">
         <f t="shared" si="24"/>
-        <v>1788.0319999999999</v>
-      </c>
-      <c r="AQ13" s="6">
+        <v>1059.1523226999998</v>
+      </c>
+      <c r="AT13" s="6">
         <f t="shared" si="24"/>
-        <v>1878.627</v>
-      </c>
-      <c r="AR13" s="6">
-        <f t="shared" ref="AR13:BA13" si="25">+AR11+AR12</f>
-        <v>3440.7642999999998</v>
-      </c>
-      <c r="AS13" s="6">
-        <f t="shared" si="25"/>
-        <v>3352.6878699999997</v>
-      </c>
-      <c r="AT13" s="6">
-        <f t="shared" si="25"/>
-        <v>3273.4190829999998</v>
+        <v>1099.5607994729999</v>
       </c>
       <c r="AU13" s="6">
-        <f t="shared" si="25"/>
-        <v>3202.0771746999999</v>
+        <f t="shared" si="24"/>
+        <v>1140.0651914782698</v>
       </c>
       <c r="AV13" s="6">
-        <f t="shared" si="25"/>
-        <v>3137.8694572300001</v>
+        <f t="shared" si="24"/>
+        <v>1180.6645395634873</v>
       </c>
       <c r="AW13" s="6">
-        <f t="shared" si="25"/>
-        <v>3080.0825115070002</v>
+        <f t="shared" si="24"/>
+        <v>1221.3578941678525</v>
       </c>
       <c r="AX13" s="6">
-        <f t="shared" si="25"/>
-        <v>3028.0742603562999</v>
+        <f t="shared" si="24"/>
+        <v>1212.1443152261738</v>
       </c>
       <c r="AY13" s="6">
-        <f t="shared" si="25"/>
-        <v>2981.2668343206701</v>
+        <f t="shared" si="24"/>
+        <v>1203.0228720739121</v>
       </c>
       <c r="AZ13" s="6">
-        <f t="shared" si="25"/>
-        <v>2939.1401508886029</v>
+        <f t="shared" si="24"/>
+        <v>1193.992643353173</v>
       </c>
       <c r="BA13" s="6">
-        <f t="shared" si="25"/>
-        <v>2901.2261357997427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>1185.0527169196412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3268,26 +3230,70 @@
       </c>
       <c r="X14" s="2">
         <f>+X13*0.18</f>
-        <v>96.988860000000003</v>
+        <v>92.488860000000003</v>
       </c>
       <c r="Y14" s="2">
         <f>+Y13*0.18</f>
-        <v>62.783999999999999</v>
+        <v>44.783999999999999</v>
       </c>
       <c r="Z14" s="2">
         <f>+Z13*0.18</f>
-        <v>68.22</v>
+        <v>45.72</v>
       </c>
       <c r="AO14" s="2">
-        <f t="shared" ref="AO14:AO17" si="26">SUM(O14:R14)</f>
+        <f t="shared" ref="AO14:AO17" si="25">SUM(O14:R14)</f>
         <v>150.34300000000002</v>
       </c>
       <c r="AP14" s="2">
-        <f t="shared" ref="AP14:AP17" si="27">SUM(S14:V14)</f>
+        <f t="shared" ref="AP14:AP17" si="26">SUM(S14:V14)</f>
         <v>319.09900000000005</v>
       </c>
-    </row>
-    <row r="15" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ14" s="2">
+        <f t="shared" ref="AQ14" si="27">SUM(W14:Z14)</f>
+        <v>320.55686000000003</v>
+      </c>
+      <c r="AR14" s="2">
+        <f>+AR13-AR15</f>
+        <v>152.82610950000003</v>
+      </c>
+      <c r="AS14" s="2">
+        <f t="shared" ref="AS14:BA14" si="28">+AS13-AS15</f>
+        <v>158.87284840500001</v>
+      </c>
+      <c r="AT14" s="2">
+        <f t="shared" si="28"/>
+        <v>164.93411992095002</v>
+      </c>
+      <c r="AU14" s="2">
+        <f t="shared" si="28"/>
+        <v>171.00977872174053</v>
+      </c>
+      <c r="AV14" s="2">
+        <f t="shared" si="28"/>
+        <v>177.09968093452312</v>
+      </c>
+      <c r="AW14" s="2">
+        <f t="shared" si="28"/>
+        <v>183.20368412517792</v>
+      </c>
+      <c r="AX14" s="2">
+        <f t="shared" si="28"/>
+        <v>181.82164728392604</v>
+      </c>
+      <c r="AY14" s="2">
+        <f t="shared" si="28"/>
+        <v>180.45343081108683</v>
+      </c>
+      <c r="AZ14" s="2">
+        <f t="shared" si="28"/>
+        <v>179.098896502976</v>
+      </c>
+      <c r="BA14" s="2">
+        <f t="shared" si="28"/>
+        <v>177.75790753794615</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
@@ -3305,60 +3311,60 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5">
-        <f t="shared" ref="M15:T15" si="28">+M13-M14</f>
+        <f t="shared" ref="M15:T15" si="29">+M13-M14</f>
         <v>190.31700000000001</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>227.62800000000001</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>218.483</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>227.114</v>
       </c>
       <c r="Q15" s="5">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>294.791</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>352.60500000000002</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>362.90499999999997</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>318.38599999999997</v>
       </c>
       <c r="U15" s="2">
-        <f>+U13-U14</f>
+        <f t="shared" ref="U15:Z15" si="30">+U13-U14</f>
         <v>375.51</v>
       </c>
       <c r="V15" s="2">
-        <f>+V13-V14</f>
+        <f t="shared" si="30"/>
         <v>526.15100000000007</v>
       </c>
       <c r="W15" s="2">
-        <f>+W13-W14</f>
+        <f t="shared" si="30"/>
         <v>607.76900000000001</v>
       </c>
       <c r="X15" s="2">
-        <f>+X13-X14</f>
-        <v>441.83814000000001</v>
+        <f t="shared" si="30"/>
+        <v>421.33814000000001</v>
       </c>
       <c r="Y15" s="2">
-        <f>+Y13-Y14</f>
-        <v>286.01600000000002</v>
+        <f t="shared" si="30"/>
+        <v>204.01600000000002</v>
       </c>
       <c r="Z15" s="2">
-        <f>+Z13-Z14</f>
-        <v>310.77999999999997</v>
+        <f t="shared" si="30"/>
+        <v>208.28</v>
       </c>
       <c r="AO15" s="2">
         <f>+AO13-AO14</f>
@@ -3368,8 +3374,52 @@
         <f>+AP13-AP14</f>
         <v>1468.933</v>
       </c>
-    </row>
-    <row r="16" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ15" s="2">
+        <f>+AQ13-AQ14</f>
+        <v>1308.0701399999998</v>
+      </c>
+      <c r="AR15" s="2">
+        <f>+AR13*0.85</f>
+        <v>866.01462049999986</v>
+      </c>
+      <c r="AS15" s="2">
+        <f t="shared" ref="AS15:BA15" si="31">+AS13*0.85</f>
+        <v>900.27947429499977</v>
+      </c>
+      <c r="AT15" s="2">
+        <f t="shared" si="31"/>
+        <v>934.62667955204984</v>
+      </c>
+      <c r="AU15" s="2">
+        <f t="shared" si="31"/>
+        <v>969.05541275652922</v>
+      </c>
+      <c r="AV15" s="2">
+        <f t="shared" si="31"/>
+        <v>1003.5648586289642</v>
+      </c>
+      <c r="AW15" s="2">
+        <f t="shared" si="31"/>
+        <v>1038.1542100426745</v>
+      </c>
+      <c r="AX15" s="2">
+        <f t="shared" si="31"/>
+        <v>1030.3226679422478</v>
+      </c>
+      <c r="AY15" s="2">
+        <f t="shared" si="31"/>
+        <v>1022.5694412628253</v>
+      </c>
+      <c r="AZ15" s="2">
+        <f t="shared" si="31"/>
+        <v>1014.893746850197</v>
+      </c>
+      <c r="BA15" s="2">
+        <f t="shared" si="31"/>
+        <v>1007.294809381695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
@@ -3420,15 +3470,15 @@
         <v>249.154</v>
       </c>
       <c r="AO16" s="2">
+        <f t="shared" si="25"/>
+        <v>877.38699999999994</v>
+      </c>
+      <c r="AP16" s="2">
         <f t="shared" si="26"/>
-        <v>877.38699999999994</v>
-      </c>
-      <c r="AP16" s="2">
-        <f t="shared" si="27"/>
         <v>780.20299999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
@@ -3478,15 +3528,59 @@
         <v>133.62899999999999</v>
       </c>
       <c r="AO17" s="2">
+        <f t="shared" si="25"/>
+        <v>481.87099999999998</v>
+      </c>
+      <c r="AP17" s="2">
         <f t="shared" si="26"/>
-        <v>481.87099999999998</v>
-      </c>
-      <c r="AP17" s="2">
-        <f t="shared" si="27"/>
         <v>558.47199999999998</v>
       </c>
-    </row>
-    <row r="18" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ17" s="2">
+        <f>+AP17</f>
+        <v>558.47199999999998</v>
+      </c>
+      <c r="AR17" s="2">
+        <f>+AQ17*0.9</f>
+        <v>502.62479999999999</v>
+      </c>
+      <c r="AS17" s="2">
+        <f t="shared" ref="AS17:BA17" si="32">+AR17*0.9</f>
+        <v>452.36232000000001</v>
+      </c>
+      <c r="AT17" s="2">
+        <f t="shared" si="32"/>
+        <v>407.12608800000004</v>
+      </c>
+      <c r="AU17" s="2">
+        <f t="shared" si="32"/>
+        <v>366.41347920000004</v>
+      </c>
+      <c r="AV17" s="2">
+        <f t="shared" si="32"/>
+        <v>329.77213128000005</v>
+      </c>
+      <c r="AW17" s="2">
+        <f t="shared" si="32"/>
+        <v>296.79491815200004</v>
+      </c>
+      <c r="AX17" s="2">
+        <f t="shared" si="32"/>
+        <v>267.11542633680006</v>
+      </c>
+      <c r="AY17" s="2">
+        <f t="shared" si="32"/>
+        <v>240.40388370312004</v>
+      </c>
+      <c r="AZ17" s="2">
+        <f t="shared" si="32"/>
+        <v>216.36349533280804</v>
+      </c>
+      <c r="BA17" s="2">
+        <f t="shared" si="32"/>
+        <v>194.72714579952725</v>
+      </c>
+    </row>
+    <row r="18" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -3520,7 +3614,7 @@
         <v>360.45399999999995</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18" si="29">+Q16+Q17</f>
+        <f t="shared" ref="Q18" si="33">+Q16+Q17</f>
         <v>315.19399999999996</v>
       </c>
       <c r="R18" s="2">
@@ -3536,7 +3630,7 @@
         <v>318.48599999999999</v>
       </c>
       <c r="U18" s="2">
-        <f t="shared" ref="U18" si="30">+U16+U17</f>
+        <f t="shared" ref="U18" si="34">+U16+U17</f>
         <v>351.28300000000002</v>
       </c>
       <c r="V18" s="2">
@@ -3567,8 +3661,52 @@
         <f>+AP16+AP17</f>
         <v>1338.675</v>
       </c>
-    </row>
-    <row r="19" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="2">
+        <f>+AQ16+AQ17</f>
+        <v>558.47199999999998</v>
+      </c>
+      <c r="AR18" s="2">
+        <f t="shared" ref="AR18" si="35">+AR16+AR17</f>
+        <v>502.62479999999999</v>
+      </c>
+      <c r="AS18" s="2">
+        <f t="shared" ref="AS18" si="36">+AS16+AS17</f>
+        <v>452.36232000000001</v>
+      </c>
+      <c r="AT18" s="2">
+        <f t="shared" ref="AT18" si="37">+AT16+AT17</f>
+        <v>407.12608800000004</v>
+      </c>
+      <c r="AU18" s="2">
+        <f t="shared" ref="AU18" si="38">+AU16+AU17</f>
+        <v>366.41347920000004</v>
+      </c>
+      <c r="AV18" s="2">
+        <f t="shared" ref="AV18" si="39">+AV16+AV17</f>
+        <v>329.77213128000005</v>
+      </c>
+      <c r="AW18" s="2">
+        <f t="shared" ref="AW18" si="40">+AW16+AW17</f>
+        <v>296.79491815200004</v>
+      </c>
+      <c r="AX18" s="2">
+        <f t="shared" ref="AX18" si="41">+AX16+AX17</f>
+        <v>267.11542633680006</v>
+      </c>
+      <c r="AY18" s="2">
+        <f t="shared" ref="AY18" si="42">+AY16+AY17</f>
+        <v>240.40388370312004</v>
+      </c>
+      <c r="AZ18" s="2">
+        <f t="shared" ref="AZ18" si="43">+AZ16+AZ17</f>
+        <v>216.36349533280804</v>
+      </c>
+      <c r="BA18" s="2">
+        <f t="shared" ref="BA18" si="44">+BA16+BA17</f>
+        <v>194.72714579952725</v>
+      </c>
+    </row>
+    <row r="19" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>23</v>
       </c>
@@ -3602,7 +3740,7 @@
         <v>-133.33999999999995</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19" si="31">+Q15-Q18</f>
+        <f t="shared" ref="Q19" si="45">+Q15-Q18</f>
         <v>-20.402999999999963</v>
       </c>
       <c r="R19" s="2">
@@ -3618,7 +3756,7 @@
         <v>-0.10000000000002274</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" ref="U19" si="32">+U15-U18</f>
+        <f t="shared" ref="U19" si="46">+U15-U18</f>
         <v>24.226999999999975</v>
       </c>
       <c r="V19" s="2">
@@ -3631,15 +3769,15 @@
       </c>
       <c r="X19" s="2">
         <f>+X15-X18</f>
-        <v>441.83814000000001</v>
+        <v>421.33814000000001</v>
       </c>
       <c r="Y19" s="2">
         <f>+Y15-Y18</f>
-        <v>286.01600000000002</v>
+        <v>204.01600000000002</v>
       </c>
       <c r="Z19" s="2">
         <f>+Z15-Z18</f>
-        <v>310.77999999999997</v>
+        <v>208.28</v>
       </c>
       <c r="AO19" s="2">
         <f>+AO15-AO18</f>
@@ -3649,8 +3787,52 @@
         <f>+AP15-AP18</f>
         <v>130.25800000000004</v>
       </c>
-    </row>
-    <row r="20" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="2">
+        <f>+AQ15-AQ18</f>
+        <v>749.59813999999983</v>
+      </c>
+      <c r="AR19" s="2">
+        <f t="shared" ref="AR19" si="47">+AR15-AR18</f>
+        <v>363.38982049999987</v>
+      </c>
+      <c r="AS19" s="2">
+        <f t="shared" ref="AS19" si="48">+AS15-AS18</f>
+        <v>447.91715429499976</v>
+      </c>
+      <c r="AT19" s="2">
+        <f t="shared" ref="AT19" si="49">+AT15-AT18</f>
+        <v>527.50059155204985</v>
+      </c>
+      <c r="AU19" s="2">
+        <f t="shared" ref="AU19" si="50">+AU15-AU18</f>
+        <v>602.64193355652924</v>
+      </c>
+      <c r="AV19" s="2">
+        <f t="shared" ref="AV19" si="51">+AV15-AV18</f>
+        <v>673.79272734896415</v>
+      </c>
+      <c r="AW19" s="2">
+        <f t="shared" ref="AW19" si="52">+AW15-AW18</f>
+        <v>741.35929189067451</v>
+      </c>
+      <c r="AX19" s="2">
+        <f t="shared" ref="AX19" si="53">+AX15-AX18</f>
+        <v>763.20724160544773</v>
+      </c>
+      <c r="AY19" s="2">
+        <f t="shared" ref="AY19" si="54">+AY15-AY18</f>
+        <v>782.16555755970523</v>
+      </c>
+      <c r="AZ19" s="2">
+        <f t="shared" ref="AZ19" si="55">+AZ15-AZ18</f>
+        <v>798.53025151738893</v>
+      </c>
+      <c r="BA19" s="2">
+        <f t="shared" ref="BA19" si="56">+BA15-BA18</f>
+        <v>812.56766358216782</v>
+      </c>
+    </row>
+    <row r="20" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
@@ -3700,15 +3882,15 @@
         <v>0</v>
       </c>
       <c r="AO20" s="2">
-        <f t="shared" ref="AO20" si="33">SUM(O20:R20)</f>
+        <f t="shared" ref="AO20" si="57">SUM(O20:R20)</f>
         <v>33.055</v>
       </c>
       <c r="AP20" s="2">
-        <f t="shared" ref="AP20" si="34">SUM(S20:V20)</f>
+        <f t="shared" ref="AP20" si="58">SUM(S20:V20)</f>
         <v>42.692999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
@@ -3726,39 +3908,39 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5">
-        <f t="shared" ref="M21:U21" si="35">+M19+M20</f>
+        <f t="shared" ref="M21:U21" si="59">+M19+M20</f>
         <v>-137.49900000000002</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>-101.12699999999997</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>-125.20300000000003</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>-116.40599999999995</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>-32.734999999999964</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>41.134000000000036</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>64.367999999999995</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>14.177999999999978</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="59"/>
         <v>36.036999999999978</v>
       </c>
       <c r="V21" s="2">
@@ -3771,15 +3953,15 @@
       </c>
       <c r="X21" s="2">
         <f>+X19+X20</f>
-        <v>441.83814000000001</v>
+        <v>421.33814000000001</v>
       </c>
       <c r="Y21" s="2">
         <f>+Y19+Y20</f>
-        <v>286.01600000000002</v>
+        <v>204.01600000000002</v>
       </c>
       <c r="Z21" s="2">
         <f>+Z19+Z20</f>
-        <v>310.77999999999997</v>
+        <v>208.28</v>
       </c>
       <c r="AO21" s="2">
         <f>+AO19+AO20</f>
@@ -3789,8 +3971,52 @@
         <f>+AP19+AP20</f>
         <v>172.95100000000002</v>
       </c>
-    </row>
-    <row r="22" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="2">
+        <f>+AQ19+AQ20</f>
+        <v>749.59813999999983</v>
+      </c>
+      <c r="AR21" s="2">
+        <f t="shared" ref="AR21:BA21" si="60">+AR19+AR20</f>
+        <v>363.38982049999987</v>
+      </c>
+      <c r="AS21" s="2">
+        <f t="shared" si="60"/>
+        <v>447.91715429499976</v>
+      </c>
+      <c r="AT21" s="2">
+        <f t="shared" si="60"/>
+        <v>527.50059155204985</v>
+      </c>
+      <c r="AU21" s="2">
+        <f t="shared" si="60"/>
+        <v>602.64193355652924</v>
+      </c>
+      <c r="AV21" s="2">
+        <f t="shared" si="60"/>
+        <v>673.79272734896415</v>
+      </c>
+      <c r="AW21" s="2">
+        <f t="shared" si="60"/>
+        <v>741.35929189067451</v>
+      </c>
+      <c r="AX21" s="2">
+        <f t="shared" si="60"/>
+        <v>763.20724160544773</v>
+      </c>
+      <c r="AY21" s="2">
+        <f t="shared" si="60"/>
+        <v>782.16555755970523</v>
+      </c>
+      <c r="AZ21" s="2">
+        <f t="shared" si="60"/>
+        <v>798.53025151738893</v>
+      </c>
+      <c r="BA21" s="2">
+        <f t="shared" si="60"/>
+        <v>812.56766358216782</v>
+      </c>
+    </row>
+    <row r="22" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
@@ -3849,15 +4075,59 @@
         <v>0</v>
       </c>
       <c r="AO22" s="2">
-        <f t="shared" ref="AO22" si="36">SUM(O22:R22)</f>
+        <f t="shared" ref="AO22" si="61">SUM(O22:R22)</f>
         <v>15.879000000000001</v>
       </c>
       <c r="AP22" s="2">
-        <f t="shared" ref="AP22" si="37">SUM(S22:V22)</f>
+        <f t="shared" ref="AP22" si="62">SUM(S22:V22)</f>
         <v>25.535</v>
       </c>
-    </row>
-    <row r="23" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="2">
+        <f>+AQ21*0.2</f>
+        <v>149.91962799999996</v>
+      </c>
+      <c r="AR22" s="2">
+        <f t="shared" ref="AR22:BA22" si="63">+AR21*0.2</f>
+        <v>72.677964099999983</v>
+      </c>
+      <c r="AS22" s="2">
+        <f t="shared" si="63"/>
+        <v>89.583430858999961</v>
+      </c>
+      <c r="AT22" s="2">
+        <f t="shared" si="63"/>
+        <v>105.50011831040997</v>
+      </c>
+      <c r="AU22" s="2">
+        <f t="shared" si="63"/>
+        <v>120.52838671130586</v>
+      </c>
+      <c r="AV22" s="2">
+        <f t="shared" si="63"/>
+        <v>134.75854546979284</v>
+      </c>
+      <c r="AW22" s="2">
+        <f t="shared" si="63"/>
+        <v>148.27185837813491</v>
+      </c>
+      <c r="AX22" s="2">
+        <f t="shared" si="63"/>
+        <v>152.64144832108954</v>
+      </c>
+      <c r="AY22" s="2">
+        <f t="shared" si="63"/>
+        <v>156.43311151194106</v>
+      </c>
+      <c r="AZ22" s="2">
+        <f t="shared" si="63"/>
+        <v>159.70605030347781</v>
+      </c>
+      <c r="BA22" s="2">
+        <f t="shared" si="63"/>
+        <v>162.51353271643359</v>
+      </c>
+    </row>
+    <row r="23" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -3875,39 +4145,39 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5">
-        <f t="shared" ref="M23:U23" si="38">+M21-M22</f>
+        <f t="shared" ref="M23:U23" si="64">+M21-M22</f>
         <v>-137.49900000000002</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>-109.06499999999997</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>-129.24800000000002</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>-125.76099999999995</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>-40.497999999999962</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>46.418000000000035</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>59.038999999999994</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>7.0609999999999777</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>35.641999999999975</v>
       </c>
       <c r="V23" s="2">
@@ -3920,15 +4190,15 @@
       </c>
       <c r="X23" s="2">
         <f>+X21-X22</f>
-        <v>441.83814000000001</v>
+        <v>421.33814000000001</v>
       </c>
       <c r="Y23" s="2">
         <f>+Y21-Y22</f>
-        <v>286.01600000000002</v>
+        <v>204.01600000000002</v>
       </c>
       <c r="Z23" s="2">
         <f>+Z21-Z22</f>
-        <v>310.77999999999997</v>
+        <v>208.28</v>
       </c>
       <c r="AO23" s="2">
         <f>+AO21-AO22</f>
@@ -3938,8 +4208,52 @@
         <f>+AP21-AP22</f>
         <v>147.41600000000003</v>
       </c>
-    </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="2">
+        <f>+AQ21-AQ22</f>
+        <v>599.67851199999984</v>
+      </c>
+      <c r="AR23" s="2">
+        <f t="shared" ref="AR23:BA23" si="65">+AR21-AR22</f>
+        <v>290.71185639999987</v>
+      </c>
+      <c r="AS23" s="2">
+        <f t="shared" si="65"/>
+        <v>358.33372343599979</v>
+      </c>
+      <c r="AT23" s="2">
+        <f t="shared" si="65"/>
+        <v>422.0004732416399</v>
+      </c>
+      <c r="AU23" s="2">
+        <f t="shared" si="65"/>
+        <v>482.11354684522337</v>
+      </c>
+      <c r="AV23" s="2">
+        <f t="shared" si="65"/>
+        <v>539.03418187917134</v>
+      </c>
+      <c r="AW23" s="2">
+        <f t="shared" si="65"/>
+        <v>593.08743351253963</v>
+      </c>
+      <c r="AX23" s="2">
+        <f t="shared" si="65"/>
+        <v>610.56579328435816</v>
+      </c>
+      <c r="AY23" s="2">
+        <f t="shared" si="65"/>
+        <v>625.73244604776414</v>
+      </c>
+      <c r="AZ23" s="2">
+        <f t="shared" si="65"/>
+        <v>638.82420121391112</v>
+      </c>
+      <c r="BA23" s="2">
+        <f t="shared" si="65"/>
+        <v>650.05413086573424</v>
+      </c>
+    </row>
+    <row r="24" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
@@ -3948,63 +4262,107 @@
         <v>-0.68764396594892341</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" ref="M24:Z24" si="39">+M23/M25</f>
+        <f t="shared" ref="M24:Z24" si="66">+M23/M25</f>
         <v>-1.5691217419089791</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>-1.2416607846262435</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>-1.4656294649944437</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>-1.4171371263085535</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>-0.45560193049758646</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>0.43958937060817888</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>0.59566761506951582</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>7.1219640119422029E-2</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>0.35483035998725687</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>1.4721776646938443</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>2.3108194161993385</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="39"/>
-        <v>4.5380963825722569</v>
+        <f t="shared" si="66"/>
+        <v>4.3275419568209363</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="39"/>
-        <v>2.9376553480824144</v>
+        <f t="shared" si="66"/>
+        <v>2.0954376450771353</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" si="39"/>
-        <v>3.1920050943900082</v>
-      </c>
-    </row>
-    <row r="25" spans="2:43" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="66"/>
+        <v>2.1392329656334095</v>
+      </c>
+      <c r="AQ24" s="1">
+        <f>+AQ23/AQ25</f>
+        <v>5.5283156516768983</v>
+      </c>
+      <c r="AR24" s="1">
+        <f t="shared" ref="AR24:BA24" si="67">+AR23/AR25</f>
+        <v>2.6800141637627437</v>
+      </c>
+      <c r="AS24" s="1">
+        <f t="shared" si="67"/>
+        <v>3.3034065622729849</v>
+      </c>
+      <c r="AT24" s="1">
+        <f t="shared" si="67"/>
+        <v>3.8903375301144965</v>
+      </c>
+      <c r="AU24" s="1">
+        <f t="shared" si="67"/>
+        <v>4.4445078714274695</v>
+      </c>
+      <c r="AV24" s="1">
+        <f t="shared" si="67"/>
+        <v>4.9692477633273535</v>
+      </c>
+      <c r="AW24" s="1">
+        <f t="shared" si="67"/>
+        <v>5.4675538240734145</v>
+      </c>
+      <c r="AX24" s="1">
+        <f t="shared" si="67"/>
+        <v>5.6286833092202571</v>
+      </c>
+      <c r="AY24" s="1">
+        <f t="shared" si="67"/>
+        <v>5.7685016321677463</v>
+      </c>
+      <c r="AZ24" s="1">
+        <f t="shared" si="67"/>
+        <v>5.8891918912726657</v>
+      </c>
+      <c r="BA24" s="1">
+        <f t="shared" si="67"/>
+        <v>5.9927183552347492</v>
+      </c>
+    </row>
+    <row r="25" spans="2:56" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>1</v>
       </c>
@@ -4073,29 +4431,81 @@
         <f>+V25</f>
         <v>108.474</v>
       </c>
-    </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="AQ25" s="2">
+        <f>+AP25</f>
+        <v>108.474</v>
+      </c>
+      <c r="AR25" s="2">
+        <f t="shared" ref="AR25:BA25" si="68">+AQ25</f>
+        <v>108.474</v>
+      </c>
+      <c r="AS25" s="2">
+        <f t="shared" si="68"/>
+        <v>108.474</v>
+      </c>
+      <c r="AT25" s="2">
+        <f t="shared" si="68"/>
+        <v>108.474</v>
+      </c>
+      <c r="AU25" s="2">
+        <f t="shared" si="68"/>
+        <v>108.474</v>
+      </c>
+      <c r="AV25" s="2">
+        <f t="shared" si="68"/>
+        <v>108.474</v>
+      </c>
+      <c r="AW25" s="2">
+        <f t="shared" si="68"/>
+        <v>108.474</v>
+      </c>
+      <c r="AX25" s="2">
+        <f t="shared" si="68"/>
+        <v>108.474</v>
+      </c>
+      <c r="AY25" s="2">
+        <f t="shared" si="68"/>
+        <v>108.474</v>
+      </c>
+      <c r="AZ25" s="2">
+        <f t="shared" si="68"/>
+        <v>108.474</v>
+      </c>
+      <c r="BA25" s="2">
+        <f t="shared" si="68"/>
+        <v>108.474</v>
+      </c>
+    </row>
+    <row r="26" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="BC26" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD26" s="22">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="27" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>173</v>
       </c>
       <c r="R27" s="22">
-        <f t="shared" ref="R27:W27" si="40">+R15/R13</f>
+        <f t="shared" ref="R27:V27" si="69">+R15/R13</f>
         <v>0.88866402373097508</v>
       </c>
       <c r="S27" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0.87771849544337588</v>
       </c>
       <c r="T27" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0.87726317123640574</v>
       </c>
       <c r="U27" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0.80374399883561887</v>
       </c>
       <c r="V27" s="22">
-        <f t="shared" si="40"/>
+        <f t="shared" si="69"/>
         <v>0.79906903281165764</v>
       </c>
       <c r="W27" s="22">
@@ -4115,25 +4525,36 @@
         <v>0.82</v>
       </c>
       <c r="AO27" s="22">
-        <f t="shared" ref="AO27:AP27" si="41">+AO15/AO13</f>
+        <f t="shared" ref="AO27" si="70">+AO15/AO13</f>
         <v>0.86868184851459884</v>
       </c>
       <c r="AP27" s="22">
         <f>+AP15/AP13</f>
         <v>0.821536191746009</v>
       </c>
-    </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
+      <c r="BC27" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD27" s="2">
+        <f>NPV(BD26,AR23:BA23)+Main!L5-Main!L6</f>
+        <v>2804.4442387759409</v>
+      </c>
+    </row>
+    <row r="28" spans="2:56" x14ac:dyDescent="0.2">
       <c r="AP28" s="22">
         <f>+AP13/AO13-1</f>
         <v>0.56176913482333446</v>
       </c>
       <c r="AQ28" s="22">
         <f>+AQ13/AP13-1</f>
-        <v>5.0667437719235542E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
+        <v>-8.9151089018541074E-2</v>
+      </c>
+      <c r="BD28" s="1">
+        <f>+BD27/Main!L3</f>
+        <v>28.911796276040629</v>
+      </c>
+    </row>
+    <row r="30" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>157</v>
       </c>
@@ -4142,7 +4563,7 @@
         <v>-352.03200000000004</v>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
@@ -4151,7 +4572,7 @@
         <v>786.25699999999995</v>
       </c>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>139</v>
       </c>
@@ -4159,7 +4580,7 @@
         <v>659.37099999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>140</v>
       </c>
@@ -4167,7 +4588,7 @@
         <v>941.43200000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>141</v>
       </c>
@@ -4175,7 +4596,7 @@
         <v>203.49</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>142</v>
       </c>
@@ -4183,7 +4604,7 @@
         <v>105.47799999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
         <v>143</v>
       </c>
@@ -4191,7 +4612,7 @@
         <v>360.58699999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>144</v>
       </c>
@@ -4199,7 +4620,7 @@
         <v>147.06299999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>145</v>
       </c>
@@ -4207,7 +4628,7 @@
         <v>181.15799999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>146</v>
       </c>
@@ -4215,7 +4636,7 @@
         <v>80.551000000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>147</v>
       </c>
@@ -4224,7 +4645,7 @@
         <v>3465.3870000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>150</v>
       </c>
@@ -4232,7 +4653,7 @@
         <v>156.10499999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>151</v>
       </c>
@@ -4240,7 +4661,7 @@
         <v>391.65</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>152</v>
       </c>
@@ -4249,7 +4670,7 @@
         <v>369.85899999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>153</v>
       </c>
@@ -4257,7 +4678,7 @@
         <v>12.974</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>154</v>
       </c>
@@ -4265,7 +4686,7 @@
         <v>205.46</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
         <v>155</v>
       </c>
@@ -4273,7 +4694,7 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>156</v>
       </c>
@@ -4281,7 +4702,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>4</v>
       </c>
@@ -4289,7 +4710,7 @@
         <v>1138.289</v>
       </c>
     </row>
-    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>149</v>
       </c>
@@ -4297,7 +4718,7 @@
         <v>1142.723</v>
       </c>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>148</v>
       </c>
@@ -4306,7 +4727,7 @@
         <v>3465.3869999999997</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>227</v>
       </c>
@@ -4315,7 +4736,7 @@
         <v>224.98599999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>228</v>
       </c>
@@ -4323,7 +4744,7 @@
         <v>-447.50799999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>231</v>
       </c>
@@ -4331,7 +4752,7 @@
         <v>90.727999999999994</v>
       </c>
     </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>235</v>
       </c>
@@ -4339,7 +4760,7 @@
         <v>41.427999999999997</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>232</v>
       </c>
@@ -4347,7 +4768,7 @@
         <v>9.9779999999999998</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>144</v>
       </c>
@@ -4355,7 +4776,7 @@
         <v>3.9340000000000002</v>
       </c>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>233</v>
       </c>
@@ -4363,7 +4784,7 @@
         <v>-1.9119999999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>234</v>
       </c>
@@ -4371,7 +4792,7 @@
         <v>1.6919999999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>230</v>
       </c>
@@ -4380,7 +4801,7 @@
         <v>-281.77700000000004</v>
       </c>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>229</v>
       </c>
@@ -4389,7 +4810,7 @@
         <v>-583.4369999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
         <v>238</v>
       </c>
@@ -4412,7 +4833,7 @@
         <v>-43.651000000000003</v>
       </c>
     </row>
-    <row r="65" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
         <v>239</v>
       </c>
@@ -4436,7 +4857,7 @@
         <v>-3.8999999999999986</v>
       </c>
     </row>
-    <row r="66" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
         <v>240</v>
       </c>
@@ -4459,7 +4880,7 @@
         <v>-2.238</v>
       </c>
     </row>
-    <row r="67" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
         <v>237</v>
       </c>
@@ -4482,7 +4903,7 @@
         <v>-241.38800000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>236</v>
       </c>
@@ -4506,7 +4927,7 @@
         <v>-291.17700000000002</v>
       </c>
     </row>
-    <row r="70" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
         <v>243</v>
       </c>
@@ -4529,7 +4950,7 @@
         <v>15.680999999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>244</v>
       </c>
@@ -4552,7 +4973,7 @@
         <v>-3.21</v>
       </c>
     </row>
-    <row r="72" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
         <v>242</v>
       </c>
@@ -4576,7 +4997,7 @@
         <v>12.471</v>
       </c>
     </row>
-    <row r="73" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
         <v>241</v>
       </c>
@@ -4605,8 +5026,9 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{618990CD-8051-4997-8A20-CDF52FC6BCF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4618,18 +5040,18 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -4637,7 +5059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -4645,7 +5067,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -4653,7 +5075,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -4661,7 +5083,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -4669,17 +5091,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -4687,7 +5109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>179</v>
       </c>
@@ -4695,22 +5117,22 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>174</v>
       </c>
@@ -4718,7 +5140,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>141</v>
       </c>
@@ -4726,53 +5148,53 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" s="19" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="24" t="s">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="24" t="s">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" s="19" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" s="19" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C26" s="21" t="s">
         <v>100</v>
       </c>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
         <v>96</v>
@@ -4781,185 +5203,185 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C28" s="21"/>
       <c r="D28" s="21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C29" s="21"/>
       <c r="D29" s="21" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C30" s="21"/>
       <c r="D30" s="21" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="19" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="3:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C60" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" s="19" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C78" s="19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="80" spans="3:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C80" s="19" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="19" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C84" s="19" t="s">
         <v>190</v>
       </c>
@@ -4979,18 +5401,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -4998,12 +5420,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -5011,17 +5433,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>207</v>
       </c>
@@ -5040,18 +5462,18 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -5059,12 +5481,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -5072,17 +5494,17 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>205</v>
       </c>
@@ -5101,19 +5523,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>33</v>
       </c>
@@ -5121,7 +5543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>64</v>
       </c>
@@ -5129,7 +5551,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>39</v>
       </c>
@@ -5137,7 +5559,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>179</v>
       </c>
@@ -5145,7 +5567,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>69</v>
       </c>
@@ -5153,32 +5575,32 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="24" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>137</v>
       </c>
@@ -5195,7 +5617,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>128</v>
       </c>
@@ -5212,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>129</v>
       </c>
@@ -5229,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>130</v>
       </c>
@@ -5246,7 +5668,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>131</v>
       </c>
@@ -5263,7 +5685,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>132</v>
       </c>
@@ -5280,7 +5702,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>133</v>
       </c>
@@ -5297,7 +5719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>136</v>
       </c>
@@ -5305,7 +5727,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>128</v>
       </c>
@@ -5322,7 +5744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>129</v>
       </c>
@@ -5339,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>130</v>
       </c>
@@ -5356,7 +5778,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>131</v>
       </c>
@@ -5373,7 +5795,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>132</v>
       </c>
@@ -5390,7 +5812,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>133</v>
       </c>
@@ -5407,7 +5829,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C29" s="19" t="s">
         <v>225</v>
       </c>
